--- a/DEF/DUNBRTN.xlsx
+++ b/DEF/DUNBRTN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielg\Desktop\DOX\DEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6AFE8E-39CA-4708-93FF-90034D5B08DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A5D1F6-9152-42EB-A439-7FCF5EF632D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F6FEE69F-82B9-4A1A-9DBE-EBFF43AC107E}"/>
   </bookViews>
@@ -6118,10 +6118,6 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6130,18 +6126,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7110,6 +7094,22 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -8158,7 +8158,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8179,40 +8179,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="514" t="s">
+      <c r="A1" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="515"/>
-      <c r="C1" s="516"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="510"/>
       <c r="D1" s="373"/>
-      <c r="E1" s="514" t="s">
+      <c r="E1" s="508" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="515"/>
-      <c r="G1" s="516"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="510"/>
       <c r="H1" s="373"/>
-      <c r="I1" s="530" t="s">
+      <c r="I1" s="524" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="531"/>
-      <c r="K1" s="531"/>
-      <c r="L1" s="531"/>
-      <c r="M1" s="532"/>
+      <c r="J1" s="525"/>
+      <c r="K1" s="525"/>
+      <c r="L1" s="525"/>
+      <c r="M1" s="526"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="517"/>
-      <c r="B2" s="518"/>
-      <c r="C2" s="519"/>
+      <c r="A2" s="511"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="513"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="517"/>
-      <c r="F2" s="518"/>
-      <c r="G2" s="519"/>
+      <c r="E2" s="511"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="513"/>
       <c r="H2" s="373"/>
-      <c r="I2" s="536"/>
-      <c r="J2" s="537"/>
-      <c r="K2" s="537"/>
-      <c r="L2" s="537"/>
-      <c r="M2" s="538"/>
+      <c r="I2" s="530"/>
+      <c r="J2" s="531"/>
+      <c r="K2" s="531"/>
+      <c r="L2" s="531"/>
+      <c r="M2" s="532"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="361" t="s">
@@ -8538,11 +8538,11 @@
         <v>13</v>
       </c>
       <c r="D12" s="373"/>
-      <c r="E12" s="514" t="s">
+      <c r="E12" s="508" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="515"/>
-      <c r="G12" s="516"/>
+      <c r="F12" s="509"/>
+      <c r="G12" s="510"/>
       <c r="H12" s="373"/>
       <c r="I12" s="45">
         <v>9</v>
@@ -8569,9 +8569,9 @@
         <v>14</v>
       </c>
       <c r="D13" s="373"/>
-      <c r="E13" s="517"/>
-      <c r="F13" s="518"/>
-      <c r="G13" s="519"/>
+      <c r="E13" s="511"/>
+      <c r="F13" s="512"/>
+      <c r="G13" s="513"/>
       <c r="H13" s="373"/>
       <c r="I13" s="45">
         <v>10</v>
@@ -8611,10 +8611,10 @@
       </c>
       <c r="H14" s="373"/>
       <c r="I14" s="45"/>
-      <c r="J14" s="526"/>
-      <c r="K14" s="527"/>
-      <c r="L14" s="527"/>
-      <c r="M14" s="528"/>
+      <c r="J14" s="520"/>
+      <c r="K14" s="521"/>
+      <c r="L14" s="521"/>
+      <c r="M14" s="522"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="367">
@@ -8732,11 +8732,11 @@
         <v>18</v>
       </c>
       <c r="D18" s="373"/>
-      <c r="E18" s="514" t="s">
+      <c r="E18" s="508" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="515"/>
-      <c r="G18" s="516"/>
+      <c r="F18" s="509"/>
+      <c r="G18" s="510"/>
       <c r="H18" s="373"/>
       <c r="I18" s="45">
         <v>14</v>
@@ -8765,15 +8765,15 @@
         <v>19</v>
       </c>
       <c r="D19" s="373"/>
-      <c r="E19" s="517"/>
-      <c r="F19" s="518"/>
-      <c r="G19" s="519"/>
+      <c r="E19" s="511"/>
+      <c r="F19" s="512"/>
+      <c r="G19" s="513"/>
       <c r="H19" s="373"/>
-      <c r="I19" s="539"/>
-      <c r="J19" s="527"/>
-      <c r="K19" s="527"/>
-      <c r="L19" s="527"/>
-      <c r="M19" s="528"/>
+      <c r="I19" s="533"/>
+      <c r="J19" s="521"/>
+      <c r="K19" s="521"/>
+      <c r="L19" s="521"/>
+      <c r="M19" s="522"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="367">
@@ -8931,11 +8931,11 @@
         <v>26</v>
       </c>
       <c r="D25" s="373"/>
-      <c r="E25" s="530" t="s">
+      <c r="E25" s="524" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="531"/>
-      <c r="G25" s="532"/>
+      <c r="F25" s="525"/>
+      <c r="G25" s="526"/>
       <c r="H25" s="373"/>
       <c r="I25" s="15" t="s">
         <v>76</v>
@@ -8958,9 +8958,9 @@
         <v>25</v>
       </c>
       <c r="D26" s="373"/>
-      <c r="E26" s="533"/>
-      <c r="F26" s="534"/>
-      <c r="G26" s="535"/>
+      <c r="E26" s="527"/>
+      <c r="F26" s="528"/>
+      <c r="G26" s="529"/>
       <c r="H26" s="373"/>
       <c r="I26" s="15" t="s">
         <v>77</v>
@@ -9008,11 +9008,11 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="520" t="s">
+      <c r="A28" s="514" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="521"/>
-      <c r="C28" s="522"/>
+      <c r="B28" s="515"/>
+      <c r="C28" s="516"/>
       <c r="D28" s="373"/>
       <c r="E28" s="15">
         <v>1</v>
@@ -9038,11 +9038,11 @@
       <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A29" s="523" t="s">
+      <c r="A29" s="517" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="524"/>
-      <c r="C29" s="525"/>
+      <c r="B29" s="518"/>
+      <c r="C29" s="519"/>
       <c r="D29" s="373"/>
       <c r="E29" s="19">
         <v>2</v>
@@ -9081,10 +9081,10 @@
       <c r="J30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="540" t="s">
+      <c r="K30" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="L30" s="540"/>
+      <c r="L30" s="534"/>
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13">
@@ -9098,20 +9098,20 @@
         <v>29</v>
       </c>
       <c r="D31" s="373"/>
-      <c r="E31" s="530" t="s">
+      <c r="E31" s="524" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="531"/>
-      <c r="G31" s="532"/>
+      <c r="F31" s="525"/>
+      <c r="G31" s="526"/>
       <c r="H31" s="373"/>
       <c r="I31" s="15"/>
       <c r="J31" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="540" t="s">
+      <c r="K31" s="534" t="s">
         <v>90</v>
       </c>
-      <c r="L31" s="540"/>
+      <c r="L31" s="534"/>
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13">
@@ -9125,18 +9125,18 @@
         <v>30</v>
       </c>
       <c r="D32" s="373"/>
-      <c r="E32" s="533"/>
-      <c r="F32" s="534"/>
-      <c r="G32" s="535"/>
+      <c r="E32" s="527"/>
+      <c r="F32" s="528"/>
+      <c r="G32" s="529"/>
       <c r="H32" s="373"/>
       <c r="I32" s="15"/>
       <c r="J32" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K32" s="540" t="s">
+      <c r="K32" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="540"/>
+      <c r="L32" s="534"/>
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1">
@@ -9164,10 +9164,10 @@
       <c r="J33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K33" s="529" t="s">
+      <c r="K33" s="523" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="529"/>
+      <c r="L33" s="523"/>
       <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1">
@@ -9309,8 +9309,8 @@
   <dimension ref="A1:AG79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9355,44 +9355,44 @@
       <c r="A1" s="142" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="613" t="s">
+      <c r="B1" s="607" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="614"/>
-      <c r="D1" s="614"/>
-      <c r="E1" s="615"/>
+      <c r="C1" s="608"/>
+      <c r="D1" s="608"/>
+      <c r="E1" s="609"/>
       <c r="F1" s="202"/>
       <c r="G1" s="182"/>
-      <c r="H1" s="611" t="s">
+      <c r="H1" s="605" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="611"/>
-      <c r="J1" s="611"/>
-      <c r="K1" s="612"/>
+      <c r="I1" s="605"/>
+      <c r="J1" s="605"/>
+      <c r="K1" s="606"/>
       <c r="L1" s="198"/>
       <c r="M1" s="54"/>
-      <c r="N1" s="616" t="s">
+      <c r="N1" s="610" t="s">
         <v>398</v>
       </c>
-      <c r="O1" s="616"/>
-      <c r="P1" s="616"/>
-      <c r="Q1" s="616"/>
+      <c r="O1" s="610"/>
+      <c r="P1" s="610"/>
+      <c r="Q1" s="610"/>
       <c r="R1" s="198"/>
       <c r="S1" s="234"/>
-      <c r="T1" s="541" t="s">
+      <c r="T1" s="535" t="s">
         <v>441</v>
       </c>
-      <c r="U1" s="541"/>
-      <c r="V1" s="541"/>
-      <c r="W1" s="541"/>
-      <c r="X1" s="541"/>
-      <c r="Y1" s="541"/>
-      <c r="Z1" s="541"/>
-      <c r="AA1" s="541"/>
-      <c r="AB1" s="541"/>
-      <c r="AC1" s="541"/>
-      <c r="AD1" s="541"/>
-      <c r="AE1" s="542"/>
+      <c r="U1" s="535"/>
+      <c r="V1" s="535"/>
+      <c r="W1" s="535"/>
+      <c r="X1" s="535"/>
+      <c r="Y1" s="535"/>
+      <c r="Z1" s="535"/>
+      <c r="AA1" s="535"/>
+      <c r="AB1" s="535"/>
+      <c r="AC1" s="535"/>
+      <c r="AD1" s="535"/>
+      <c r="AE1" s="536"/>
       <c r="AF1" s="58"/>
       <c r="AG1" s="198"/>
     </row>
@@ -9446,18 +9446,18 @@
       </c>
       <c r="R2" s="198"/>
       <c r="S2" s="238"/>
-      <c r="T2" s="543"/>
-      <c r="U2" s="543"/>
-      <c r="V2" s="543"/>
-      <c r="W2" s="543"/>
-      <c r="X2" s="543"/>
-      <c r="Y2" s="543"/>
-      <c r="Z2" s="543"/>
-      <c r="AA2" s="543"/>
-      <c r="AB2" s="543"/>
-      <c r="AC2" s="543"/>
-      <c r="AD2" s="543"/>
-      <c r="AE2" s="544"/>
+      <c r="T2" s="537"/>
+      <c r="U2" s="537"/>
+      <c r="V2" s="537"/>
+      <c r="W2" s="537"/>
+      <c r="X2" s="537"/>
+      <c r="Y2" s="537"/>
+      <c r="Z2" s="537"/>
+      <c r="AA2" s="537"/>
+      <c r="AB2" s="537"/>
+      <c r="AC2" s="537"/>
+      <c r="AD2" s="537"/>
+      <c r="AE2" s="538"/>
       <c r="AF2" s="58"/>
       <c r="AG2" s="198"/>
     </row>
@@ -9471,7 +9471,7 @@
       <c r="C3" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="502">
+      <c r="D3" s="496">
         <v>2</v>
       </c>
       <c r="E3" s="145"/>
@@ -9485,7 +9485,7 @@
       <c r="I3" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="J3" s="506">
+      <c r="J3" s="500">
         <v>5</v>
       </c>
       <c r="K3" s="93"/>
@@ -9499,7 +9499,7 @@
       <c r="O3" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="P3" s="512">
+      <c r="P3" s="506">
         <v>142</v>
       </c>
       <c r="Q3" s="53"/>
@@ -9517,16 +9517,16 @@
         <v>428</v>
       </c>
       <c r="W3" s="209"/>
-      <c r="X3" s="578" t="s">
+      <c r="X3" s="572" t="s">
         <v>414</v>
       </c>
-      <c r="Y3" s="579"/>
-      <c r="Z3" s="579"/>
-      <c r="AA3" s="579"/>
-      <c r="AB3" s="579"/>
-      <c r="AC3" s="579"/>
-      <c r="AD3" s="579"/>
-      <c r="AE3" s="580"/>
+      <c r="Y3" s="573"/>
+      <c r="Z3" s="573"/>
+      <c r="AA3" s="573"/>
+      <c r="AB3" s="573"/>
+      <c r="AC3" s="573"/>
+      <c r="AD3" s="573"/>
+      <c r="AE3" s="574"/>
       <c r="AF3" s="58"/>
       <c r="AG3" s="198"/>
     </row>
@@ -9540,7 +9540,7 @@
       <c r="C4" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="503"/>
+      <c r="D4" s="497"/>
       <c r="E4" s="147"/>
       <c r="F4" s="201"/>
       <c r="G4" s="136">
@@ -9552,7 +9552,7 @@
       <c r="I4" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="511"/>
+      <c r="J4" s="505"/>
       <c r="K4" s="93"/>
       <c r="L4" s="198"/>
       <c r="M4" s="207">
@@ -9564,30 +9564,30 @@
       <c r="O4" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="P4" s="512"/>
+      <c r="P4" s="506"/>
       <c r="Q4" s="53"/>
       <c r="R4" s="198"/>
-      <c r="S4" s="586">
+      <c r="S4" s="580">
         <v>1</v>
       </c>
-      <c r="T4" s="595" t="s">
+      <c r="T4" s="589" t="s">
         <v>432</v>
       </c>
-      <c r="U4" s="597">
+      <c r="U4" s="591">
         <v>55</v>
       </c>
-      <c r="V4" s="599">
+      <c r="V4" s="593">
         <v>101</v>
       </c>
       <c r="W4" s="231"/>
-      <c r="X4" s="581"/>
-      <c r="Y4" s="582"/>
-      <c r="Z4" s="582"/>
-      <c r="AA4" s="582"/>
-      <c r="AB4" s="582"/>
-      <c r="AC4" s="582"/>
-      <c r="AD4" s="582"/>
-      <c r="AE4" s="583"/>
+      <c r="X4" s="575"/>
+      <c r="Y4" s="576"/>
+      <c r="Z4" s="576"/>
+      <c r="AA4" s="576"/>
+      <c r="AB4" s="576"/>
+      <c r="AC4" s="576"/>
+      <c r="AD4" s="576"/>
+      <c r="AE4" s="577"/>
       <c r="AF4" s="58"/>
       <c r="AG4" s="198"/>
     </row>
@@ -9601,7 +9601,7 @@
       <c r="C5" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="499"/>
+      <c r="D5" s="493"/>
       <c r="E5" s="148"/>
       <c r="F5" s="201"/>
       <c r="G5" s="136">
@@ -9613,7 +9613,7 @@
       <c r="I5" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="J5" s="507"/>
+      <c r="J5" s="501"/>
       <c r="K5" s="93"/>
       <c r="L5" s="198"/>
       <c r="M5" s="207">
@@ -9625,35 +9625,35 @@
       <c r="O5" s="59" t="s">
         <v>569</v>
       </c>
-      <c r="P5" s="513" t="s">
+      <c r="P5" s="507" t="s">
         <v>571</v>
       </c>
-      <c r="Q5" s="441" t="str">
+      <c r="Q5" s="435" t="str">
         <f>"["&amp;N56&amp;"]"</f>
         <v>[MIDWEST]</v>
       </c>
       <c r="R5" s="198" t="s">
         <v>425</v>
       </c>
-      <c r="S5" s="586"/>
-      <c r="T5" s="596"/>
-      <c r="U5" s="598"/>
-      <c r="V5" s="600"/>
+      <c r="S5" s="580"/>
+      <c r="T5" s="590"/>
+      <c r="U5" s="592"/>
+      <c r="V5" s="594"/>
       <c r="W5" s="58"/>
       <c r="X5" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="557" t="s">
+      <c r="Y5" s="551" t="s">
         <v>104</v>
       </c>
-      <c r="Z5" s="558"/>
-      <c r="AA5" s="559" t="s">
+      <c r="Z5" s="552"/>
+      <c r="AA5" s="553" t="s">
         <v>426</v>
       </c>
-      <c r="AB5" s="560"/>
-      <c r="AC5" s="560"/>
-      <c r="AD5" s="560"/>
-      <c r="AE5" s="561"/>
+      <c r="AB5" s="554"/>
+      <c r="AC5" s="554"/>
+      <c r="AD5" s="554"/>
+      <c r="AE5" s="555"/>
       <c r="AF5" s="58"/>
       <c r="AG5" s="198"/>
     </row>
@@ -9667,7 +9667,7 @@
       <c r="C6" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="504">
+      <c r="D6" s="498">
         <v>520.29999999999995</v>
       </c>
       <c r="E6" s="149"/>
@@ -9681,7 +9681,7 @@
       <c r="I6" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="J6" s="511">
+      <c r="J6" s="505">
         <v>184</v>
       </c>
       <c r="K6" s="191">
@@ -9698,7 +9698,7 @@
       <c r="O6" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="P6" s="512">
+      <c r="P6" s="506">
         <v>1000</v>
       </c>
       <c r="Q6" s="53"/>
@@ -9706,7 +9706,7 @@
       <c r="S6" s="188">
         <v>2</v>
       </c>
-      <c r="T6" s="496" t="s">
+      <c r="T6" s="490" t="s">
         <v>433</v>
       </c>
       <c r="U6" s="251">
@@ -9719,17 +9719,17 @@
       <c r="X6" s="243">
         <v>1</v>
       </c>
-      <c r="Y6" s="584" t="s">
+      <c r="Y6" s="578" t="s">
         <v>415</v>
       </c>
-      <c r="Z6" s="585"/>
-      <c r="AA6" s="589" t="s">
+      <c r="Z6" s="579"/>
+      <c r="AA6" s="583" t="s">
         <v>421</v>
       </c>
-      <c r="AB6" s="589"/>
-      <c r="AC6" s="589"/>
-      <c r="AD6" s="589"/>
-      <c r="AE6" s="590"/>
+      <c r="AB6" s="583"/>
+      <c r="AC6" s="583"/>
+      <c r="AD6" s="583"/>
+      <c r="AE6" s="584"/>
       <c r="AF6" s="58"/>
       <c r="AG6" s="198"/>
     </row>
@@ -9743,7 +9743,7 @@
       <c r="C7" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="505">
+      <c r="D7" s="499">
         <v>44</v>
       </c>
       <c r="E7" s="148"/>
@@ -9757,7 +9757,7 @@
       <c r="I7" s="134" t="s">
         <v>388</v>
       </c>
-      <c r="J7" s="509" t="s">
+      <c r="J7" s="503" t="s">
         <v>382</v>
       </c>
       <c r="K7" s="175" t="s">
@@ -9773,13 +9773,13 @@
       <c r="O7" s="73" t="s">
         <v>413</v>
       </c>
-      <c r="P7" s="512"/>
+      <c r="P7" s="506"/>
       <c r="Q7" s="53"/>
       <c r="R7" s="198"/>
       <c r="S7" s="188">
         <v>3</v>
       </c>
-      <c r="T7" s="496" t="s">
+      <c r="T7" s="490" t="s">
         <v>434</v>
       </c>
       <c r="U7" s="251">
@@ -9792,17 +9792,17 @@
       <c r="X7" s="243">
         <v>2</v>
       </c>
-      <c r="Y7" s="601" t="s">
+      <c r="Y7" s="595" t="s">
         <v>416</v>
       </c>
-      <c r="Z7" s="602"/>
-      <c r="AA7" s="591" t="s">
+      <c r="Z7" s="596"/>
+      <c r="AA7" s="585" t="s">
         <v>420</v>
       </c>
-      <c r="AB7" s="591"/>
-      <c r="AC7" s="591"/>
-      <c r="AD7" s="591"/>
-      <c r="AE7" s="592"/>
+      <c r="AB7" s="585"/>
+      <c r="AC7" s="585"/>
+      <c r="AD7" s="585"/>
+      <c r="AE7" s="586"/>
       <c r="AF7" s="58"/>
       <c r="AG7" s="198"/>
     </row>
@@ -9834,7 +9834,7 @@
       <c r="I8" s="174" t="s">
         <v>377</v>
       </c>
-      <c r="J8" s="510" t="s">
+      <c r="J8" s="504" t="s">
         <v>382</v>
       </c>
       <c r="K8" s="175" t="s">
@@ -9854,7 +9854,7 @@
       <c r="S8" s="188">
         <v>4</v>
       </c>
-      <c r="T8" s="496" t="s">
+      <c r="T8" s="490" t="s">
         <v>435</v>
       </c>
       <c r="U8" s="251">
@@ -9867,17 +9867,17 @@
       <c r="X8" s="243">
         <v>3</v>
       </c>
-      <c r="Y8" s="603" t="s">
+      <c r="Y8" s="597" t="s">
         <v>417</v>
       </c>
-      <c r="Z8" s="604"/>
-      <c r="AA8" s="591" t="s">
+      <c r="Z8" s="598"/>
+      <c r="AA8" s="585" t="s">
         <v>422</v>
       </c>
-      <c r="AB8" s="591"/>
-      <c r="AC8" s="591"/>
-      <c r="AD8" s="591"/>
-      <c r="AE8" s="592"/>
+      <c r="AB8" s="585"/>
+      <c r="AC8" s="585"/>
+      <c r="AD8" s="585"/>
+      <c r="AE8" s="586"/>
       <c r="AF8" s="58"/>
       <c r="AG8" s="198"/>
     </row>
@@ -9909,7 +9909,7 @@
       <c r="I9" s="174" t="s">
         <v>377</v>
       </c>
-      <c r="J9" s="508" t="s">
+      <c r="J9" s="502" t="s">
         <v>382</v>
       </c>
       <c r="K9" s="175" t="s">
@@ -9931,7 +9931,7 @@
       <c r="S9" s="188">
         <v>5</v>
       </c>
-      <c r="T9" s="496" t="s">
+      <c r="T9" s="490" t="s">
         <v>436</v>
       </c>
       <c r="U9" s="251">
@@ -9944,17 +9944,17 @@
       <c r="X9" s="243">
         <v>4</v>
       </c>
-      <c r="Y9" s="605" t="s">
+      <c r="Y9" s="599" t="s">
         <v>418</v>
       </c>
-      <c r="Z9" s="606"/>
-      <c r="AA9" s="591" t="s">
+      <c r="Z9" s="600"/>
+      <c r="AA9" s="585" t="s">
         <v>423</v>
       </c>
-      <c r="AB9" s="591"/>
-      <c r="AC9" s="591"/>
-      <c r="AD9" s="591"/>
-      <c r="AE9" s="592"/>
+      <c r="AB9" s="585"/>
+      <c r="AC9" s="585"/>
+      <c r="AD9" s="585"/>
+      <c r="AE9" s="586"/>
       <c r="AF9" s="141"/>
       <c r="AG9" s="200"/>
     </row>
@@ -10006,7 +10006,7 @@
       <c r="S10" s="188">
         <v>6</v>
       </c>
-      <c r="T10" s="497" t="s">
+      <c r="T10" s="491" t="s">
         <v>437</v>
       </c>
       <c r="U10" s="245"/>
@@ -10015,17 +10015,17 @@
       <c r="X10" s="244">
         <v>5</v>
       </c>
-      <c r="Y10" s="607" t="s">
+      <c r="Y10" s="601" t="s">
         <v>419</v>
       </c>
-      <c r="Z10" s="608"/>
-      <c r="AA10" s="593" t="s">
+      <c r="Z10" s="602"/>
+      <c r="AA10" s="587" t="s">
         <v>424</v>
       </c>
-      <c r="AB10" s="593"/>
-      <c r="AC10" s="593"/>
-      <c r="AD10" s="593"/>
-      <c r="AE10" s="594"/>
+      <c r="AB10" s="587"/>
+      <c r="AC10" s="587"/>
+      <c r="AD10" s="587"/>
+      <c r="AE10" s="588"/>
       <c r="AF10" s="58"/>
       <c r="AG10" s="198"/>
     </row>
@@ -10070,7 +10070,7 @@
       <c r="S11" s="188">
         <v>7</v>
       </c>
-      <c r="T11" s="497" t="s">
+      <c r="T11" s="491" t="s">
         <v>438</v>
       </c>
       <c r="U11" s="247"/>
@@ -10130,7 +10130,7 @@
       <c r="S12" s="188">
         <v>8</v>
       </c>
-      <c r="T12" s="497" t="s">
+      <c r="T12" s="491" t="s">
         <v>439</v>
       </c>
       <c r="U12" s="247"/>
@@ -10189,7 +10189,7 @@
       <c r="S13" s="255">
         <v>9</v>
       </c>
-      <c r="T13" s="498" t="s">
+      <c r="T13" s="492" t="s">
         <v>440</v>
       </c>
       <c r="U13" s="249"/>
@@ -10300,21 +10300,21 @@
       <c r="P15" s="198"/>
       <c r="Q15" s="198"/>
       <c r="R15" s="198"/>
-      <c r="S15" s="545" t="s">
+      <c r="S15" s="539" t="s">
         <v>415</v>
       </c>
-      <c r="T15" s="546"/>
-      <c r="U15" s="546"/>
-      <c r="V15" s="546"/>
-      <c r="W15" s="546"/>
-      <c r="X15" s="546"/>
-      <c r="Y15" s="546"/>
-      <c r="Z15" s="546"/>
-      <c r="AA15" s="546"/>
-      <c r="AB15" s="546"/>
-      <c r="AC15" s="546"/>
-      <c r="AD15" s="546"/>
-      <c r="AE15" s="547"/>
+      <c r="T15" s="540"/>
+      <c r="U15" s="540"/>
+      <c r="V15" s="540"/>
+      <c r="W15" s="540"/>
+      <c r="X15" s="540"/>
+      <c r="Y15" s="540"/>
+      <c r="Z15" s="540"/>
+      <c r="AA15" s="540"/>
+      <c r="AB15" s="540"/>
+      <c r="AC15" s="540"/>
+      <c r="AD15" s="540"/>
+      <c r="AE15" s="541"/>
       <c r="AF15" s="58"/>
       <c r="AG15" s="198"/>
     </row>
@@ -10367,18 +10367,18 @@
     <row r="17" spans="1:33">
       <c r="A17" s="83"/>
       <c r="B17" s="164"/>
-      <c r="C17" s="621" t="s">
+      <c r="C17" s="615" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="621"/>
-      <c r="E17" s="622"/>
+      <c r="D17" s="615"/>
+      <c r="E17" s="616"/>
       <c r="F17" s="201"/>
       <c r="G17" s="235"/>
       <c r="H17" s="58"/>
-      <c r="I17" s="609" t="s">
+      <c r="I17" s="603" t="s">
         <v>342</v>
       </c>
-      <c r="J17" s="610"/>
+      <c r="J17" s="604"/>
       <c r="K17" s="147"/>
       <c r="L17" s="198"/>
       <c r="M17" s="198"/>
@@ -10389,37 +10389,37 @@
       <c r="R17" s="198"/>
       <c r="S17" s="229"/>
       <c r="T17" s="58"/>
-      <c r="U17" s="493">
+      <c r="U17" s="487">
         <v>500</v>
       </c>
-      <c r="V17" s="494">
+      <c r="V17" s="488">
         <v>625</v>
       </c>
-      <c r="W17" s="494">
+      <c r="W17" s="488">
         <v>750</v>
       </c>
-      <c r="X17" s="495">
+      <c r="X17" s="489">
         <v>875</v>
       </c>
-      <c r="Y17" s="495">
+      <c r="Y17" s="489">
         <v>1000</v>
       </c>
-      <c r="Z17" s="495">
+      <c r="Z17" s="489">
         <v>1125</v>
       </c>
-      <c r="AA17" s="495">
+      <c r="AA17" s="489">
         <v>1250</v>
       </c>
-      <c r="AB17" s="495">
+      <c r="AB17" s="489">
         <v>1375</v>
       </c>
-      <c r="AC17" s="495">
+      <c r="AC17" s="489">
         <v>1500</v>
       </c>
-      <c r="AD17" s="495">
+      <c r="AD17" s="489">
         <v>1625</v>
       </c>
-      <c r="AE17" s="492"/>
+      <c r="AE17" s="486"/>
       <c r="AF17" s="58"/>
       <c r="AG17" s="198"/>
     </row>
@@ -10442,11 +10442,11 @@
       <c r="F18" s="201"/>
       <c r="G18" s="235"/>
       <c r="H18" s="58"/>
-      <c r="I18" s="627">
+      <c r="I18" s="621">
         <f>J16</f>
         <v>254.75</v>
       </c>
-      <c r="J18" s="624"/>
+      <c r="J18" s="618"/>
       <c r="K18" s="147"/>
       <c r="L18" s="198"/>
       <c r="M18" s="198"/>
@@ -10455,29 +10455,29 @@
       <c r="P18" s="198"/>
       <c r="Q18" s="198"/>
       <c r="R18" s="198"/>
-      <c r="S18" s="574" t="str">
+      <c r="S18" s="568" t="str">
         <f>T4</f>
         <v>RAW /
 PRIMED</v>
       </c>
-      <c r="T18" s="575"/>
-      <c r="U18" s="467">
+      <c r="T18" s="569"/>
+      <c r="U18" s="461">
         <v>3.46</v>
       </c>
-      <c r="V18" s="467">
+      <c r="V18" s="461">
         <v>4.33</v>
       </c>
-      <c r="W18" s="467">
+      <c r="W18" s="461">
         <v>5.19</v>
       </c>
-      <c r="X18" s="468"/>
-      <c r="Y18" s="468"/>
-      <c r="Z18" s="468"/>
-      <c r="AA18" s="468"/>
-      <c r="AB18" s="468"/>
-      <c r="AC18" s="468"/>
-      <c r="AD18" s="468"/>
-      <c r="AE18" s="469"/>
+      <c r="X18" s="462"/>
+      <c r="Y18" s="462"/>
+      <c r="Z18" s="462"/>
+      <c r="AA18" s="462"/>
+      <c r="AB18" s="462"/>
+      <c r="AC18" s="462"/>
+      <c r="AD18" s="462"/>
+      <c r="AE18" s="463"/>
       <c r="AF18" s="58"/>
       <c r="AG18" s="198"/>
     </row>
@@ -10496,8 +10496,8 @@
       <c r="F19" s="201"/>
       <c r="G19" s="235"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="623"/>
-      <c r="J19" s="624"/>
+      <c r="I19" s="617"/>
+      <c r="J19" s="618"/>
       <c r="K19" s="147"/>
       <c r="L19" s="201"/>
       <c r="M19" s="198"/>
@@ -10506,11 +10506,11 @@
       <c r="P19" s="198"/>
       <c r="Q19" s="198"/>
       <c r="R19" s="198"/>
-      <c r="S19" s="564" t="str">
+      <c r="S19" s="558" t="str">
         <f t="shared" ref="S19:S26" si="0">T6</f>
         <v>DOOR</v>
       </c>
-      <c r="T19" s="565"/>
+      <c r="T19" s="559"/>
       <c r="U19" s="219">
         <v>5.19</v>
       </c>
@@ -10553,8 +10553,8 @@
       <c r="F20" s="201"/>
       <c r="G20" s="235"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="623"/>
-      <c r="J20" s="624"/>
+      <c r="I20" s="617"/>
+      <c r="J20" s="618"/>
       <c r="K20" s="147"/>
       <c r="L20" s="201"/>
       <c r="M20" s="198"/>
@@ -10563,28 +10563,28 @@
       <c r="P20" s="198"/>
       <c r="Q20" s="198"/>
       <c r="R20" s="198"/>
-      <c r="S20" s="562" t="str">
+      <c r="S20" s="556" t="str">
         <f t="shared" si="0"/>
         <v>RF/RFX</v>
       </c>
-      <c r="T20" s="563"/>
-      <c r="U20" s="470">
+      <c r="T20" s="557"/>
+      <c r="U20" s="464">
         <v>2.6</v>
       </c>
-      <c r="V20" s="470">
+      <c r="V20" s="464">
         <v>3.24</v>
       </c>
-      <c r="W20" s="470">
+      <c r="W20" s="464">
         <v>3.89</v>
       </c>
-      <c r="X20" s="471"/>
-      <c r="Y20" s="471"/>
-      <c r="Z20" s="471"/>
-      <c r="AA20" s="471"/>
-      <c r="AB20" s="471"/>
-      <c r="AC20" s="471"/>
-      <c r="AD20" s="471"/>
-      <c r="AE20" s="472"/>
+      <c r="X20" s="465"/>
+      <c r="Y20" s="465"/>
+      <c r="Z20" s="465"/>
+      <c r="AA20" s="465"/>
+      <c r="AB20" s="465"/>
+      <c r="AC20" s="465"/>
+      <c r="AD20" s="465"/>
+      <c r="AE20" s="466"/>
       <c r="AF20" s="58"/>
       <c r="AG20" s="198"/>
     </row>
@@ -10601,8 +10601,8 @@
       <c r="F21" s="201"/>
       <c r="G21" s="235"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="623"/>
-      <c r="J21" s="624"/>
+      <c r="I21" s="617"/>
+      <c r="J21" s="618"/>
       <c r="K21" s="147"/>
       <c r="L21" s="201"/>
       <c r="M21" s="198"/>
@@ -10611,11 +10611,11 @@
       <c r="P21" s="198"/>
       <c r="Q21" s="198"/>
       <c r="R21" s="198"/>
-      <c r="S21" s="564" t="str">
+      <c r="S21" s="558" t="str">
         <f t="shared" si="0"/>
         <v>MIRROR</v>
       </c>
-      <c r="T21" s="565"/>
+      <c r="T21" s="559"/>
       <c r="U21" s="219">
         <v>5.93</v>
       </c>
@@ -10652,8 +10652,8 @@
       <c r="F22" s="201"/>
       <c r="G22" s="235"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="623"/>
-      <c r="J22" s="624"/>
+      <c r="I22" s="617"/>
+      <c r="J22" s="618"/>
       <c r="K22" s="147"/>
       <c r="L22" s="201"/>
       <c r="M22" s="198"/>
@@ -10662,28 +10662,28 @@
       <c r="P22" s="198"/>
       <c r="Q22" s="198"/>
       <c r="R22" s="198"/>
-      <c r="S22" s="562" t="str">
+      <c r="S22" s="556" t="str">
         <f t="shared" si="0"/>
         <v>BIFOLD</v>
       </c>
-      <c r="T22" s="563"/>
-      <c r="U22" s="470">
+      <c r="T22" s="557"/>
+      <c r="U22" s="464">
         <v>3.78</v>
       </c>
-      <c r="V22" s="470">
+      <c r="V22" s="464">
         <v>4.72</v>
       </c>
-      <c r="W22" s="470">
+      <c r="W22" s="464">
         <v>5.66</v>
       </c>
-      <c r="X22" s="471"/>
-      <c r="Y22" s="471"/>
-      <c r="Z22" s="471"/>
-      <c r="AA22" s="471"/>
-      <c r="AB22" s="471"/>
-      <c r="AC22" s="471"/>
-      <c r="AD22" s="471"/>
-      <c r="AE22" s="472"/>
+      <c r="X22" s="465"/>
+      <c r="Y22" s="465"/>
+      <c r="Z22" s="465"/>
+      <c r="AA22" s="465"/>
+      <c r="AB22" s="465"/>
+      <c r="AC22" s="465"/>
+      <c r="AD22" s="465"/>
+      <c r="AE22" s="466"/>
       <c r="AF22" s="58"/>
       <c r="AG22" s="198"/>
     </row>
@@ -10707,8 +10707,8 @@
       <c r="F23" s="201"/>
       <c r="G23" s="235"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="623"/>
-      <c r="J23" s="624"/>
+      <c r="I23" s="617"/>
+      <c r="J23" s="618"/>
       <c r="K23" s="147"/>
       <c r="L23" s="201"/>
       <c r="M23" s="198"/>
@@ -10717,11 +10717,11 @@
       <c r="P23" s="198"/>
       <c r="Q23" s="198"/>
       <c r="R23" s="198"/>
-      <c r="S23" s="564" t="str">
+      <c r="S23" s="558" t="str">
         <f t="shared" si="0"/>
         <v>1/4 TRUCK</v>
       </c>
-      <c r="T23" s="565"/>
+      <c r="T23" s="559"/>
       <c r="U23" s="216">
         <v>502</v>
       </c>
@@ -10762,8 +10762,8 @@
       <c r="F24" s="201"/>
       <c r="G24" s="235"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="623"/>
-      <c r="J24" s="624"/>
+      <c r="I24" s="617"/>
+      <c r="J24" s="618"/>
       <c r="K24" s="147"/>
       <c r="L24" s="201"/>
       <c r="M24" s="198"/>
@@ -10772,28 +10772,28 @@
       <c r="P24" s="198"/>
       <c r="Q24" s="198"/>
       <c r="R24" s="198"/>
-      <c r="S24" s="562" t="str">
+      <c r="S24" s="556" t="str">
         <f t="shared" si="0"/>
         <v>1/2 TRUCK</v>
       </c>
-      <c r="T24" s="563"/>
-      <c r="U24" s="473">
+      <c r="T24" s="557"/>
+      <c r="U24" s="467">
         <v>1004</v>
       </c>
-      <c r="V24" s="473">
+      <c r="V24" s="467">
         <v>1255</v>
       </c>
-      <c r="W24" s="473">
+      <c r="W24" s="467">
         <v>1505</v>
       </c>
-      <c r="X24" s="474"/>
-      <c r="Y24" s="474"/>
-      <c r="Z24" s="474"/>
-      <c r="AA24" s="474"/>
-      <c r="AB24" s="474"/>
-      <c r="AC24" s="474"/>
-      <c r="AD24" s="474"/>
-      <c r="AE24" s="475"/>
+      <c r="X24" s="468"/>
+      <c r="Y24" s="468"/>
+      <c r="Z24" s="468"/>
+      <c r="AA24" s="468"/>
+      <c r="AB24" s="468"/>
+      <c r="AC24" s="468"/>
+      <c r="AD24" s="468"/>
+      <c r="AE24" s="469"/>
       <c r="AF24" s="58"/>
       <c r="AG24" s="198"/>
     </row>
@@ -10811,9 +10811,9 @@
       <c r="F25" s="201"/>
       <c r="G25" s="236"/>
       <c r="H25" s="163"/>
-      <c r="I25" s="625"/>
-      <c r="J25" s="626"/>
-      <c r="K25" s="500"/>
+      <c r="I25" s="619"/>
+      <c r="J25" s="620"/>
+      <c r="K25" s="494"/>
       <c r="L25" s="201"/>
       <c r="M25" s="198"/>
       <c r="N25" s="198"/>
@@ -10821,11 +10821,11 @@
       <c r="P25" s="198"/>
       <c r="Q25" s="198"/>
       <c r="R25" s="198"/>
-      <c r="S25" s="564" t="str">
+      <c r="S25" s="558" t="str">
         <f t="shared" si="0"/>
         <v>3/4 TRUCK</v>
       </c>
-      <c r="T25" s="565"/>
+      <c r="T25" s="559"/>
       <c r="U25" s="216">
         <v>1505</v>
       </c>
@@ -10859,34 +10859,34 @@
       <c r="J26" s="201"/>
       <c r="K26" s="201"/>
       <c r="L26" s="201"/>
-      <c r="M26" s="501"/>
+      <c r="M26" s="495"/>
       <c r="N26" s="198"/>
       <c r="O26" s="198"/>
       <c r="P26" s="198"/>
       <c r="Q26" s="198"/>
       <c r="R26" s="198"/>
-      <c r="S26" s="587" t="str">
+      <c r="S26" s="581" t="str">
         <f t="shared" si="0"/>
         <v>FULL TRK</v>
       </c>
-      <c r="T26" s="588"/>
-      <c r="U26" s="476">
+      <c r="T26" s="582"/>
+      <c r="U26" s="470">
         <v>2007</v>
       </c>
-      <c r="V26" s="476">
+      <c r="V26" s="470">
         <v>2509</v>
       </c>
-      <c r="W26" s="476">
+      <c r="W26" s="470">
         <v>3010</v>
       </c>
-      <c r="X26" s="477"/>
-      <c r="Y26" s="477"/>
-      <c r="Z26" s="477"/>
-      <c r="AA26" s="477"/>
-      <c r="AB26" s="477"/>
-      <c r="AC26" s="477"/>
-      <c r="AD26" s="477"/>
-      <c r="AE26" s="478"/>
+      <c r="X26" s="471"/>
+      <c r="Y26" s="471"/>
+      <c r="Z26" s="471"/>
+      <c r="AA26" s="471"/>
+      <c r="AB26" s="471"/>
+      <c r="AC26" s="471"/>
+      <c r="AD26" s="471"/>
+      <c r="AE26" s="472"/>
       <c r="AF26" s="58"/>
       <c r="AG26" s="198"/>
     </row>
@@ -10934,10 +10934,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="58"/>
-      <c r="D28" s="609" t="s">
+      <c r="D28" s="603" t="s">
         <v>342</v>
       </c>
-      <c r="E28" s="610"/>
+      <c r="E28" s="604"/>
       <c r="F28" s="204"/>
       <c r="G28" s="198"/>
       <c r="H28" s="198"/>
@@ -10951,21 +10951,21 @@
       <c r="P28" s="198"/>
       <c r="Q28" s="198"/>
       <c r="R28" s="198"/>
-      <c r="S28" s="548" t="s">
+      <c r="S28" s="542" t="s">
         <v>416</v>
       </c>
-      <c r="T28" s="549"/>
-      <c r="U28" s="549"/>
-      <c r="V28" s="549"/>
-      <c r="W28" s="549"/>
-      <c r="X28" s="549"/>
-      <c r="Y28" s="549"/>
-      <c r="Z28" s="549"/>
-      <c r="AA28" s="549"/>
-      <c r="AB28" s="549"/>
-      <c r="AC28" s="549"/>
-      <c r="AD28" s="549"/>
-      <c r="AE28" s="550"/>
+      <c r="T28" s="543"/>
+      <c r="U28" s="543"/>
+      <c r="V28" s="543"/>
+      <c r="W28" s="543"/>
+      <c r="X28" s="543"/>
+      <c r="Y28" s="543"/>
+      <c r="Z28" s="543"/>
+      <c r="AA28" s="543"/>
+      <c r="AB28" s="543"/>
+      <c r="AC28" s="543"/>
+      <c r="AD28" s="543"/>
+      <c r="AE28" s="544"/>
       <c r="AF28" s="58"/>
       <c r="AG28" s="198"/>
     </row>
@@ -10978,11 +10978,11 @@
         <v>8</v>
       </c>
       <c r="C29" s="58"/>
-      <c r="D29" s="623">
+      <c r="D29" s="617">
         <f>D15</f>
         <v>144.72</v>
       </c>
-      <c r="E29" s="624"/>
+      <c r="E29" s="618"/>
       <c r="F29" s="204"/>
       <c r="G29" s="198"/>
       <c r="H29" s="198"/>
@@ -11023,8 +11023,8 @@
         <v>15</v>
       </c>
       <c r="C30" s="58"/>
-      <c r="D30" s="623"/>
-      <c r="E30" s="624"/>
+      <c r="D30" s="617"/>
+      <c r="E30" s="618"/>
       <c r="F30" s="201"/>
       <c r="G30" s="198"/>
       <c r="H30" s="198"/>
@@ -11038,39 +11038,39 @@
       <c r="P30" s="198"/>
       <c r="Q30" s="198"/>
       <c r="R30" s="198"/>
-      <c r="S30" s="572"/>
-      <c r="T30" s="573"/>
-      <c r="U30" s="489">
+      <c r="S30" s="566"/>
+      <c r="T30" s="567"/>
+      <c r="U30" s="483">
         <v>500</v>
       </c>
-      <c r="V30" s="490">
+      <c r="V30" s="484">
         <v>625</v>
       </c>
-      <c r="W30" s="490">
+      <c r="W30" s="484">
         <v>750</v>
       </c>
-      <c r="X30" s="490">
+      <c r="X30" s="484">
         <v>875</v>
       </c>
-      <c r="Y30" s="490">
+      <c r="Y30" s="484">
         <v>1000</v>
       </c>
-      <c r="Z30" s="490">
+      <c r="Z30" s="484">
         <v>1125</v>
       </c>
-      <c r="AA30" s="490">
+      <c r="AA30" s="484">
         <v>1250</v>
       </c>
-      <c r="AB30" s="490">
+      <c r="AB30" s="484">
         <v>1375</v>
       </c>
-      <c r="AC30" s="490">
+      <c r="AC30" s="484">
         <v>1500</v>
       </c>
-      <c r="AD30" s="490">
+      <c r="AD30" s="484">
         <v>1750</v>
       </c>
-      <c r="AE30" s="492"/>
+      <c r="AE30" s="486"/>
       <c r="AF30" s="58"/>
       <c r="AG30" s="198"/>
     </row>
@@ -11083,8 +11083,8 @@
         <v>30</v>
       </c>
       <c r="C31" s="58"/>
-      <c r="D31" s="623"/>
-      <c r="E31" s="624"/>
+      <c r="D31" s="617"/>
+      <c r="E31" s="618"/>
       <c r="F31" s="201"/>
       <c r="G31" s="198"/>
       <c r="H31" s="198"/>
@@ -11098,43 +11098,43 @@
       <c r="P31" s="198"/>
       <c r="Q31" s="198"/>
       <c r="R31" s="198"/>
-      <c r="S31" s="574" t="str">
+      <c r="S31" s="568" t="str">
         <f>T4</f>
         <v>RAW /
 PRIMED</v>
       </c>
-      <c r="T31" s="575"/>
-      <c r="U31" s="479">
+      <c r="T31" s="569"/>
+      <c r="U31" s="473">
         <v>3.33</v>
       </c>
-      <c r="V31" s="479">
+      <c r="V31" s="473">
         <v>4.04</v>
       </c>
-      <c r="W31" s="479">
+      <c r="W31" s="473">
         <v>4.4800000000000004</v>
       </c>
-      <c r="X31" s="479">
+      <c r="X31" s="473">
         <v>5.22</v>
       </c>
-      <c r="Y31" s="479">
+      <c r="Y31" s="473">
         <v>5.97</v>
       </c>
-      <c r="Z31" s="479">
+      <c r="Z31" s="473">
         <v>6.71</v>
       </c>
-      <c r="AA31" s="479">
+      <c r="AA31" s="473">
         <v>7.46</v>
       </c>
-      <c r="AB31" s="479">
+      <c r="AB31" s="473">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AC31" s="479">
+      <c r="AC31" s="473">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AD31" s="479">
+      <c r="AD31" s="473">
         <v>10.44</v>
       </c>
-      <c r="AE31" s="472"/>
+      <c r="AE31" s="466"/>
       <c r="AF31" s="58"/>
       <c r="AG31" s="198"/>
     </row>
@@ -11144,8 +11144,8 @@
       </c>
       <c r="B32" s="103"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="623"/>
-      <c r="E32" s="624"/>
+      <c r="D32" s="617"/>
+      <c r="E32" s="618"/>
       <c r="F32" s="201"/>
       <c r="G32" s="198"/>
       <c r="H32" s="198"/>
@@ -11159,11 +11159,11 @@
       <c r="P32" s="198"/>
       <c r="Q32" s="198"/>
       <c r="R32" s="198"/>
-      <c r="S32" s="564" t="str">
+      <c r="S32" s="558" t="str">
         <f t="shared" ref="S32:S39" si="1">T6</f>
         <v>DOOR</v>
       </c>
-      <c r="T32" s="565"/>
+      <c r="T32" s="559"/>
       <c r="U32" s="224">
         <v>5</v>
       </c>
@@ -11207,8 +11207,8 @@
         <v>0</v>
       </c>
       <c r="C33" s="58"/>
-      <c r="D33" s="623"/>
-      <c r="E33" s="624"/>
+      <c r="D33" s="617"/>
+      <c r="E33" s="618"/>
       <c r="F33" s="201"/>
       <c r="G33" s="198"/>
       <c r="H33" s="198"/>
@@ -11222,42 +11222,42 @@
       <c r="P33" s="198"/>
       <c r="Q33" s="198"/>
       <c r="R33" s="198"/>
-      <c r="S33" s="562" t="str">
+      <c r="S33" s="556" t="str">
         <f t="shared" si="1"/>
         <v>RF/RFX</v>
       </c>
-      <c r="T33" s="563"/>
-      <c r="U33" s="480">
+      <c r="T33" s="557"/>
+      <c r="U33" s="474">
         <v>2.5</v>
       </c>
-      <c r="V33" s="480">
+      <c r="V33" s="474">
         <v>3.03</v>
       </c>
-      <c r="W33" s="480">
+      <c r="W33" s="474">
         <v>3.36</v>
       </c>
-      <c r="X33" s="480">
+      <c r="X33" s="474">
         <v>3.92</v>
       </c>
-      <c r="Y33" s="480">
+      <c r="Y33" s="474">
         <v>4.4800000000000004</v>
       </c>
-      <c r="Z33" s="480">
+      <c r="Z33" s="474">
         <v>5.03</v>
       </c>
-      <c r="AA33" s="480">
+      <c r="AA33" s="474">
         <v>5.59</v>
       </c>
-      <c r="AB33" s="480">
+      <c r="AB33" s="474">
         <v>6.15</v>
       </c>
-      <c r="AC33" s="480">
+      <c r="AC33" s="474">
         <v>6.71</v>
       </c>
-      <c r="AD33" s="480">
+      <c r="AD33" s="474">
         <v>7.83</v>
       </c>
-      <c r="AE33" s="472"/>
+      <c r="AE33" s="466"/>
       <c r="AF33" s="58"/>
       <c r="AG33" s="198"/>
     </row>
@@ -11270,8 +11270,8 @@
         <v>%C</v>
       </c>
       <c r="C34" s="58"/>
-      <c r="D34" s="623"/>
-      <c r="E34" s="624"/>
+      <c r="D34" s="617"/>
+      <c r="E34" s="618"/>
       <c r="F34" s="201"/>
       <c r="G34" s="198"/>
       <c r="H34" s="198"/>
@@ -11285,11 +11285,11 @@
       <c r="P34" s="198"/>
       <c r="Q34" s="198"/>
       <c r="R34" s="198"/>
-      <c r="S34" s="564" t="str">
+      <c r="S34" s="558" t="str">
         <f t="shared" si="1"/>
         <v>MIRROR</v>
       </c>
-      <c r="T34" s="565"/>
+      <c r="T34" s="559"/>
       <c r="U34" s="224">
         <v>5.71</v>
       </c>
@@ -11333,8 +11333,8 @@
         <v>144.72</v>
       </c>
       <c r="C35" s="58"/>
-      <c r="D35" s="623"/>
-      <c r="E35" s="624"/>
+      <c r="D35" s="617"/>
+      <c r="E35" s="618"/>
       <c r="F35" s="204"/>
       <c r="G35" s="198"/>
       <c r="H35" s="198"/>
@@ -11348,42 +11348,42 @@
       <c r="P35" s="198"/>
       <c r="Q35" s="198"/>
       <c r="R35" s="198"/>
-      <c r="S35" s="562" t="str">
+      <c r="S35" s="556" t="str">
         <f t="shared" si="1"/>
         <v>BIFOLD</v>
       </c>
-      <c r="T35" s="563"/>
-      <c r="U35" s="480">
+      <c r="T35" s="557"/>
+      <c r="U35" s="474">
         <v>3.64</v>
       </c>
-      <c r="V35" s="480">
+      <c r="V35" s="474">
         <v>4.41</v>
       </c>
-      <c r="W35" s="480">
+      <c r="W35" s="474">
         <v>4.88</v>
       </c>
-      <c r="X35" s="480">
+      <c r="X35" s="474">
         <v>5.7</v>
       </c>
-      <c r="Y35" s="480">
+      <c r="Y35" s="474">
         <v>6.1</v>
       </c>
-      <c r="Z35" s="480">
+      <c r="Z35" s="474">
         <v>7.32</v>
       </c>
-      <c r="AA35" s="480">
+      <c r="AA35" s="474">
         <v>8.14</v>
       </c>
-      <c r="AB35" s="480">
+      <c r="AB35" s="474">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AC35" s="480">
+      <c r="AC35" s="474">
         <v>9.76</v>
       </c>
-      <c r="AD35" s="480">
+      <c r="AD35" s="474">
         <v>11.39</v>
       </c>
-      <c r="AE35" s="472"/>
+      <c r="AE35" s="466"/>
       <c r="AF35" s="58"/>
       <c r="AG35" s="198"/>
     </row>
@@ -11396,8 +11396,8 @@
         <v>0</v>
       </c>
       <c r="C36" s="163"/>
-      <c r="D36" s="625"/>
-      <c r="E36" s="626"/>
+      <c r="D36" s="619"/>
+      <c r="E36" s="620"/>
       <c r="F36" s="201"/>
       <c r="G36" s="201"/>
       <c r="H36" s="201"/>
@@ -11411,11 +11411,11 @@
       <c r="P36" s="198"/>
       <c r="Q36" s="198"/>
       <c r="R36" s="198"/>
-      <c r="S36" s="564" t="str">
+      <c r="S36" s="558" t="str">
         <f t="shared" si="1"/>
         <v>1/4 TRUCK</v>
       </c>
-      <c r="T36" s="565"/>
+      <c r="T36" s="559"/>
       <c r="U36" s="222">
         <v>500</v>
       </c>
@@ -11469,42 +11469,42 @@
       <c r="P37" s="198"/>
       <c r="Q37" s="198"/>
       <c r="R37" s="198"/>
-      <c r="S37" s="562" t="str">
+      <c r="S37" s="556" t="str">
         <f t="shared" si="1"/>
         <v>1/2 TRUCK</v>
       </c>
-      <c r="T37" s="563"/>
-      <c r="U37" s="481">
+      <c r="T37" s="557"/>
+      <c r="U37" s="475">
         <v>1000</v>
       </c>
-      <c r="V37" s="481">
+      <c r="V37" s="475">
         <v>1212</v>
       </c>
-      <c r="W37" s="481">
+      <c r="W37" s="475">
         <v>1290</v>
       </c>
-      <c r="X37" s="481">
+      <c r="X37" s="475">
         <v>1505</v>
       </c>
-      <c r="Y37" s="481">
+      <c r="Y37" s="475">
         <v>1720</v>
       </c>
-      <c r="Z37" s="481">
+      <c r="Z37" s="475">
         <v>1935</v>
       </c>
-      <c r="AA37" s="481">
+      <c r="AA37" s="475">
         <v>2150</v>
       </c>
-      <c r="AB37" s="481">
+      <c r="AB37" s="475">
         <v>2365</v>
       </c>
-      <c r="AC37" s="481">
+      <c r="AC37" s="475">
         <v>2565</v>
       </c>
-      <c r="AD37" s="481">
+      <c r="AD37" s="475">
         <v>3010</v>
       </c>
-      <c r="AE37" s="472"/>
+      <c r="AE37" s="466"/>
       <c r="AF37" s="58"/>
       <c r="AG37" s="198"/>
     </row>
@@ -11527,11 +11527,11 @@
       <c r="P38" s="198"/>
       <c r="Q38" s="198"/>
       <c r="R38" s="198"/>
-      <c r="S38" s="564" t="str">
+      <c r="S38" s="558" t="str">
         <f t="shared" si="1"/>
         <v>3/4 TRUCK</v>
       </c>
-      <c r="T38" s="565"/>
+      <c r="T38" s="559"/>
       <c r="U38" s="225">
         <v>1500</v>
       </c>
@@ -11585,42 +11585,42 @@
       <c r="P39" s="198"/>
       <c r="Q39" s="198"/>
       <c r="R39" s="198"/>
-      <c r="S39" s="566" t="str">
+      <c r="S39" s="560" t="str">
         <f t="shared" si="1"/>
         <v>FULL TRK</v>
       </c>
-      <c r="T39" s="567"/>
-      <c r="U39" s="482">
+      <c r="T39" s="561"/>
+      <c r="U39" s="476">
         <v>2000</v>
       </c>
-      <c r="V39" s="482">
+      <c r="V39" s="476">
         <v>2424</v>
       </c>
-      <c r="W39" s="482">
+      <c r="W39" s="476">
         <v>2580</v>
       </c>
-      <c r="X39" s="482">
+      <c r="X39" s="476">
         <v>3010</v>
       </c>
-      <c r="Y39" s="482">
+      <c r="Y39" s="476">
         <v>3440</v>
       </c>
-      <c r="Z39" s="482">
+      <c r="Z39" s="476">
         <v>3870</v>
       </c>
-      <c r="AA39" s="482">
+      <c r="AA39" s="476">
         <v>4300</v>
       </c>
-      <c r="AB39" s="482">
+      <c r="AB39" s="476">
         <v>4730</v>
       </c>
-      <c r="AC39" s="482">
+      <c r="AC39" s="476">
         <v>5130</v>
       </c>
-      <c r="AD39" s="482">
+      <c r="AD39" s="476">
         <v>6020</v>
       </c>
-      <c r="AE39" s="483"/>
+      <c r="AE39" s="477"/>
       <c r="AF39" s="58"/>
       <c r="AG39" s="198"/>
     </row>
@@ -11643,8 +11643,8 @@
       <c r="P40" s="198"/>
       <c r="Q40" s="198"/>
       <c r="R40" s="198"/>
-      <c r="S40" s="568"/>
-      <c r="T40" s="568"/>
+      <c r="S40" s="562"/>
+      <c r="T40" s="562"/>
       <c r="U40" s="58"/>
       <c r="V40" s="58"/>
       <c r="W40" s="58"/>
@@ -11678,21 +11678,21 @@
       <c r="P41" s="198"/>
       <c r="Q41" s="198"/>
       <c r="R41" s="198"/>
-      <c r="S41" s="551" t="s">
+      <c r="S41" s="545" t="s">
         <v>418</v>
       </c>
-      <c r="T41" s="552"/>
-      <c r="U41" s="552"/>
-      <c r="V41" s="552"/>
-      <c r="W41" s="552"/>
-      <c r="X41" s="552"/>
-      <c r="Y41" s="552"/>
-      <c r="Z41" s="552"/>
-      <c r="AA41" s="552"/>
-      <c r="AB41" s="552"/>
-      <c r="AC41" s="552"/>
-      <c r="AD41" s="552"/>
-      <c r="AE41" s="553"/>
+      <c r="T41" s="546"/>
+      <c r="U41" s="546"/>
+      <c r="V41" s="546"/>
+      <c r="W41" s="546"/>
+      <c r="X41" s="546"/>
+      <c r="Y41" s="546"/>
+      <c r="Z41" s="546"/>
+      <c r="AA41" s="546"/>
+      <c r="AB41" s="546"/>
+      <c r="AC41" s="546"/>
+      <c r="AD41" s="546"/>
+      <c r="AE41" s="547"/>
       <c r="AF41" s="58"/>
       <c r="AG41" s="198"/>
     </row>
@@ -11752,39 +11752,39 @@
       <c r="P43" s="201"/>
       <c r="Q43" s="201"/>
       <c r="R43" s="198"/>
-      <c r="S43" s="572"/>
-      <c r="T43" s="573"/>
-      <c r="U43" s="489">
+      <c r="S43" s="566"/>
+      <c r="T43" s="567"/>
+      <c r="U43" s="483">
         <v>1375</v>
       </c>
-      <c r="V43" s="490">
+      <c r="V43" s="484">
         <v>1500</v>
       </c>
-      <c r="W43" s="490">
+      <c r="W43" s="484">
         <v>1750</v>
       </c>
-      <c r="X43" s="490">
+      <c r="X43" s="484">
         <v>2000</v>
       </c>
-      <c r="Y43" s="490">
+      <c r="Y43" s="484">
         <v>2250</v>
       </c>
-      <c r="Z43" s="490">
+      <c r="Z43" s="484">
         <v>2500</v>
       </c>
-      <c r="AA43" s="491">
+      <c r="AA43" s="485">
         <v>2750</v>
       </c>
-      <c r="AB43" s="491">
+      <c r="AB43" s="485">
         <v>3000</v>
       </c>
-      <c r="AC43" s="491">
+      <c r="AC43" s="485">
         <v>3250</v>
       </c>
-      <c r="AD43" s="491">
+      <c r="AD43" s="485">
         <v>3500</v>
       </c>
-      <c r="AE43" s="492"/>
+      <c r="AE43" s="486"/>
       <c r="AF43" s="58"/>
       <c r="AG43" s="198"/>
     </row>
@@ -11837,35 +11837,35 @@
         <v>346</v>
       </c>
       <c r="R44" s="110"/>
-      <c r="S44" s="576" t="str">
+      <c r="S44" s="570" t="str">
         <f>T4</f>
         <v>RAW /
 PRIMED</v>
       </c>
-      <c r="T44" s="577"/>
-      <c r="U44" s="479">
+      <c r="T44" s="571"/>
+      <c r="U44" s="473">
         <v>6.08</v>
       </c>
-      <c r="V44" s="479">
+      <c r="V44" s="473">
         <v>6.63</v>
       </c>
-      <c r="W44" s="479">
+      <c r="W44" s="473">
         <v>7.74</v>
       </c>
-      <c r="X44" s="479">
+      <c r="X44" s="473">
         <v>8.84</v>
       </c>
-      <c r="Y44" s="479">
+      <c r="Y44" s="473">
         <v>9.9499999999999993</v>
       </c>
-      <c r="Z44" s="479">
+      <c r="Z44" s="473">
         <v>11.06</v>
       </c>
-      <c r="AA44" s="484"/>
-      <c r="AB44" s="484"/>
-      <c r="AC44" s="484"/>
-      <c r="AD44" s="484"/>
-      <c r="AE44" s="472"/>
+      <c r="AA44" s="478"/>
+      <c r="AB44" s="478"/>
+      <c r="AC44" s="478"/>
+      <c r="AD44" s="478"/>
+      <c r="AE44" s="466"/>
       <c r="AF44" s="58"/>
       <c r="AG44" s="198"/>
     </row>
@@ -11888,11 +11888,11 @@
       <c r="P45" s="261"/>
       <c r="Q45" s="261"/>
       <c r="R45" s="110"/>
-      <c r="S45" s="564" t="str">
+      <c r="S45" s="558" t="str">
         <f t="shared" ref="S45:S52" si="2">T6</f>
         <v>DOOR</v>
       </c>
-      <c r="T45" s="565"/>
+      <c r="T45" s="559"/>
       <c r="U45" s="224">
         <v>9.1199999999999992</v>
       </c>
@@ -11940,10 +11940,10 @@
       <c r="H46" s="264" t="s">
         <v>375</v>
       </c>
-      <c r="I46" s="617" t="s">
+      <c r="I46" s="611" t="s">
         <v>376</v>
       </c>
-      <c r="J46" s="618"/>
+      <c r="J46" s="612"/>
       <c r="K46" s="265" t="s">
         <v>408</v>
       </c>
@@ -11956,34 +11956,34 @@
       <c r="P46" s="261"/>
       <c r="Q46" s="261"/>
       <c r="R46" s="110"/>
-      <c r="S46" s="562" t="str">
+      <c r="S46" s="556" t="str">
         <f t="shared" si="2"/>
         <v>RF/RFX</v>
       </c>
-      <c r="T46" s="563"/>
-      <c r="U46" s="480">
+      <c r="T46" s="557"/>
+      <c r="U46" s="474">
         <v>4.5599999999999996</v>
       </c>
-      <c r="V46" s="480">
+      <c r="V46" s="474">
         <v>4.9800000000000004</v>
       </c>
-      <c r="W46" s="480">
+      <c r="W46" s="474">
         <v>5.8</v>
       </c>
-      <c r="X46" s="480">
+      <c r="X46" s="474">
         <v>6.63</v>
       </c>
-      <c r="Y46" s="480">
+      <c r="Y46" s="474">
         <v>7.46</v>
       </c>
-      <c r="Z46" s="480">
+      <c r="Z46" s="474">
         <v>8.32</v>
       </c>
-      <c r="AA46" s="485"/>
-      <c r="AB46" s="485"/>
-      <c r="AC46" s="485"/>
-      <c r="AD46" s="485"/>
-      <c r="AE46" s="472"/>
+      <c r="AA46" s="479"/>
+      <c r="AB46" s="479"/>
+      <c r="AC46" s="479"/>
+      <c r="AD46" s="479"/>
+      <c r="AE46" s="466"/>
       <c r="AF46" s="58"/>
       <c r="AG46" s="198"/>
     </row>
@@ -12015,11 +12015,11 @@
         <f>IF(OR(J7="Y",J7="T",J7="YES",J7 = "TRUE", J7 = TRUE),"FALSE","TRUE")</f>
         <v>TRUE</v>
       </c>
-      <c r="I47" s="619" t="str">
+      <c r="I47" s="613" t="str">
         <f>IF(OR(J7="Y",J7="T",J7="YES",J7="TRUE", J7 = TRUE),"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="J47" s="620"/>
+      <c r="J47" s="614"/>
       <c r="K47" s="268" t="s">
         <v>409</v>
       </c>
@@ -12030,11 +12030,11 @@
       <c r="P47" s="110"/>
       <c r="Q47" s="110"/>
       <c r="R47" s="110"/>
-      <c r="S47" s="564" t="str">
+      <c r="S47" s="558" t="str">
         <f t="shared" si="2"/>
         <v>MIRROR</v>
       </c>
-      <c r="T47" s="565"/>
+      <c r="T47" s="559"/>
       <c r="U47" s="224">
         <v>10.42</v>
       </c>
@@ -12100,34 +12100,34 @@
       <c r="P48" s="110"/>
       <c r="Q48" s="110"/>
       <c r="R48" s="110"/>
-      <c r="S48" s="562" t="str">
+      <c r="S48" s="556" t="str">
         <f t="shared" si="2"/>
         <v>BIFOLD</v>
       </c>
-      <c r="T48" s="563"/>
-      <c r="U48" s="480">
+      <c r="T48" s="557"/>
+      <c r="U48" s="474">
         <v>6.63</v>
       </c>
-      <c r="V48" s="480">
+      <c r="V48" s="474">
         <v>7.24</v>
       </c>
-      <c r="W48" s="480">
+      <c r="W48" s="474">
         <v>8.44</v>
       </c>
-      <c r="X48" s="480">
+      <c r="X48" s="474">
         <v>9.65</v>
       </c>
-      <c r="Y48" s="480">
+      <c r="Y48" s="474">
         <v>10.85</v>
       </c>
-      <c r="Z48" s="480">
+      <c r="Z48" s="474">
         <v>12.06</v>
       </c>
-      <c r="AA48" s="485"/>
-      <c r="AB48" s="485"/>
-      <c r="AC48" s="485"/>
-      <c r="AD48" s="485"/>
-      <c r="AE48" s="472"/>
+      <c r="AA48" s="479"/>
+      <c r="AB48" s="479"/>
+      <c r="AC48" s="479"/>
+      <c r="AD48" s="479"/>
+      <c r="AE48" s="466"/>
       <c r="AF48" s="58"/>
       <c r="AG48" s="198"/>
     </row>
@@ -12166,11 +12166,11 @@
       <c r="P49" s="110"/>
       <c r="Q49" s="110"/>
       <c r="R49" s="110"/>
-      <c r="S49" s="564" t="str">
+      <c r="S49" s="558" t="str">
         <f t="shared" si="2"/>
         <v>1/4 TRUCK</v>
       </c>
-      <c r="T49" s="565"/>
+      <c r="T49" s="559"/>
       <c r="U49" s="222">
         <v>867</v>
       </c>
@@ -12229,7 +12229,7 @@
       <c r="K50" s="262"/>
       <c r="L50" s="198"/>
       <c r="M50" s="415"/>
-      <c r="N50" s="428" t="s">
+      <c r="N50" s="422" t="s">
         <v>546</v>
       </c>
       <c r="O50" s="416" t="s">
@@ -12238,38 +12238,38 @@
       <c r="P50" s="416" t="s">
         <v>557</v>
       </c>
-      <c r="Q50" s="429" t="s">
+      <c r="Q50" s="423" t="s">
         <v>559</v>
       </c>
       <c r="R50" s="110"/>
-      <c r="S50" s="562" t="str">
+      <c r="S50" s="556" t="str">
         <f t="shared" si="2"/>
         <v>1/2 TRUCK</v>
       </c>
-      <c r="T50" s="563"/>
-      <c r="U50" s="481">
+      <c r="T50" s="557"/>
+      <c r="U50" s="475">
         <v>1891</v>
       </c>
-      <c r="V50" s="481">
+      <c r="V50" s="475">
         <v>1891</v>
       </c>
-      <c r="W50" s="481">
+      <c r="W50" s="475">
         <v>2200</v>
       </c>
-      <c r="X50" s="481">
+      <c r="X50" s="475">
         <v>2521</v>
       </c>
-      <c r="Y50" s="481">
+      <c r="Y50" s="475">
         <v>2836</v>
       </c>
-      <c r="Z50" s="481">
+      <c r="Z50" s="475">
         <v>3151</v>
       </c>
-      <c r="AA50" s="486"/>
-      <c r="AB50" s="486"/>
-      <c r="AC50" s="486"/>
-      <c r="AD50" s="486"/>
-      <c r="AE50" s="472"/>
+      <c r="AA50" s="480"/>
+      <c r="AB50" s="480"/>
+      <c r="AC50" s="480"/>
+      <c r="AD50" s="480"/>
+      <c r="AE50" s="466"/>
       <c r="AF50" s="58"/>
       <c r="AG50" s="198"/>
     </row>
@@ -12306,30 +12306,30 @@
       </c>
       <c r="K51" s="281"/>
       <c r="L51" s="198"/>
-      <c r="M51" s="431" t="s">
+      <c r="M51" s="425" t="s">
         <v>554</v>
       </c>
-      <c r="N51" s="422" t="s">
+      <c r="N51" s="420" t="s">
         <v>558</v>
       </c>
-      <c r="O51" s="423" t="str">
+      <c r="O51" s="421" t="str">
         <f>IF(OR(COUNTIF(SOUTH[NAME],P5),COUNTIF(SOUTH[NAME],M53)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="P51" s="423" t="str">
+      <c r="P51" s="421" t="str">
         <f>IF(OR(COUNTIF(SOUTH[CODE],P5),COUNTIF(SOUTH[CODE],M53)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="Q51" s="430" t="str">
+      <c r="Q51" s="424" t="str">
         <f xml:space="preserve">    IF(COUNTIF(O51:P51,"YES")&gt;0,"SOUTH","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="R51" s="110"/>
-      <c r="S51" s="564" t="str">
+      <c r="S51" s="558" t="str">
         <f t="shared" si="2"/>
         <v>3/4 TRUCK</v>
       </c>
-      <c r="T51" s="565"/>
+      <c r="T51" s="559"/>
       <c r="U51" s="225">
         <v>2687</v>
       </c>
@@ -12369,54 +12369,54 @@
       <c r="J52" s="198"/>
       <c r="K52" s="198"/>
       <c r="L52" s="198"/>
-      <c r="M52" s="432" t="e">
+      <c r="M52" s="426" t="e">
         <f>LEFT(P5,FIND(",",P5)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N52" s="422" t="s">
+      <c r="N52" s="420" t="s">
         <v>564</v>
       </c>
-      <c r="O52" s="423" t="str">
+      <c r="O52" s="421" t="str">
         <f>IF(OR(COUNTIF(NORTHEAST[NAME],P5)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="P52" s="423" t="str">
+      <c r="P52" s="421" t="str">
         <f>IF(OR(COUNTIF(NORTHEAST[CODE],P5),COUNTIF(NORTHEAST[CODE],M53)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="Q52" s="430" t="str">
+      <c r="Q52" s="424" t="str">
         <f xml:space="preserve">    IF(COUNTIF(O52:P52,"YES")&gt;0,"NORTHEAST","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="R52" s="110"/>
-      <c r="S52" s="566" t="str">
+      <c r="S52" s="560" t="str">
         <f t="shared" si="2"/>
         <v>FULL TRK</v>
       </c>
-      <c r="T52" s="567"/>
-      <c r="U52" s="482">
+      <c r="T52" s="561"/>
+      <c r="U52" s="476">
         <v>3582</v>
       </c>
-      <c r="V52" s="482">
+      <c r="V52" s="476">
         <v>3582</v>
       </c>
-      <c r="W52" s="482">
+      <c r="W52" s="476">
         <v>4400</v>
       </c>
-      <c r="X52" s="482">
+      <c r="X52" s="476">
         <v>4776</v>
       </c>
-      <c r="Y52" s="482">
+      <c r="Y52" s="476">
         <v>5373</v>
       </c>
-      <c r="Z52" s="482">
+      <c r="Z52" s="476">
         <v>5970</v>
       </c>
-      <c r="AA52" s="487"/>
-      <c r="AB52" s="487"/>
-      <c r="AC52" s="487"/>
-      <c r="AD52" s="487"/>
-      <c r="AE52" s="483"/>
+      <c r="AA52" s="481"/>
+      <c r="AB52" s="481"/>
+      <c r="AC52" s="481"/>
+      <c r="AD52" s="481"/>
+      <c r="AE52" s="477"/>
       <c r="AF52" s="58"/>
       <c r="AG52" s="198"/>
     </row>
@@ -12433,28 +12433,28 @@
       <c r="J53" s="198"/>
       <c r="K53" s="198"/>
       <c r="L53" s="198"/>
-      <c r="M53" s="433" t="e">
+      <c r="M53" s="427" t="e">
         <f>RIGHT(P5,LEN(P5)-FIND(",",P5))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N53" s="422" t="s">
+      <c r="N53" s="420" t="s">
         <v>565</v>
       </c>
-      <c r="O53" s="423" t="str">
+      <c r="O53" s="421" t="str">
         <f>IF(OR(COUNTIF(CENTRAL[NAME],P5),COUNTIF(CENTRAL[NAME],M53)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="P53" s="423" t="str">
+      <c r="P53" s="421" t="str">
         <f>IF(OR(COUNTIF(CENTRAL[CODE],P5),COUNTIF(CENTRAL[CODE],M53)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="Q53" s="430" t="str">
+      <c r="Q53" s="424" t="str">
         <f xml:space="preserve">    IF(COUNTIF(O53:P53,"YES")&gt;0,"NORTHEAST","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="R53" s="110"/>
-      <c r="S53" s="568"/>
-      <c r="T53" s="568"/>
+      <c r="S53" s="562"/>
+      <c r="T53" s="562"/>
       <c r="U53" s="58"/>
       <c r="V53" s="58"/>
       <c r="W53" s="58"/>
@@ -12482,38 +12482,38 @@
       <c r="J54" s="198"/>
       <c r="K54" s="198"/>
       <c r="L54" s="198"/>
-      <c r="M54" s="434"/>
-      <c r="N54" s="422" t="s">
+      <c r="M54" s="428"/>
+      <c r="N54" s="420" t="s">
         <v>566</v>
       </c>
-      <c r="O54" s="423" t="str">
+      <c r="O54" s="421" t="str">
         <f>IF(OR(COUNTIF(WEST[NAME],P5),COUNTIF(WEST[NAME],M53)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="P54" s="423" t="str">
+      <c r="P54" s="421" t="str">
         <f>IF(OR(COUNTIF(WEST[CODE],P5),COUNTIF(WEST[CODE],M53)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="Q54" s="430" t="str">
+      <c r="Q54" s="424" t="str">
         <f xml:space="preserve">    IF(COUNTIF(O54:P54,"YES")&gt;0,"CENTRAL","FALSE")</f>
         <v>FALSE</v>
       </c>
       <c r="R54" s="110"/>
-      <c r="S54" s="554" t="s">
+      <c r="S54" s="548" t="s">
         <v>417</v>
       </c>
-      <c r="T54" s="555"/>
-      <c r="U54" s="555"/>
-      <c r="V54" s="555"/>
-      <c r="W54" s="555"/>
-      <c r="X54" s="555"/>
-      <c r="Y54" s="555"/>
-      <c r="Z54" s="555"/>
-      <c r="AA54" s="555"/>
-      <c r="AB54" s="555"/>
-      <c r="AC54" s="555"/>
-      <c r="AD54" s="555"/>
-      <c r="AE54" s="556"/>
+      <c r="T54" s="549"/>
+      <c r="U54" s="549"/>
+      <c r="V54" s="549"/>
+      <c r="W54" s="549"/>
+      <c r="X54" s="549"/>
+      <c r="Y54" s="549"/>
+      <c r="Z54" s="549"/>
+      <c r="AA54" s="549"/>
+      <c r="AB54" s="549"/>
+      <c r="AC54" s="549"/>
+      <c r="AD54" s="549"/>
+      <c r="AE54" s="550"/>
       <c r="AF54" s="58"/>
       <c r="AG54" s="198"/>
     </row>
@@ -12530,22 +12530,22 @@
       <c r="J55" s="198"/>
       <c r="K55" s="198"/>
       <c r="L55" s="198"/>
-      <c r="M55" s="435" t="str">
+      <c r="M55" s="429" t="str">
         <f>IF(ISERROR(M53),"NO",M53)</f>
         <v>NO</v>
       </c>
-      <c r="N55" s="436" t="s">
+      <c r="N55" s="430" t="s">
         <v>567</v>
       </c>
-      <c r="O55" s="437" t="str">
+      <c r="O55" s="431" t="str">
         <f>IF(OR(COUNTIF(MIDWEST[NAME],P5),COUNTIF(MIDWEST[NAME],M53)), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="P55" s="437" t="str">
+      <c r="P55" s="431" t="str">
         <f>IF(OR(COUNTIF(MIDWEST[CODE],P5),COUNTIF(MIDWEST[CODE],M53)), "YES", "NO")</f>
         <v>YES</v>
       </c>
-      <c r="Q55" s="438" t="str">
+      <c r="Q55" s="432" t="str">
         <f xml:space="preserve">    IF(COUNTIF(O55:P55,"YES")&gt;0,"MIDWEST","FALSE")</f>
         <v>MIDWEST</v>
       </c>
@@ -12570,10 +12570,10 @@
     </row>
     <row r="56" spans="1:33">
       <c r="F56" s="168"/>
-      <c r="M56" s="440" t="s">
+      <c r="M56" s="434" t="s">
         <v>568</v>
       </c>
-      <c r="N56" s="439" t="str" cm="1">
+      <c r="N56" s="433" t="str" cm="1">
         <f t="array" ref="N56">INDEX(Q51:Q55,MATCH(TRUE,Q51:Q55&lt;&gt;"FALSE",0))</f>
         <v>MIDWEST</v>
       </c>
@@ -12581,36 +12581,36 @@
       <c r="P56" s="110"/>
       <c r="Q56" s="110"/>
       <c r="R56" s="110"/>
-      <c r="S56" s="572"/>
-      <c r="T56" s="573"/>
-      <c r="U56" s="489">
+      <c r="S56" s="566"/>
+      <c r="T56" s="567"/>
+      <c r="U56" s="483">
         <v>500</v>
       </c>
-      <c r="V56" s="490">
+      <c r="V56" s="484">
         <v>625</v>
       </c>
-      <c r="W56" s="490">
+      <c r="W56" s="484">
         <v>750</v>
       </c>
-      <c r="X56" s="490">
+      <c r="X56" s="484">
         <v>875</v>
       </c>
-      <c r="Y56" s="490">
+      <c r="Y56" s="484">
         <v>1000</v>
       </c>
-      <c r="Z56" s="490">
+      <c r="Z56" s="484">
         <v>1125</v>
       </c>
-      <c r="AA56" s="490">
+      <c r="AA56" s="484">
         <v>1250</v>
       </c>
-      <c r="AB56" s="490">
+      <c r="AB56" s="484">
         <v>1375</v>
       </c>
-      <c r="AC56" s="490">
+      <c r="AC56" s="484">
         <v>1500</v>
       </c>
-      <c r="AD56" s="490">
+      <c r="AD56" s="484">
         <v>1750</v>
       </c>
       <c r="AE56" s="162"/>
@@ -12619,64 +12619,64 @@
     </row>
     <row r="57" spans="1:33">
       <c r="F57" s="168"/>
-      <c r="M57" s="167"/>
-      <c r="N57" s="167"/>
-      <c r="O57" s="167"/>
-      <c r="P57" s="167"/>
-      <c r="Q57" s="167"/>
-      <c r="R57" s="167"/>
-      <c r="S57" s="574" t="str">
+      <c r="M57" s="110"/>
+      <c r="N57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="568" t="str">
         <f>T4</f>
         <v>RAW /
 PRIMED</v>
       </c>
-      <c r="T57" s="575"/>
-      <c r="U57" s="479">
+      <c r="T57" s="569"/>
+      <c r="U57" s="473">
         <v>2.82</v>
       </c>
-      <c r="V57" s="479">
+      <c r="V57" s="473">
         <v>3.54</v>
       </c>
-      <c r="W57" s="479">
+      <c r="W57" s="473">
         <v>4.24</v>
       </c>
-      <c r="X57" s="479">
+      <c r="X57" s="473">
         <v>4.67</v>
       </c>
-      <c r="Y57" s="479">
+      <c r="Y57" s="473">
         <v>5.56</v>
       </c>
-      <c r="Z57" s="479">
+      <c r="Z57" s="473">
         <v>5.67</v>
       </c>
-      <c r="AA57" s="479">
+      <c r="AA57" s="473">
         <v>6.67</v>
       </c>
-      <c r="AB57" s="479">
+      <c r="AB57" s="473">
         <v>7.11</v>
       </c>
-      <c r="AC57" s="479">
+      <c r="AC57" s="473">
         <v>7.56</v>
       </c>
-      <c r="AD57" s="479">
+      <c r="AD57" s="473">
         <v>9.7799999999999994</v>
       </c>
-      <c r="AE57" s="472"/>
+      <c r="AE57" s="466"/>
       <c r="AF57" s="58"/>
       <c r="AG57" s="198"/>
     </row>
     <row r="58" spans="1:33">
-      <c r="M58" s="167"/>
-      <c r="N58" s="167"/>
-      <c r="O58" s="167"/>
-      <c r="P58" s="167"/>
-      <c r="Q58" s="167"/>
-      <c r="R58" s="194"/>
-      <c r="S58" s="564" t="str">
+      <c r="M58" s="110"/>
+      <c r="N58" s="110"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="261"/>
+      <c r="S58" s="558" t="str">
         <f t="shared" ref="S58:S65" si="3">T6</f>
         <v>DOOR</v>
       </c>
-      <c r="T58" s="565"/>
+      <c r="T58" s="559"/>
       <c r="U58" s="224">
         <v>4.2300000000000004</v>
       </c>
@@ -12712,63 +12712,63 @@
       <c r="AG58" s="198"/>
     </row>
     <row r="59" spans="1:33">
-      <c r="M59" s="167"/>
-      <c r="N59" s="167"/>
-      <c r="O59" s="167"/>
-      <c r="P59" s="167"/>
-      <c r="Q59" s="167"/>
-      <c r="R59" s="167"/>
-      <c r="S59" s="562" t="str">
+      <c r="M59" s="110"/>
+      <c r="N59" s="110"/>
+      <c r="O59" s="110"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="110"/>
+      <c r="R59" s="110"/>
+      <c r="S59" s="556" t="str">
         <f t="shared" si="3"/>
         <v>RF/RFX</v>
       </c>
-      <c r="T59" s="563"/>
-      <c r="U59" s="480">
+      <c r="T59" s="557"/>
+      <c r="U59" s="474">
         <v>2.12</v>
       </c>
-      <c r="V59" s="480">
+      <c r="V59" s="474">
         <v>2.65</v>
       </c>
-      <c r="W59" s="480">
+      <c r="W59" s="474">
         <v>3.18</v>
       </c>
-      <c r="X59" s="480">
+      <c r="X59" s="474">
         <v>3.5</v>
       </c>
-      <c r="Y59" s="480">
+      <c r="Y59" s="474">
         <v>4.17</v>
       </c>
-      <c r="Z59" s="480">
+      <c r="Z59" s="474">
         <v>4.25</v>
       </c>
-      <c r="AA59" s="480">
+      <c r="AA59" s="474">
         <v>5</v>
       </c>
-      <c r="AB59" s="480">
+      <c r="AB59" s="474">
         <v>5.33</v>
       </c>
-      <c r="AC59" s="480">
+      <c r="AC59" s="474">
         <v>5.67</v>
       </c>
-      <c r="AD59" s="480">
+      <c r="AD59" s="474">
         <v>7.33</v>
       </c>
-      <c r="AE59" s="472"/>
+      <c r="AE59" s="466"/>
       <c r="AF59" s="58"/>
       <c r="AG59" s="198"/>
     </row>
     <row r="60" spans="1:33">
-      <c r="M60" s="167"/>
-      <c r="N60" s="167"/>
-      <c r="O60" s="167"/>
-      <c r="P60" s="167"/>
-      <c r="Q60" s="167"/>
-      <c r="R60" s="167"/>
-      <c r="S60" s="564" t="str">
+      <c r="M60" s="110"/>
+      <c r="N60" s="110"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="558" t="str">
         <f t="shared" si="3"/>
         <v>MIRROR</v>
       </c>
-      <c r="T60" s="565"/>
+      <c r="T60" s="559"/>
       <c r="U60" s="224">
         <v>4.84</v>
       </c>
@@ -12804,63 +12804,63 @@
       <c r="AG60" s="198"/>
     </row>
     <row r="61" spans="1:33">
-      <c r="M61" s="167"/>
-      <c r="N61" s="167"/>
-      <c r="O61" s="167"/>
-      <c r="P61" s="167"/>
-      <c r="Q61" s="167"/>
-      <c r="R61" s="167"/>
-      <c r="S61" s="562" t="str">
+      <c r="M61" s="110"/>
+      <c r="N61" s="110"/>
+      <c r="O61" s="110"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="556" t="str">
         <f t="shared" si="3"/>
         <v>BIFOLD</v>
       </c>
-      <c r="T61" s="563"/>
-      <c r="U61" s="480">
+      <c r="T61" s="557"/>
+      <c r="U61" s="474">
         <v>3.08</v>
       </c>
-      <c r="V61" s="480">
+      <c r="V61" s="474">
         <v>3.86</v>
       </c>
-      <c r="W61" s="480">
+      <c r="W61" s="474">
         <v>4.63</v>
       </c>
-      <c r="X61" s="480">
+      <c r="X61" s="474">
         <v>17.95</v>
       </c>
-      <c r="Y61" s="480">
+      <c r="Y61" s="474">
         <v>21.37</v>
       </c>
-      <c r="Z61" s="480">
+      <c r="Z61" s="474">
         <v>21.79</v>
       </c>
-      <c r="AA61" s="480">
+      <c r="AA61" s="474">
         <v>25.64</v>
       </c>
-      <c r="AB61" s="480">
+      <c r="AB61" s="474">
         <v>27.53</v>
       </c>
-      <c r="AC61" s="480">
+      <c r="AC61" s="474">
         <v>29.06</v>
       </c>
-      <c r="AD61" s="480">
+      <c r="AD61" s="474">
         <v>37.61</v>
       </c>
-      <c r="AE61" s="472"/>
+      <c r="AE61" s="466"/>
       <c r="AF61" s="58"/>
       <c r="AG61" s="198"/>
     </row>
     <row r="62" spans="1:33">
-      <c r="M62" s="167"/>
-      <c r="N62" s="167"/>
-      <c r="O62" s="167"/>
-      <c r="P62" s="424"/>
-      <c r="Q62" s="425"/>
-      <c r="R62" s="167"/>
-      <c r="S62" s="564" t="str">
+      <c r="M62" s="110"/>
+      <c r="N62" s="110"/>
+      <c r="O62" s="110"/>
+      <c r="P62" s="770"/>
+      <c r="Q62" s="771"/>
+      <c r="R62" s="110"/>
+      <c r="S62" s="558" t="str">
         <f t="shared" si="3"/>
         <v>1/4 TRUCK</v>
       </c>
-      <c r="T62" s="565"/>
+      <c r="T62" s="559"/>
       <c r="U62" s="222">
         <v>424</v>
       </c>
@@ -12896,58 +12896,63 @@
       <c r="AG62" s="198"/>
     </row>
     <row r="63" spans="1:33">
-      <c r="M63" s="167"/>
-      <c r="N63" s="167"/>
-      <c r="O63" s="167"/>
-      <c r="P63" s="426"/>
-      <c r="Q63" s="427"/>
-      <c r="R63" s="167"/>
-      <c r="S63" s="562" t="str">
+      <c r="M63" s="110"/>
+      <c r="N63" s="110"/>
+      <c r="O63" s="110"/>
+      <c r="P63" s="772"/>
+      <c r="Q63" s="773"/>
+      <c r="R63" s="110"/>
+      <c r="S63" s="556" t="str">
         <f t="shared" si="3"/>
         <v>1/2 TRUCK</v>
       </c>
-      <c r="T63" s="563"/>
-      <c r="U63" s="481">
+      <c r="T63" s="557"/>
+      <c r="U63" s="475">
         <v>847</v>
       </c>
-      <c r="V63" s="481">
+      <c r="V63" s="475">
         <v>1061</v>
       </c>
-      <c r="W63" s="481">
+      <c r="W63" s="475">
         <v>1272</v>
       </c>
-      <c r="X63" s="481">
+      <c r="X63" s="475">
         <v>1400</v>
       </c>
-      <c r="Y63" s="481">
+      <c r="Y63" s="475">
         <v>1667</v>
       </c>
-      <c r="Z63" s="481">
+      <c r="Z63" s="475">
         <v>1700</v>
       </c>
-      <c r="AA63" s="481">
+      <c r="AA63" s="475">
         <v>2000</v>
       </c>
-      <c r="AB63" s="481">
+      <c r="AB63" s="475">
         <v>2133</v>
       </c>
-      <c r="AC63" s="481">
+      <c r="AC63" s="475">
         <v>2267</v>
       </c>
-      <c r="AD63" s="481">
+      <c r="AD63" s="475">
         <v>2933</v>
       </c>
-      <c r="AE63" s="472"/>
+      <c r="AE63" s="466"/>
       <c r="AF63" s="58"/>
       <c r="AG63" s="198"/>
     </row>
     <row r="64" spans="1:33" ht="18.75">
-      <c r="N64" s="417"/>
-      <c r="S64" s="564" t="str">
+      <c r="M64" s="110"/>
+      <c r="N64" s="774"/>
+      <c r="O64" s="110"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="110"/>
+      <c r="S64" s="558" t="str">
         <f t="shared" si="3"/>
         <v>3/4 TRUCK</v>
       </c>
-      <c r="T64" s="565"/>
+      <c r="T64" s="559"/>
       <c r="U64" s="225">
         <v>1270</v>
       </c>
@@ -12983,52 +12988,63 @@
       <c r="AG64" s="198"/>
     </row>
     <row r="65" spans="7:33" ht="17.25" thickBot="1">
-      <c r="G65" s="421" t="s">
+      <c r="G65" s="419" t="s">
         <v>563</v>
       </c>
-      <c r="N65" s="418"/>
-      <c r="S65" s="566" t="str">
+      <c r="M65" s="110"/>
+      <c r="N65" s="775"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="560" t="str">
         <f t="shared" si="3"/>
         <v>FULL TRK</v>
       </c>
-      <c r="T65" s="567"/>
-      <c r="U65" s="482">
+      <c r="T65" s="561"/>
+      <c r="U65" s="476">
         <v>1693</v>
       </c>
-      <c r="V65" s="482">
+      <c r="V65" s="476">
         <v>2121</v>
       </c>
-      <c r="W65" s="482">
+      <c r="W65" s="476">
         <v>2544</v>
       </c>
-      <c r="X65" s="482">
+      <c r="X65" s="476">
         <v>2800</v>
       </c>
-      <c r="Y65" s="482">
+      <c r="Y65" s="476">
         <v>3333</v>
       </c>
-      <c r="Z65" s="482">
+      <c r="Z65" s="476">
         <v>3400</v>
       </c>
-      <c r="AA65" s="482">
+      <c r="AA65" s="476">
         <v>4000</v>
       </c>
-      <c r="AB65" s="482">
+      <c r="AB65" s="476">
         <v>4267</v>
       </c>
-      <c r="AC65" s="482">
+      <c r="AC65" s="476">
         <v>4533</v>
       </c>
-      <c r="AD65" s="482">
+      <c r="AD65" s="476">
         <v>5867</v>
       </c>
-      <c r="AE65" s="483"/>
+      <c r="AE65" s="477"/>
       <c r="AF65" s="58"/>
       <c r="AG65" s="198"/>
     </row>
     <row r="66" spans="7:33" ht="15.75" thickBot="1">
-      <c r="S66" s="568"/>
-      <c r="T66" s="568"/>
+      <c r="M66" s="110"/>
+      <c r="N66" s="110"/>
+      <c r="O66" s="110"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="R66" s="110"/>
+      <c r="S66" s="562"/>
+      <c r="T66" s="562"/>
       <c r="U66" s="58"/>
       <c r="V66" s="58"/>
       <c r="W66" s="58"/>
@@ -13044,25 +13060,25 @@
       <c r="AG66" s="198"/>
     </row>
     <row r="67" spans="7:33" ht="21">
-      <c r="N67" s="420" t="b" cm="1">
+      <c r="N67" s="418" t="b" cm="1">
         <f t="array" ref="N67">SUMPRODUCT(COUNTIF(Q51:Q55, REGIONS)) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="S67" s="569" t="s">
+      <c r="S67" s="563" t="s">
         <v>419</v>
       </c>
-      <c r="T67" s="570"/>
-      <c r="U67" s="570"/>
-      <c r="V67" s="570"/>
-      <c r="W67" s="570"/>
-      <c r="X67" s="570"/>
-      <c r="Y67" s="570"/>
-      <c r="Z67" s="570"/>
-      <c r="AA67" s="570"/>
-      <c r="AB67" s="570"/>
-      <c r="AC67" s="570"/>
-      <c r="AD67" s="570"/>
-      <c r="AE67" s="571"/>
+      <c r="T67" s="564"/>
+      <c r="U67" s="564"/>
+      <c r="V67" s="564"/>
+      <c r="W67" s="564"/>
+      <c r="X67" s="564"/>
+      <c r="Y67" s="564"/>
+      <c r="Z67" s="564"/>
+      <c r="AA67" s="564"/>
+      <c r="AB67" s="564"/>
+      <c r="AC67" s="564"/>
+      <c r="AD67" s="564"/>
+      <c r="AE67" s="565"/>
       <c r="AF67" s="58"/>
       <c r="AG67" s="198"/>
     </row>
@@ -13111,36 +13127,36 @@
       <c r="P69" t="s">
         <v>562</v>
       </c>
-      <c r="S69" s="572"/>
-      <c r="T69" s="573"/>
-      <c r="U69" s="489">
+      <c r="S69" s="566"/>
+      <c r="T69" s="567"/>
+      <c r="U69" s="483">
         <v>500</v>
       </c>
-      <c r="V69" s="490">
+      <c r="V69" s="484">
         <v>625</v>
       </c>
-      <c r="W69" s="490">
+      <c r="W69" s="484">
         <v>750</v>
       </c>
-      <c r="X69" s="490">
+      <c r="X69" s="484">
         <v>875</v>
       </c>
-      <c r="Y69" s="490">
+      <c r="Y69" s="484">
         <v>1000</v>
       </c>
-      <c r="Z69" s="490">
+      <c r="Z69" s="484">
         <v>1125</v>
       </c>
-      <c r="AA69" s="490">
+      <c r="AA69" s="484">
         <v>1250</v>
       </c>
-      <c r="AB69" s="490">
+      <c r="AB69" s="484">
         <v>1375</v>
       </c>
-      <c r="AC69" s="490">
+      <c r="AC69" s="484">
         <v>1500</v>
       </c>
-      <c r="AD69" s="490">
+      <c r="AD69" s="484">
         <v>1750</v>
       </c>
       <c r="AE69" s="162"/>
@@ -13154,43 +13170,43 @@
       <c r="J70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S70" s="574" t="str">
+      <c r="S70" s="568" t="str">
         <f>T4</f>
         <v>RAW /
 PRIMED</v>
       </c>
-      <c r="T70" s="575"/>
-      <c r="U70" s="481">
+      <c r="T70" s="569"/>
+      <c r="U70" s="475">
         <v>2.44</v>
       </c>
-      <c r="V70" s="481">
+      <c r="V70" s="475">
         <v>3.05</v>
       </c>
-      <c r="W70" s="481">
+      <c r="W70" s="475">
         <v>3.66</v>
       </c>
-      <c r="X70" s="481">
+      <c r="X70" s="475">
         <v>4.2699999999999996</v>
       </c>
-      <c r="Y70" s="481">
+      <c r="Y70" s="475">
         <v>4.88</v>
       </c>
-      <c r="Z70" s="481">
+      <c r="Z70" s="475">
         <v>5.49</v>
       </c>
-      <c r="AA70" s="481">
+      <c r="AA70" s="475">
         <v>6.1</v>
       </c>
-      <c r="AB70" s="481">
+      <c r="AB70" s="475">
         <v>6.71</v>
       </c>
-      <c r="AC70" s="481">
+      <c r="AC70" s="475">
         <v>7.32</v>
       </c>
-      <c r="AD70" s="481">
+      <c r="AD70" s="475">
         <v>8.5399999999999991</v>
       </c>
-      <c r="AE70" s="472"/>
+      <c r="AE70" s="466"/>
       <c r="AF70" s="58"/>
       <c r="AG70" s="198"/>
     </row>
@@ -13201,11 +13217,11 @@
       <c r="J71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S71" s="564" t="str">
+      <c r="S71" s="558" t="str">
         <f t="shared" ref="S71:S78" si="4">T6</f>
         <v>DOOR</v>
       </c>
-      <c r="T71" s="565"/>
+      <c r="T71" s="559"/>
       <c r="U71" s="225">
         <v>3.66</v>
       </c>
@@ -13247,52 +13263,52 @@
       <c r="J72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N72" s="419"/>
-      <c r="S72" s="562" t="str">
+      <c r="N72" s="417"/>
+      <c r="S72" s="556" t="str">
         <f t="shared" si="4"/>
         <v>RF/RFX</v>
       </c>
-      <c r="T72" s="563"/>
-      <c r="U72" s="488">
+      <c r="T72" s="557"/>
+      <c r="U72" s="482">
         <v>1.83</v>
       </c>
-      <c r="V72" s="488">
+      <c r="V72" s="482">
         <v>2.29</v>
       </c>
-      <c r="W72" s="488">
+      <c r="W72" s="482">
         <v>2.74</v>
       </c>
-      <c r="X72" s="488">
+      <c r="X72" s="482">
         <v>3.2</v>
       </c>
-      <c r="Y72" s="488">
+      <c r="Y72" s="482">
         <v>3.66</v>
       </c>
-      <c r="Z72" s="488">
+      <c r="Z72" s="482">
         <v>4.12</v>
       </c>
-      <c r="AA72" s="488">
+      <c r="AA72" s="482">
         <v>4.57</v>
       </c>
-      <c r="AB72" s="488">
+      <c r="AB72" s="482">
         <v>5.03</v>
       </c>
-      <c r="AC72" s="488">
+      <c r="AC72" s="482">
         <v>5.49</v>
       </c>
-      <c r="AD72" s="488">
+      <c r="AD72" s="482">
         <v>6.4</v>
       </c>
-      <c r="AE72" s="472"/>
+      <c r="AE72" s="466"/>
       <c r="AF72" s="58"/>
       <c r="AG72" s="198"/>
     </row>
     <row r="73" spans="7:33">
-      <c r="S73" s="564" t="str">
+      <c r="S73" s="558" t="str">
         <f t="shared" si="4"/>
         <v>MIRROR</v>
       </c>
-      <c r="T73" s="565"/>
+      <c r="T73" s="559"/>
       <c r="U73" s="225">
         <v>4.18</v>
       </c>
@@ -13328,46 +13344,46 @@
       <c r="AG73" s="198"/>
     </row>
     <row r="74" spans="7:33">
-      <c r="G74" s="421" t="e" cm="1">
+      <c r="G74" s="419" t="e" cm="1">
         <f t="array" ref="G74:G78">VLOOKUP(Q51:Q55,REGIONS,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S74" s="562" t="str">
+      <c r="S74" s="556" t="str">
         <f t="shared" si="4"/>
         <v>BIFOLD</v>
       </c>
-      <c r="T74" s="563"/>
-      <c r="U74" s="488">
+      <c r="T74" s="557"/>
+      <c r="U74" s="482">
         <v>2.66</v>
       </c>
-      <c r="V74" s="488">
+      <c r="V74" s="482">
         <v>3.33</v>
       </c>
-      <c r="W74" s="488">
+      <c r="W74" s="482">
         <v>3.99</v>
       </c>
-      <c r="X74" s="488">
+      <c r="X74" s="482">
         <v>4.66</v>
       </c>
-      <c r="Y74" s="488">
+      <c r="Y74" s="482">
         <v>5.32</v>
       </c>
-      <c r="Z74" s="488">
+      <c r="Z74" s="482">
         <v>5.99</v>
       </c>
-      <c r="AA74" s="488">
+      <c r="AA74" s="482">
         <v>6.65</v>
       </c>
-      <c r="AB74" s="488">
+      <c r="AB74" s="482">
         <v>7.32</v>
       </c>
-      <c r="AC74" s="488">
+      <c r="AC74" s="482">
         <v>7.98</v>
       </c>
-      <c r="AD74" s="488">
+      <c r="AD74" s="482">
         <v>9.31</v>
       </c>
-      <c r="AE74" s="472"/>
+      <c r="AE74" s="466"/>
       <c r="AF74" s="58"/>
       <c r="AG74" s="198"/>
     </row>
@@ -13375,11 +13391,11 @@
       <c r="G75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S75" s="564" t="str">
+      <c r="S75" s="558" t="str">
         <f t="shared" si="4"/>
         <v>1/4 TRUCK</v>
       </c>
-      <c r="T75" s="565"/>
+      <c r="T75" s="559"/>
       <c r="U75" s="222">
         <v>349</v>
       </c>
@@ -13425,42 +13441,42 @@
         <f>VLOOKUP(P5,SOUTH[NAME],1,TRUE)</f>
         <v>TENNESSEE</v>
       </c>
-      <c r="S76" s="562" t="str">
+      <c r="S76" s="556" t="str">
         <f t="shared" si="4"/>
         <v>1/2 TRUCK</v>
       </c>
-      <c r="T76" s="563"/>
-      <c r="U76" s="481">
+      <c r="T76" s="557"/>
+      <c r="U76" s="475">
         <v>697</v>
       </c>
-      <c r="V76" s="481">
+      <c r="V76" s="475">
         <v>871</v>
       </c>
-      <c r="W76" s="481">
+      <c r="W76" s="475">
         <v>1045</v>
       </c>
-      <c r="X76" s="481">
+      <c r="X76" s="475">
         <v>1220</v>
       </c>
-      <c r="Y76" s="481">
+      <c r="Y76" s="475">
         <v>1394</v>
       </c>
-      <c r="Z76" s="481">
+      <c r="Z76" s="475">
         <v>1568</v>
       </c>
-      <c r="AA76" s="481">
+      <c r="AA76" s="475">
         <v>1742</v>
       </c>
-      <c r="AB76" s="481">
+      <c r="AB76" s="475">
         <v>1916</v>
       </c>
-      <c r="AC76" s="481">
+      <c r="AC76" s="475">
         <v>2090</v>
       </c>
-      <c r="AD76" s="481">
+      <c r="AD76" s="475">
         <v>2439</v>
       </c>
-      <c r="AE76" s="472"/>
+      <c r="AE76" s="466"/>
       <c r="AF76" s="58"/>
       <c r="AG76" s="198"/>
     </row>
@@ -13472,11 +13488,11 @@
         <f>VLOOKUP(P5,SOUTH[CODE],1,TRUE)</f>
         <v>TN</v>
       </c>
-      <c r="S77" s="564" t="str">
+      <c r="S77" s="558" t="str">
         <f t="shared" si="4"/>
         <v>3/4 TRUCK</v>
       </c>
-      <c r="T77" s="565"/>
+      <c r="T77" s="559"/>
       <c r="U77" s="225">
         <v>1045</v>
       </c>
@@ -13515,48 +13531,48 @@
       <c r="G78" t="str">
         <v>MIDWEST</v>
       </c>
-      <c r="S78" s="566" t="str">
+      <c r="S78" s="560" t="str">
         <f t="shared" si="4"/>
         <v>FULL TRK</v>
       </c>
-      <c r="T78" s="567"/>
-      <c r="U78" s="482">
+      <c r="T78" s="561"/>
+      <c r="U78" s="476">
         <v>1393</v>
       </c>
-      <c r="V78" s="482">
+      <c r="V78" s="476">
         <v>1742</v>
       </c>
-      <c r="W78" s="482">
+      <c r="W78" s="476">
         <v>2090</v>
       </c>
-      <c r="X78" s="482">
+      <c r="X78" s="476">
         <v>2439</v>
       </c>
-      <c r="Y78" s="482">
+      <c r="Y78" s="476">
         <v>2787</v>
       </c>
-      <c r="Z78" s="482">
+      <c r="Z78" s="476">
         <v>3135</v>
       </c>
-      <c r="AA78" s="482">
+      <c r="AA78" s="476">
         <v>3484</v>
       </c>
-      <c r="AB78" s="482">
+      <c r="AB78" s="476">
         <v>3832</v>
       </c>
-      <c r="AC78" s="482">
+      <c r="AC78" s="476">
         <v>4180</v>
       </c>
-      <c r="AD78" s="482">
+      <c r="AD78" s="476">
         <v>4877</v>
       </c>
-      <c r="AE78" s="483"/>
+      <c r="AE78" s="477"/>
       <c r="AF78" s="58"/>
       <c r="AG78" s="198"/>
     </row>
     <row r="79" spans="7:33">
-      <c r="S79" s="568"/>
-      <c r="T79" s="568"/>
+      <c r="S79" s="562"/>
+      <c r="T79" s="562"/>
       <c r="U79" s="58"/>
       <c r="V79" s="58"/>
       <c r="W79" s="58"/>
@@ -13695,766 +13711,766 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A1" s="722"/>
-      <c r="B1" s="722"/>
-      <c r="C1" s="722"/>
-      <c r="D1" s="741"/>
-      <c r="E1" s="741"/>
-      <c r="F1" s="741"/>
-      <c r="G1" s="741"/>
-      <c r="H1" s="741"/>
-      <c r="I1" s="741"/>
-      <c r="J1" s="722"/>
-      <c r="K1" s="722"/>
-      <c r="L1" s="722"/>
-      <c r="M1" s="722"/>
-      <c r="N1" s="722"/>
-      <c r="O1" s="722"/>
-      <c r="P1" s="722"/>
-      <c r="Q1" s="722"/>
-      <c r="R1" s="722"/>
-      <c r="S1" s="722"/>
-      <c r="T1" s="722"/>
-      <c r="U1" s="722"/>
-      <c r="V1" s="722"/>
-      <c r="W1" s="722"/>
-      <c r="X1" s="722"/>
-      <c r="Y1" s="722"/>
-      <c r="Z1" s="722"/>
-      <c r="AA1" s="745"/>
-      <c r="AB1" s="745"/>
-      <c r="AC1" s="745"/>
-      <c r="AD1" s="745"/>
+      <c r="A1" s="716"/>
+      <c r="B1" s="716"/>
+      <c r="C1" s="716"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="716"/>
+      <c r="K1" s="716"/>
+      <c r="L1" s="716"/>
+      <c r="M1" s="716"/>
+      <c r="N1" s="716"/>
+      <c r="O1" s="716"/>
+      <c r="P1" s="716"/>
+      <c r="Q1" s="716"/>
+      <c r="R1" s="716"/>
+      <c r="S1" s="716"/>
+      <c r="T1" s="716"/>
+      <c r="U1" s="716"/>
+      <c r="V1" s="716"/>
+      <c r="W1" s="716"/>
+      <c r="X1" s="716"/>
+      <c r="Y1" s="716"/>
+      <c r="Z1" s="716"/>
+      <c r="AA1" s="739"/>
+      <c r="AB1" s="739"/>
+      <c r="AC1" s="739"/>
+      <c r="AD1" s="739"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="722"/>
-      <c r="B2" s="737"/>
-      <c r="C2" s="738"/>
-      <c r="D2" s="722"/>
-      <c r="E2" s="722"/>
-      <c r="F2" s="722"/>
-      <c r="G2" s="722"/>
-      <c r="H2" s="722"/>
-      <c r="I2" s="738"/>
-      <c r="J2" s="746"/>
-      <c r="K2" s="722" t="s">
+      <c r="A2" s="716"/>
+      <c r="B2" s="731"/>
+      <c r="C2" s="732"/>
+      <c r="D2" s="716"/>
+      <c r="E2" s="716"/>
+      <c r="F2" s="716"/>
+      <c r="G2" s="716"/>
+      <c r="H2" s="716"/>
+      <c r="I2" s="732"/>
+      <c r="J2" s="740"/>
+      <c r="K2" s="716" t="s">
         <v>599</v>
       </c>
-      <c r="L2" s="722"/>
-      <c r="M2" s="722"/>
-      <c r="N2" s="722"/>
-      <c r="O2" s="722"/>
-      <c r="P2" s="722"/>
-      <c r="Q2" s="722"/>
-      <c r="R2" s="722" t="s">
+      <c r="L2" s="716"/>
+      <c r="M2" s="716"/>
+      <c r="N2" s="716"/>
+      <c r="O2" s="716"/>
+      <c r="P2" s="716"/>
+      <c r="Q2" s="716"/>
+      <c r="R2" s="716" t="s">
         <v>601</v>
       </c>
-      <c r="S2" s="722"/>
-      <c r="T2" s="722"/>
-      <c r="U2" s="722"/>
-      <c r="V2" s="742" t="s">
+      <c r="S2" s="716"/>
+      <c r="T2" s="716"/>
+      <c r="U2" s="716"/>
+      <c r="V2" s="736" t="s">
         <v>573</v>
       </c>
-      <c r="W2" s="743"/>
-      <c r="X2" s="743"/>
-      <c r="Y2" s="744"/>
-      <c r="Z2" s="700" t="s">
+      <c r="W2" s="737"/>
+      <c r="X2" s="737"/>
+      <c r="Y2" s="738"/>
+      <c r="Z2" s="694" t="s">
         <v>572</v>
       </c>
-      <c r="AA2" s="701"/>
-      <c r="AB2" s="701"/>
-      <c r="AC2" s="702"/>
-      <c r="AD2" s="745"/>
+      <c r="AA2" s="695"/>
+      <c r="AB2" s="695"/>
+      <c r="AC2" s="696"/>
+      <c r="AD2" s="739"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A3" s="722"/>
-      <c r="B3" s="739"/>
-      <c r="C3" s="740"/>
-      <c r="D3" s="739"/>
-      <c r="E3" s="741"/>
-      <c r="F3" s="741"/>
-      <c r="G3" s="741"/>
-      <c r="H3" s="741"/>
-      <c r="I3" s="740"/>
-      <c r="J3" s="745"/>
-      <c r="K3" s="722" t="s">
+      <c r="A3" s="716"/>
+      <c r="B3" s="733"/>
+      <c r="C3" s="734"/>
+      <c r="D3" s="733"/>
+      <c r="E3" s="735"/>
+      <c r="F3" s="735"/>
+      <c r="G3" s="735"/>
+      <c r="H3" s="735"/>
+      <c r="I3" s="734"/>
+      <c r="J3" s="739"/>
+      <c r="K3" s="716" t="s">
         <v>600</v>
       </c>
-      <c r="L3" s="722"/>
-      <c r="M3" s="722"/>
-      <c r="N3" s="722"/>
-      <c r="O3" s="722"/>
-      <c r="P3" s="722"/>
-      <c r="Q3" s="722"/>
-      <c r="R3" s="748">
+      <c r="L3" s="716"/>
+      <c r="M3" s="716"/>
+      <c r="N3" s="716"/>
+      <c r="O3" s="716"/>
+      <c r="P3" s="716"/>
+      <c r="Q3" s="716"/>
+      <c r="R3" s="742">
         <v>36304</v>
       </c>
-      <c r="S3" s="748"/>
-      <c r="T3" s="748"/>
-      <c r="U3" s="759"/>
-      <c r="V3" s="704"/>
-      <c r="W3" s="705"/>
-      <c r="X3" s="705"/>
-      <c r="Y3" s="706"/>
-      <c r="Z3" s="704"/>
-      <c r="AA3" s="705"/>
-      <c r="AB3" s="705"/>
-      <c r="AC3" s="706"/>
-      <c r="AD3" s="745"/>
+      <c r="S3" s="742"/>
+      <c r="T3" s="742"/>
+      <c r="U3" s="753"/>
+      <c r="V3" s="698"/>
+      <c r="W3" s="699"/>
+      <c r="X3" s="699"/>
+      <c r="Y3" s="700"/>
+      <c r="Z3" s="698"/>
+      <c r="AA3" s="699"/>
+      <c r="AB3" s="699"/>
+      <c r="AC3" s="700"/>
+      <c r="AD3" s="739"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="722"/>
-      <c r="B4" s="722" t="s">
+      <c r="A4" s="716"/>
+      <c r="B4" s="716" t="s">
         <v>602</v>
       </c>
-      <c r="C4" s="722"/>
-      <c r="D4" s="722"/>
-      <c r="E4" s="722"/>
-      <c r="F4" s="722"/>
-      <c r="G4" s="722"/>
-      <c r="H4" s="722"/>
-      <c r="I4" s="722"/>
-      <c r="J4" s="722"/>
-      <c r="K4" s="745"/>
-      <c r="L4" s="745"/>
-      <c r="M4" s="722"/>
-      <c r="N4" s="722"/>
-      <c r="O4" s="722"/>
-      <c r="P4" s="722"/>
-      <c r="Q4" s="722"/>
-      <c r="R4" s="722"/>
-      <c r="T4" s="722"/>
-      <c r="U4" s="722"/>
-      <c r="V4" s="722"/>
-      <c r="W4" s="722"/>
-      <c r="X4" s="722"/>
-      <c r="Y4" s="722"/>
-      <c r="Z4" s="745"/>
-      <c r="AA4" s="745"/>
-      <c r="AB4" s="745"/>
-      <c r="AC4" s="745"/>
-      <c r="AD4" s="745"/>
+      <c r="C4" s="716"/>
+      <c r="D4" s="716"/>
+      <c r="E4" s="716"/>
+      <c r="F4" s="716"/>
+      <c r="G4" s="716"/>
+      <c r="H4" s="716"/>
+      <c r="I4" s="716"/>
+      <c r="J4" s="716"/>
+      <c r="K4" s="739"/>
+      <c r="L4" s="739"/>
+      <c r="M4" s="716"/>
+      <c r="N4" s="716"/>
+      <c r="O4" s="716"/>
+      <c r="P4" s="716"/>
+      <c r="Q4" s="716"/>
+      <c r="R4" s="716"/>
+      <c r="T4" s="716"/>
+      <c r="U4" s="716"/>
+      <c r="V4" s="716"/>
+      <c r="W4" s="716"/>
+      <c r="X4" s="716"/>
+      <c r="Y4" s="716"/>
+      <c r="Z4" s="739"/>
+      <c r="AA4" s="739"/>
+      <c r="AB4" s="739"/>
+      <c r="AC4" s="739"/>
+      <c r="AD4" s="739"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="722"/>
-      <c r="B5" s="722" t="s">
+      <c r="A5" s="716"/>
+      <c r="B5" s="716" t="s">
         <v>603</v>
       </c>
-      <c r="C5" s="745"/>
-      <c r="D5" s="745"/>
-      <c r="E5" s="745"/>
-      <c r="F5" s="745"/>
-      <c r="G5" s="745"/>
-      <c r="H5" s="745"/>
-      <c r="I5" s="745"/>
-      <c r="J5" s="745"/>
-      <c r="K5" s="745"/>
-      <c r="L5" s="745"/>
-      <c r="M5" s="745"/>
-      <c r="N5" s="745"/>
-      <c r="O5" s="745"/>
-      <c r="P5" s="745"/>
-      <c r="Q5" s="745"/>
-      <c r="R5" s="745"/>
-      <c r="S5" s="745"/>
-      <c r="T5" s="745"/>
-      <c r="U5" s="745"/>
-      <c r="V5" s="745"/>
-      <c r="W5" s="745"/>
-      <c r="X5" s="745"/>
-      <c r="Y5" s="745"/>
-      <c r="Z5" s="745"/>
-      <c r="AA5" s="745"/>
-      <c r="AB5" s="745"/>
-      <c r="AC5" s="745"/>
-      <c r="AD5" s="722"/>
+      <c r="C5" s="739"/>
+      <c r="D5" s="739"/>
+      <c r="E5" s="739"/>
+      <c r="F5" s="739"/>
+      <c r="G5" s="739"/>
+      <c r="H5" s="739"/>
+      <c r="I5" s="739"/>
+      <c r="J5" s="739"/>
+      <c r="K5" s="739"/>
+      <c r="L5" s="739"/>
+      <c r="M5" s="739"/>
+      <c r="N5" s="739"/>
+      <c r="O5" s="739"/>
+      <c r="P5" s="739"/>
+      <c r="Q5" s="739"/>
+      <c r="R5" s="739"/>
+      <c r="S5" s="739"/>
+      <c r="T5" s="739"/>
+      <c r="U5" s="739"/>
+      <c r="V5" s="739"/>
+      <c r="W5" s="739"/>
+      <c r="X5" s="739"/>
+      <c r="Y5" s="739"/>
+      <c r="Z5" s="739"/>
+      <c r="AA5" s="739"/>
+      <c r="AB5" s="739"/>
+      <c r="AC5" s="739"/>
+      <c r="AD5" s="716"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="722"/>
-      <c r="B6" s="771" t="s">
+      <c r="A6" s="716"/>
+      <c r="B6" s="765" t="s">
         <v>574</v>
       </c>
-      <c r="C6" s="772"/>
-      <c r="D6" s="773"/>
-      <c r="E6" s="736"/>
-      <c r="F6" s="736"/>
-      <c r="G6" s="736"/>
-      <c r="H6" s="736"/>
-      <c r="I6" s="736"/>
-      <c r="J6" s="736"/>
-      <c r="K6" s="736"/>
-      <c r="L6" s="719"/>
-      <c r="M6" s="764"/>
-      <c r="N6" s="765"/>
-      <c r="O6" s="745"/>
-      <c r="P6" s="745"/>
-      <c r="Q6" s="771" t="s">
+      <c r="C6" s="766"/>
+      <c r="D6" s="767"/>
+      <c r="E6" s="730"/>
+      <c r="F6" s="730"/>
+      <c r="G6" s="730"/>
+      <c r="H6" s="730"/>
+      <c r="I6" s="730"/>
+      <c r="J6" s="730"/>
+      <c r="K6" s="730"/>
+      <c r="L6" s="713"/>
+      <c r="M6" s="758"/>
+      <c r="N6" s="759"/>
+      <c r="O6" s="739"/>
+      <c r="P6" s="739"/>
+      <c r="Q6" s="765" t="s">
         <v>580</v>
       </c>
-      <c r="R6" s="772"/>
-      <c r="S6" s="773"/>
-      <c r="T6" s="736"/>
-      <c r="U6" s="736"/>
-      <c r="V6" s="736"/>
-      <c r="W6" s="736"/>
-      <c r="X6" s="736"/>
-      <c r="Y6" s="736"/>
-      <c r="Z6" s="736"/>
-      <c r="AA6" s="764"/>
-      <c r="AB6" s="764"/>
-      <c r="AC6" s="765"/>
-      <c r="AD6" s="722"/>
+      <c r="R6" s="766"/>
+      <c r="S6" s="767"/>
+      <c r="T6" s="730"/>
+      <c r="U6" s="730"/>
+      <c r="V6" s="730"/>
+      <c r="W6" s="730"/>
+      <c r="X6" s="730"/>
+      <c r="Y6" s="730"/>
+      <c r="Z6" s="730"/>
+      <c r="AA6" s="758"/>
+      <c r="AB6" s="758"/>
+      <c r="AC6" s="759"/>
+      <c r="AD6" s="716"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="722"/>
-      <c r="B7" s="766" t="s">
+      <c r="A7" s="716"/>
+      <c r="B7" s="760" t="s">
         <v>575</v>
       </c>
-      <c r="C7" s="749"/>
-      <c r="D7" s="749"/>
-      <c r="E7" s="749"/>
-      <c r="F7" s="749"/>
-      <c r="G7" s="749"/>
-      <c r="H7" s="749"/>
-      <c r="I7" s="749"/>
-      <c r="J7" s="749"/>
-      <c r="K7" s="749"/>
-      <c r="L7" s="749"/>
-      <c r="M7" s="749"/>
-      <c r="N7" s="767"/>
-      <c r="O7" s="750"/>
-      <c r="P7" s="750"/>
-      <c r="Q7" s="766" t="s">
+      <c r="C7" s="743"/>
+      <c r="D7" s="743"/>
+      <c r="E7" s="743"/>
+      <c r="F7" s="743"/>
+      <c r="G7" s="743"/>
+      <c r="H7" s="743"/>
+      <c r="I7" s="743"/>
+      <c r="J7" s="743"/>
+      <c r="K7" s="743"/>
+      <c r="L7" s="743"/>
+      <c r="M7" s="743"/>
+      <c r="N7" s="761"/>
+      <c r="O7" s="744"/>
+      <c r="P7" s="744"/>
+      <c r="Q7" s="760" t="s">
         <v>575</v>
       </c>
-      <c r="R7" s="749"/>
-      <c r="S7" s="749"/>
-      <c r="T7" s="749"/>
-      <c r="U7" s="749"/>
-      <c r="V7" s="749"/>
-      <c r="W7" s="749"/>
-      <c r="X7" s="749"/>
-      <c r="Y7" s="749"/>
-      <c r="Z7" s="749"/>
-      <c r="AA7" s="749"/>
-      <c r="AB7" s="749"/>
-      <c r="AC7" s="767"/>
-      <c r="AD7" s="722"/>
+      <c r="R7" s="743"/>
+      <c r="S7" s="743"/>
+      <c r="T7" s="743"/>
+      <c r="U7" s="743"/>
+      <c r="V7" s="743"/>
+      <c r="W7" s="743"/>
+      <c r="X7" s="743"/>
+      <c r="Y7" s="743"/>
+      <c r="Z7" s="743"/>
+      <c r="AA7" s="743"/>
+      <c r="AB7" s="743"/>
+      <c r="AC7" s="761"/>
+      <c r="AD7" s="716"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="722"/>
-      <c r="B8" s="766" t="s">
+      <c r="A8" s="716"/>
+      <c r="B8" s="760" t="s">
         <v>576</v>
       </c>
-      <c r="C8" s="749"/>
-      <c r="D8" s="749"/>
-      <c r="E8" s="749"/>
-      <c r="F8" s="749"/>
-      <c r="G8" s="749"/>
-      <c r="H8" s="749"/>
-      <c r="I8" s="749"/>
-      <c r="J8" s="749"/>
-      <c r="K8" s="749"/>
-      <c r="L8" s="749"/>
-      <c r="M8" s="749"/>
-      <c r="N8" s="767"/>
-      <c r="O8" s="750"/>
-      <c r="P8" s="750"/>
-      <c r="Q8" s="766" t="s">
+      <c r="C8" s="743"/>
+      <c r="D8" s="743"/>
+      <c r="E8" s="743"/>
+      <c r="F8" s="743"/>
+      <c r="G8" s="743"/>
+      <c r="H8" s="743"/>
+      <c r="I8" s="743"/>
+      <c r="J8" s="743"/>
+      <c r="K8" s="743"/>
+      <c r="L8" s="743"/>
+      <c r="M8" s="743"/>
+      <c r="N8" s="761"/>
+      <c r="O8" s="744"/>
+      <c r="P8" s="744"/>
+      <c r="Q8" s="760" t="s">
         <v>576</v>
       </c>
-      <c r="R8" s="749"/>
-      <c r="S8" s="749"/>
-      <c r="T8" s="749"/>
-      <c r="U8" s="749"/>
-      <c r="V8" s="749"/>
-      <c r="W8" s="749"/>
-      <c r="X8" s="749"/>
-      <c r="Y8" s="749"/>
-      <c r="Z8" s="749"/>
-      <c r="AA8" s="749"/>
-      <c r="AB8" s="749"/>
-      <c r="AC8" s="767"/>
-      <c r="AD8" s="722"/>
+      <c r="R8" s="743"/>
+      <c r="S8" s="743"/>
+      <c r="T8" s="743"/>
+      <c r="U8" s="743"/>
+      <c r="V8" s="743"/>
+      <c r="W8" s="743"/>
+      <c r="X8" s="743"/>
+      <c r="Y8" s="743"/>
+      <c r="Z8" s="743"/>
+      <c r="AA8" s="743"/>
+      <c r="AB8" s="743"/>
+      <c r="AC8" s="761"/>
+      <c r="AD8" s="716"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="722"/>
-      <c r="B9" s="768" t="s">
+      <c r="A9" s="716"/>
+      <c r="B9" s="762" t="s">
         <v>577</v>
       </c>
-      <c r="C9" s="769"/>
-      <c r="D9" s="769"/>
-      <c r="E9" s="769"/>
-      <c r="F9" s="769"/>
-      <c r="G9" s="769"/>
-      <c r="H9" s="769"/>
-      <c r="I9" s="769"/>
-      <c r="J9" s="769"/>
-      <c r="K9" s="769"/>
-      <c r="L9" s="769"/>
-      <c r="M9" s="769"/>
-      <c r="N9" s="770"/>
-      <c r="O9" s="750"/>
-      <c r="P9" s="750"/>
-      <c r="Q9" s="768" t="s">
+      <c r="C9" s="763"/>
+      <c r="D9" s="763"/>
+      <c r="E9" s="763"/>
+      <c r="F9" s="763"/>
+      <c r="G9" s="763"/>
+      <c r="H9" s="763"/>
+      <c r="I9" s="763"/>
+      <c r="J9" s="763"/>
+      <c r="K9" s="763"/>
+      <c r="L9" s="763"/>
+      <c r="M9" s="763"/>
+      <c r="N9" s="764"/>
+      <c r="O9" s="744"/>
+      <c r="P9" s="744"/>
+      <c r="Q9" s="762" t="s">
         <v>577</v>
       </c>
-      <c r="R9" s="769"/>
-      <c r="S9" s="769"/>
-      <c r="T9" s="769"/>
-      <c r="U9" s="769"/>
-      <c r="V9" s="769"/>
-      <c r="W9" s="769"/>
-      <c r="X9" s="769"/>
-      <c r="Y9" s="769"/>
-      <c r="Z9" s="769"/>
-      <c r="AA9" s="769"/>
-      <c r="AB9" s="769"/>
-      <c r="AC9" s="770"/>
-      <c r="AD9" s="722"/>
+      <c r="R9" s="763"/>
+      <c r="S9" s="763"/>
+      <c r="T9" s="763"/>
+      <c r="U9" s="763"/>
+      <c r="V9" s="763"/>
+      <c r="W9" s="763"/>
+      <c r="X9" s="763"/>
+      <c r="Y9" s="763"/>
+      <c r="Z9" s="763"/>
+      <c r="AA9" s="763"/>
+      <c r="AB9" s="763"/>
+      <c r="AC9" s="764"/>
+      <c r="AD9" s="716"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="722"/>
-      <c r="B10" s="713" t="s">
+      <c r="A10" s="716"/>
+      <c r="B10" s="707" t="s">
         <v>581</v>
       </c>
-      <c r="C10" s="714"/>
-      <c r="D10" s="715"/>
-      <c r="E10" s="731"/>
-      <c r="F10" s="720" t="s">
+      <c r="C10" s="708"/>
+      <c r="D10" s="709"/>
+      <c r="E10" s="725"/>
+      <c r="F10" s="714" t="s">
         <v>579</v>
       </c>
-      <c r="G10" s="720"/>
-      <c r="H10" s="720"/>
-      <c r="I10" s="720"/>
-      <c r="J10" s="720"/>
-      <c r="K10" s="720"/>
-      <c r="L10" s="719"/>
-      <c r="M10" s="719"/>
-      <c r="N10" s="721"/>
-      <c r="O10" s="745"/>
-      <c r="P10" s="722"/>
-      <c r="Q10" s="710" t="s">
+      <c r="G10" s="714"/>
+      <c r="H10" s="714"/>
+      <c r="I10" s="714"/>
+      <c r="J10" s="714"/>
+      <c r="K10" s="714"/>
+      <c r="L10" s="713"/>
+      <c r="M10" s="713"/>
+      <c r="N10" s="715"/>
+      <c r="O10" s="739"/>
+      <c r="P10" s="716"/>
+      <c r="Q10" s="704" t="s">
         <v>581</v>
       </c>
-      <c r="R10" s="711"/>
-      <c r="S10" s="712"/>
-      <c r="T10" s="774"/>
-      <c r="U10" s="723" t="s">
+      <c r="R10" s="705"/>
+      <c r="S10" s="706"/>
+      <c r="T10" s="768"/>
+      <c r="U10" s="717" t="s">
         <v>579</v>
       </c>
-      <c r="V10" s="723"/>
-      <c r="W10" s="723"/>
-      <c r="X10" s="723"/>
-      <c r="Y10" s="723"/>
-      <c r="Z10" s="723"/>
-      <c r="AA10" s="722"/>
-      <c r="AB10" s="722"/>
-      <c r="AC10" s="724"/>
-      <c r="AD10" s="722"/>
+      <c r="V10" s="717"/>
+      <c r="W10" s="717"/>
+      <c r="X10" s="717"/>
+      <c r="Y10" s="717"/>
+      <c r="Z10" s="717"/>
+      <c r="AA10" s="716"/>
+      <c r="AB10" s="716"/>
+      <c r="AC10" s="718"/>
+      <c r="AD10" s="716"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="722"/>
-      <c r="B11" s="710" t="s">
+      <c r="A11" s="716"/>
+      <c r="B11" s="704" t="s">
         <v>582</v>
       </c>
-      <c r="C11" s="711"/>
-      <c r="D11" s="712"/>
-      <c r="E11" s="732"/>
-      <c r="F11" s="733" t="s">
+      <c r="C11" s="705"/>
+      <c r="D11" s="706"/>
+      <c r="E11" s="726"/>
+      <c r="F11" s="727" t="s">
         <v>579</v>
       </c>
-      <c r="G11" s="733"/>
-      <c r="H11" s="733"/>
-      <c r="I11" s="733"/>
-      <c r="J11" s="733"/>
-      <c r="K11" s="733"/>
-      <c r="L11" s="734"/>
-      <c r="M11" s="734"/>
-      <c r="N11" s="735"/>
-      <c r="O11" s="745"/>
-      <c r="P11" s="722"/>
-      <c r="Q11" s="710" t="s">
+      <c r="G11" s="727"/>
+      <c r="H11" s="727"/>
+      <c r="I11" s="727"/>
+      <c r="J11" s="727"/>
+      <c r="K11" s="727"/>
+      <c r="L11" s="728"/>
+      <c r="M11" s="728"/>
+      <c r="N11" s="729"/>
+      <c r="O11" s="739"/>
+      <c r="P11" s="716"/>
+      <c r="Q11" s="704" t="s">
         <v>582</v>
       </c>
-      <c r="R11" s="711"/>
-      <c r="S11" s="712"/>
-      <c r="T11" s="732"/>
-      <c r="U11" s="733" t="s">
+      <c r="R11" s="705"/>
+      <c r="S11" s="706"/>
+      <c r="T11" s="726"/>
+      <c r="U11" s="727" t="s">
         <v>579</v>
       </c>
-      <c r="V11" s="733"/>
-      <c r="W11" s="733"/>
-      <c r="X11" s="733"/>
-      <c r="Y11" s="733"/>
-      <c r="Z11" s="733"/>
-      <c r="AA11" s="734"/>
-      <c r="AB11" s="734"/>
-      <c r="AC11" s="735"/>
-      <c r="AD11" s="722"/>
+      <c r="V11" s="727"/>
+      <c r="W11" s="727"/>
+      <c r="X11" s="727"/>
+      <c r="Y11" s="727"/>
+      <c r="Z11" s="727"/>
+      <c r="AA11" s="728"/>
+      <c r="AB11" s="728"/>
+      <c r="AC11" s="729"/>
+      <c r="AD11" s="716"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="722"/>
-      <c r="B12" s="716" t="s">
+      <c r="A12" s="716"/>
+      <c r="B12" s="710" t="s">
         <v>578</v>
       </c>
-      <c r="C12" s="717"/>
-      <c r="D12" s="718"/>
-      <c r="E12" s="709"/>
-      <c r="F12" s="708"/>
-      <c r="G12" s="708"/>
-      <c r="H12" s="708"/>
-      <c r="I12" s="708"/>
-      <c r="J12" s="708"/>
-      <c r="K12" s="707"/>
-      <c r="L12" s="699"/>
-      <c r="M12" s="699"/>
-      <c r="N12" s="703"/>
-      <c r="O12" s="745"/>
-      <c r="P12" s="722"/>
-      <c r="Q12" s="716" t="s">
+      <c r="C12" s="711"/>
+      <c r="D12" s="712"/>
+      <c r="E12" s="703"/>
+      <c r="F12" s="702"/>
+      <c r="G12" s="702"/>
+      <c r="H12" s="702"/>
+      <c r="I12" s="702"/>
+      <c r="J12" s="702"/>
+      <c r="K12" s="701"/>
+      <c r="L12" s="693"/>
+      <c r="M12" s="693"/>
+      <c r="N12" s="697"/>
+      <c r="O12" s="739"/>
+      <c r="P12" s="716"/>
+      <c r="Q12" s="710" t="s">
         <v>578</v>
       </c>
-      <c r="R12" s="717"/>
-      <c r="S12" s="718"/>
-      <c r="T12" s="709"/>
-      <c r="U12" s="708"/>
-      <c r="V12" s="708"/>
-      <c r="W12" s="708"/>
-      <c r="X12" s="708"/>
-      <c r="Y12" s="708"/>
-      <c r="Z12" s="707"/>
-      <c r="AA12" s="699"/>
-      <c r="AB12" s="699"/>
-      <c r="AC12" s="703"/>
-      <c r="AD12" s="722"/>
+      <c r="R12" s="711"/>
+      <c r="S12" s="712"/>
+      <c r="T12" s="703"/>
+      <c r="U12" s="702"/>
+      <c r="V12" s="702"/>
+      <c r="W12" s="702"/>
+      <c r="X12" s="702"/>
+      <c r="Y12" s="702"/>
+      <c r="Z12" s="701"/>
+      <c r="AA12" s="693"/>
+      <c r="AB12" s="693"/>
+      <c r="AC12" s="697"/>
+      <c r="AD12" s="716"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="722"/>
-      <c r="B13" s="747" t="s">
+      <c r="A13" s="716"/>
+      <c r="B13" s="741" t="s">
         <v>583</v>
       </c>
-      <c r="C13" s="729"/>
-      <c r="D13" s="729"/>
-      <c r="E13" s="729"/>
-      <c r="F13" s="729"/>
-      <c r="G13" s="729"/>
-      <c r="H13" s="729"/>
-      <c r="I13" s="729"/>
-      <c r="J13" s="729"/>
-      <c r="K13" s="729"/>
-      <c r="L13" s="729"/>
-      <c r="M13" s="729"/>
-      <c r="N13" s="730"/>
-      <c r="O13" s="745"/>
-      <c r="P13" s="745"/>
-      <c r="Q13" s="728"/>
-      <c r="R13" s="729"/>
-      <c r="S13" s="729"/>
-      <c r="T13" s="729"/>
-      <c r="U13" s="729"/>
-      <c r="V13" s="729"/>
-      <c r="W13" s="729"/>
-      <c r="X13" s="729"/>
-      <c r="Y13" s="729"/>
-      <c r="Z13" s="729"/>
-      <c r="AA13" s="729"/>
-      <c r="AB13" s="729"/>
-      <c r="AC13" s="730"/>
-      <c r="AD13" s="722"/>
+      <c r="C13" s="723"/>
+      <c r="D13" s="723"/>
+      <c r="E13" s="723"/>
+      <c r="F13" s="723"/>
+      <c r="G13" s="723"/>
+      <c r="H13" s="723"/>
+      <c r="I13" s="723"/>
+      <c r="J13" s="723"/>
+      <c r="K13" s="723"/>
+      <c r="L13" s="723"/>
+      <c r="M13" s="723"/>
+      <c r="N13" s="724"/>
+      <c r="O13" s="739"/>
+      <c r="P13" s="739"/>
+      <c r="Q13" s="722"/>
+      <c r="R13" s="723"/>
+      <c r="S13" s="723"/>
+      <c r="T13" s="723"/>
+      <c r="U13" s="723"/>
+      <c r="V13" s="723"/>
+      <c r="W13" s="723"/>
+      <c r="X13" s="723"/>
+      <c r="Y13" s="723"/>
+      <c r="Z13" s="723"/>
+      <c r="AA13" s="723"/>
+      <c r="AB13" s="723"/>
+      <c r="AC13" s="724"/>
+      <c r="AD13" s="716"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="722"/>
-      <c r="B14" s="745"/>
-      <c r="C14" s="745"/>
-      <c r="D14" s="745"/>
-      <c r="E14" s="745"/>
-      <c r="F14" s="745"/>
-      <c r="G14" s="745"/>
-      <c r="H14" s="745"/>
-      <c r="I14" s="745"/>
-      <c r="J14" s="745"/>
-      <c r="K14" s="745"/>
-      <c r="L14" s="745"/>
-      <c r="M14" s="745"/>
-      <c r="N14" s="745"/>
-      <c r="O14" s="745"/>
-      <c r="P14" s="745"/>
-      <c r="Q14" s="745"/>
-      <c r="R14" s="745"/>
-      <c r="S14" s="745"/>
-      <c r="T14" s="745"/>
-      <c r="U14" s="745"/>
-      <c r="V14" s="745"/>
-      <c r="W14" s="745"/>
-      <c r="X14" s="745"/>
-      <c r="Y14" s="745"/>
-      <c r="Z14" s="745"/>
-      <c r="AA14" s="745"/>
-      <c r="AB14" s="745"/>
-      <c r="AC14" s="745"/>
-      <c r="AD14" s="722"/>
+      <c r="A14" s="716"/>
+      <c r="B14" s="739"/>
+      <c r="C14" s="739"/>
+      <c r="D14" s="739"/>
+      <c r="E14" s="739"/>
+      <c r="F14" s="739"/>
+      <c r="G14" s="739"/>
+      <c r="H14" s="739"/>
+      <c r="I14" s="739"/>
+      <c r="J14" s="739"/>
+      <c r="K14" s="739"/>
+      <c r="L14" s="739"/>
+      <c r="M14" s="739"/>
+      <c r="N14" s="739"/>
+      <c r="O14" s="739"/>
+      <c r="P14" s="739"/>
+      <c r="Q14" s="739"/>
+      <c r="R14" s="739"/>
+      <c r="S14" s="739"/>
+      <c r="T14" s="739"/>
+      <c r="U14" s="739"/>
+      <c r="V14" s="739"/>
+      <c r="W14" s="739"/>
+      <c r="X14" s="739"/>
+      <c r="Y14" s="739"/>
+      <c r="Z14" s="739"/>
+      <c r="AA14" s="739"/>
+      <c r="AB14" s="739"/>
+      <c r="AC14" s="739"/>
+      <c r="AD14" s="716"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="745"/>
-      <c r="B15" s="756" t="s">
+      <c r="A15" s="739"/>
+      <c r="B15" s="750" t="s">
         <v>584</v>
       </c>
-      <c r="C15" s="755"/>
-      <c r="D15" s="755"/>
-      <c r="E15" s="755"/>
-      <c r="F15" s="755"/>
-      <c r="G15" s="755"/>
-      <c r="H15" s="757"/>
-      <c r="I15" s="756" t="s">
+      <c r="C15" s="749"/>
+      <c r="D15" s="749"/>
+      <c r="E15" s="749"/>
+      <c r="F15" s="749"/>
+      <c r="G15" s="749"/>
+      <c r="H15" s="751"/>
+      <c r="I15" s="750" t="s">
         <v>586</v>
       </c>
-      <c r="J15" s="755"/>
-      <c r="K15" s="755"/>
-      <c r="L15" s="755"/>
-      <c r="M15" s="755"/>
-      <c r="N15" s="755"/>
-      <c r="O15" s="755"/>
-      <c r="P15" s="757"/>
-      <c r="Q15" s="761" t="s">
+      <c r="J15" s="749"/>
+      <c r="K15" s="749"/>
+      <c r="L15" s="749"/>
+      <c r="M15" s="749"/>
+      <c r="N15" s="749"/>
+      <c r="O15" s="749"/>
+      <c r="P15" s="751"/>
+      <c r="Q15" s="755" t="s">
         <v>590</v>
       </c>
-      <c r="R15" s="751"/>
-      <c r="S15" s="751"/>
-      <c r="T15" s="751"/>
-      <c r="U15" s="751"/>
-      <c r="V15" s="751"/>
-      <c r="W15" s="751"/>
-      <c r="X15" s="751"/>
-      <c r="Y15" s="762"/>
-      <c r="Z15" s="742" t="s">
+      <c r="R15" s="745"/>
+      <c r="S15" s="745"/>
+      <c r="T15" s="745"/>
+      <c r="U15" s="745"/>
+      <c r="V15" s="745"/>
+      <c r="W15" s="745"/>
+      <c r="X15" s="745"/>
+      <c r="Y15" s="756"/>
+      <c r="Z15" s="736" t="s">
         <v>596</v>
       </c>
-      <c r="AA15" s="744"/>
-      <c r="AB15" s="742" t="s">
+      <c r="AA15" s="738"/>
+      <c r="AB15" s="736" t="s">
         <v>592</v>
       </c>
-      <c r="AC15" s="744"/>
+      <c r="AC15" s="738"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="745"/>
-      <c r="B16" s="728" t="s">
+      <c r="A16" s="739"/>
+      <c r="B16" s="722" t="s">
         <v>585</v>
       </c>
-      <c r="C16" s="729"/>
-      <c r="D16" s="729"/>
-      <c r="E16" s="729"/>
-      <c r="F16" s="729"/>
-      <c r="G16" s="729"/>
-      <c r="H16" s="730"/>
-      <c r="I16" s="728"/>
-      <c r="J16" s="729"/>
-      <c r="K16" s="729"/>
-      <c r="L16" s="729"/>
-      <c r="M16" s="729"/>
-      <c r="N16" s="729"/>
-      <c r="O16" s="729"/>
-      <c r="P16" s="730"/>
-      <c r="Q16" s="752"/>
-      <c r="R16" s="753"/>
-      <c r="S16" s="753"/>
-      <c r="T16" s="753"/>
-      <c r="U16" s="753"/>
-      <c r="V16" s="753"/>
-      <c r="W16" s="753"/>
-      <c r="X16" s="753"/>
-      <c r="Y16" s="754"/>
-      <c r="Z16" s="725">
+      <c r="C16" s="723"/>
+      <c r="D16" s="723"/>
+      <c r="E16" s="723"/>
+      <c r="F16" s="723"/>
+      <c r="G16" s="723"/>
+      <c r="H16" s="724"/>
+      <c r="I16" s="722"/>
+      <c r="J16" s="723"/>
+      <c r="K16" s="723"/>
+      <c r="L16" s="723"/>
+      <c r="M16" s="723"/>
+      <c r="N16" s="723"/>
+      <c r="O16" s="723"/>
+      <c r="P16" s="724"/>
+      <c r="Q16" s="746"/>
+      <c r="R16" s="747"/>
+      <c r="S16" s="747"/>
+      <c r="T16" s="747"/>
+      <c r="U16" s="747"/>
+      <c r="V16" s="747"/>
+      <c r="W16" s="747"/>
+      <c r="X16" s="747"/>
+      <c r="Y16" s="748"/>
+      <c r="Z16" s="719">
         <v>11</v>
       </c>
-      <c r="AA16" s="727"/>
-      <c r="AB16" s="725" t="s">
+      <c r="AA16" s="721"/>
+      <c r="AB16" s="719" t="s">
         <v>593</v>
       </c>
-      <c r="AC16" s="727"/>
-      <c r="AD16" s="745"/>
+      <c r="AC16" s="721"/>
+      <c r="AD16" s="739"/>
     </row>
     <row r="17" spans="1:66">
-      <c r="A17" s="745"/>
-      <c r="B17" s="756" t="s">
+      <c r="A17" s="739"/>
+      <c r="B17" s="750" t="s">
         <v>588</v>
       </c>
-      <c r="C17" s="755"/>
-      <c r="D17" s="755"/>
-      <c r="E17" s="755"/>
-      <c r="F17" s="755"/>
-      <c r="G17" s="755"/>
-      <c r="H17" s="757"/>
-      <c r="I17" s="756" t="s">
+      <c r="C17" s="749"/>
+      <c r="D17" s="749"/>
+      <c r="E17" s="749"/>
+      <c r="F17" s="749"/>
+      <c r="G17" s="749"/>
+      <c r="H17" s="751"/>
+      <c r="I17" s="750" t="s">
         <v>587</v>
       </c>
-      <c r="J17" s="755"/>
-      <c r="K17" s="755"/>
-      <c r="L17" s="755"/>
-      <c r="M17" s="755"/>
-      <c r="N17" s="755"/>
-      <c r="O17" s="755"/>
-      <c r="P17" s="757"/>
-      <c r="Q17" s="761" t="s">
+      <c r="J17" s="749"/>
+      <c r="K17" s="749"/>
+      <c r="L17" s="749"/>
+      <c r="M17" s="749"/>
+      <c r="N17" s="749"/>
+      <c r="O17" s="749"/>
+      <c r="P17" s="751"/>
+      <c r="Q17" s="755" t="s">
         <v>591</v>
       </c>
-      <c r="R17" s="751"/>
-      <c r="S17" s="751"/>
-      <c r="T17" s="751"/>
-      <c r="U17" s="751"/>
-      <c r="V17" s="751"/>
-      <c r="W17" s="751"/>
-      <c r="X17" s="751"/>
-      <c r="Y17" s="762"/>
-      <c r="Z17" s="742" t="s">
+      <c r="R17" s="745"/>
+      <c r="S17" s="745"/>
+      <c r="T17" s="745"/>
+      <c r="U17" s="745"/>
+      <c r="V17" s="745"/>
+      <c r="W17" s="745"/>
+      <c r="X17" s="745"/>
+      <c r="Y17" s="756"/>
+      <c r="Z17" s="736" t="s">
         <v>597</v>
       </c>
-      <c r="AA17" s="743"/>
-      <c r="AB17" s="744"/>
-      <c r="AC17" s="763" t="s">
+      <c r="AA17" s="737"/>
+      <c r="AB17" s="738"/>
+      <c r="AC17" s="757" t="s">
         <v>594</v>
       </c>
-      <c r="AD17" s="745"/>
+      <c r="AD17" s="739"/>
     </row>
     <row r="18" spans="1:66">
-      <c r="A18" s="745"/>
-      <c r="B18" s="725" t="s">
+      <c r="A18" s="739"/>
+      <c r="B18" s="719" t="s">
         <v>598</v>
       </c>
-      <c r="C18" s="726"/>
-      <c r="D18" s="726"/>
-      <c r="E18" s="726"/>
-      <c r="F18" s="726"/>
-      <c r="G18" s="726"/>
-      <c r="H18" s="727"/>
-      <c r="I18" s="728" t="s">
+      <c r="C18" s="720"/>
+      <c r="D18" s="720"/>
+      <c r="E18" s="720"/>
+      <c r="F18" s="720"/>
+      <c r="G18" s="720"/>
+      <c r="H18" s="721"/>
+      <c r="I18" s="722" t="s">
         <v>589</v>
       </c>
-      <c r="J18" s="729"/>
-      <c r="K18" s="729"/>
-      <c r="L18" s="729"/>
-      <c r="M18" s="729"/>
-      <c r="N18" s="729"/>
-      <c r="O18" s="729"/>
-      <c r="P18" s="730"/>
-      <c r="Q18" s="752"/>
-      <c r="R18" s="753"/>
-      <c r="S18" s="753"/>
-      <c r="T18" s="753"/>
-      <c r="U18" s="753"/>
-      <c r="V18" s="753"/>
-      <c r="W18" s="753"/>
-      <c r="X18" s="753"/>
-      <c r="Y18" s="754"/>
-      <c r="Z18" s="725"/>
-      <c r="AA18" s="726"/>
-      <c r="AB18" s="727"/>
-      <c r="AC18" s="758" t="s">
+      <c r="J18" s="723"/>
+      <c r="K18" s="723"/>
+      <c r="L18" s="723"/>
+      <c r="M18" s="723"/>
+      <c r="N18" s="723"/>
+      <c r="O18" s="723"/>
+      <c r="P18" s="724"/>
+      <c r="Q18" s="746"/>
+      <c r="R18" s="747"/>
+      <c r="S18" s="747"/>
+      <c r="T18" s="747"/>
+      <c r="U18" s="747"/>
+      <c r="V18" s="747"/>
+      <c r="W18" s="747"/>
+      <c r="X18" s="747"/>
+      <c r="Y18" s="748"/>
+      <c r="Z18" s="719"/>
+      <c r="AA18" s="720"/>
+      <c r="AB18" s="721"/>
+      <c r="AC18" s="752" t="s">
         <v>595</v>
       </c>
-      <c r="AD18" s="745"/>
+      <c r="AD18" s="739"/>
     </row>
     <row r="19" spans="1:66">
-      <c r="A19" s="722"/>
-      <c r="B19" s="743"/>
-      <c r="C19" s="743"/>
-      <c r="D19" s="743"/>
-      <c r="E19" s="743"/>
-      <c r="F19" s="743"/>
-      <c r="G19" s="743"/>
-      <c r="H19" s="743"/>
-      <c r="I19" s="743"/>
-      <c r="J19" s="743"/>
-      <c r="K19" s="743"/>
-      <c r="L19" s="743"/>
-      <c r="M19" s="743"/>
-      <c r="N19" s="743"/>
-      <c r="O19" s="743"/>
-      <c r="P19" s="743"/>
-      <c r="Q19" s="743"/>
-      <c r="R19" s="743"/>
-      <c r="S19" s="743"/>
-      <c r="T19" s="743"/>
-      <c r="U19" s="743"/>
-      <c r="V19" s="743"/>
-      <c r="W19" s="743"/>
-      <c r="X19" s="743"/>
-      <c r="Y19" s="743"/>
-      <c r="Z19" s="743"/>
-      <c r="AA19" s="743"/>
-      <c r="AB19" s="743"/>
-      <c r="AC19" s="743"/>
-      <c r="AD19" s="722"/>
+      <c r="A19" s="716"/>
+      <c r="B19" s="737"/>
+      <c r="C19" s="737"/>
+      <c r="D19" s="737"/>
+      <c r="E19" s="737"/>
+      <c r="F19" s="737"/>
+      <c r="G19" s="737"/>
+      <c r="H19" s="737"/>
+      <c r="I19" s="737"/>
+      <c r="J19" s="737"/>
+      <c r="K19" s="737"/>
+      <c r="L19" s="737"/>
+      <c r="M19" s="737"/>
+      <c r="N19" s="737"/>
+      <c r="O19" s="737"/>
+      <c r="P19" s="737"/>
+      <c r="Q19" s="737"/>
+      <c r="R19" s="737"/>
+      <c r="S19" s="737"/>
+      <c r="T19" s="737"/>
+      <c r="U19" s="737"/>
+      <c r="V19" s="737"/>
+      <c r="W19" s="737"/>
+      <c r="X19" s="737"/>
+      <c r="Y19" s="737"/>
+      <c r="Z19" s="737"/>
+      <c r="AA19" s="737"/>
+      <c r="AB19" s="737"/>
+      <c r="AC19" s="737"/>
+      <c r="AD19" s="716"/>
     </row>
     <row r="20" spans="1:66">
-      <c r="A20" s="722"/>
-      <c r="B20" s="742" t="s">
+      <c r="A20" s="716"/>
+      <c r="B20" s="736" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="744"/>
-      <c r="D20" s="742" t="s">
+      <c r="C20" s="738"/>
+      <c r="D20" s="736" t="s">
         <v>428</v>
       </c>
-      <c r="E20" s="744"/>
-      <c r="F20" s="742" t="s">
+      <c r="E20" s="738"/>
+      <c r="F20" s="736" t="s">
         <v>606</v>
       </c>
-      <c r="G20" s="743"/>
-      <c r="H20" s="743"/>
-      <c r="I20" s="743"/>
-      <c r="J20" s="743"/>
-      <c r="K20" s="743"/>
-      <c r="L20" s="743"/>
-      <c r="M20" s="743"/>
-      <c r="N20" s="743"/>
-      <c r="O20" s="743"/>
-      <c r="P20" s="743"/>
-      <c r="Q20" s="743"/>
-      <c r="R20" s="743"/>
-      <c r="S20" s="743"/>
-      <c r="T20" s="743"/>
-      <c r="U20" s="744"/>
-      <c r="V20" s="742" t="s">
+      <c r="G20" s="737"/>
+      <c r="H20" s="737"/>
+      <c r="I20" s="737"/>
+      <c r="J20" s="737"/>
+      <c r="K20" s="737"/>
+      <c r="L20" s="737"/>
+      <c r="M20" s="737"/>
+      <c r="N20" s="737"/>
+      <c r="O20" s="737"/>
+      <c r="P20" s="737"/>
+      <c r="Q20" s="737"/>
+      <c r="R20" s="737"/>
+      <c r="S20" s="737"/>
+      <c r="T20" s="737"/>
+      <c r="U20" s="738"/>
+      <c r="V20" s="736" t="s">
         <v>604</v>
       </c>
-      <c r="W20" s="743"/>
-      <c r="X20" s="743"/>
-      <c r="Y20" s="744"/>
-      <c r="Z20" s="742" t="s">
+      <c r="W20" s="737"/>
+      <c r="X20" s="737"/>
+      <c r="Y20" s="738"/>
+      <c r="Z20" s="736" t="s">
         <v>605</v>
       </c>
-      <c r="AA20" s="743"/>
-      <c r="AB20" s="743"/>
-      <c r="AC20" s="744"/>
-      <c r="AD20" s="722"/>
-      <c r="AF20" s="742"/>
-      <c r="AG20" s="744"/>
-      <c r="AH20" s="742"/>
-      <c r="AI20" s="744"/>
-      <c r="AJ20" s="742"/>
-      <c r="AK20" s="743"/>
-      <c r="AL20" s="743"/>
-      <c r="AM20" s="743"/>
-      <c r="AN20" s="743"/>
-      <c r="AO20" s="743"/>
-      <c r="AP20" s="743"/>
-      <c r="AQ20" s="743"/>
-      <c r="AR20" s="743"/>
-      <c r="AS20" s="743"/>
-      <c r="AT20" s="743"/>
-      <c r="AU20" s="743"/>
-      <c r="AV20" s="743"/>
-      <c r="AW20" s="743"/>
-      <c r="AX20" s="743"/>
-      <c r="AY20" s="744"/>
-      <c r="AZ20" s="742"/>
-      <c r="BA20" s="743"/>
-      <c r="BB20" s="743"/>
-      <c r="BC20" s="744"/>
-      <c r="BD20" s="742"/>
-      <c r="BE20" s="743"/>
-      <c r="BF20" s="743"/>
-      <c r="BG20" s="744"/>
+      <c r="AA20" s="737"/>
+      <c r="AB20" s="737"/>
+      <c r="AC20" s="738"/>
+      <c r="AD20" s="716"/>
+      <c r="AF20" s="736"/>
+      <c r="AG20" s="738"/>
+      <c r="AH20" s="736"/>
+      <c r="AI20" s="738"/>
+      <c r="AJ20" s="736"/>
+      <c r="AK20" s="737"/>
+      <c r="AL20" s="737"/>
+      <c r="AM20" s="737"/>
+      <c r="AN20" s="737"/>
+      <c r="AO20" s="737"/>
+      <c r="AP20" s="737"/>
+      <c r="AQ20" s="737"/>
+      <c r="AR20" s="737"/>
+      <c r="AS20" s="737"/>
+      <c r="AT20" s="737"/>
+      <c r="AU20" s="737"/>
+      <c r="AV20" s="737"/>
+      <c r="AW20" s="737"/>
+      <c r="AX20" s="737"/>
+      <c r="AY20" s="738"/>
+      <c r="AZ20" s="736"/>
+      <c r="BA20" s="737"/>
+      <c r="BB20" s="737"/>
+      <c r="BC20" s="738"/>
+      <c r="BD20" s="736"/>
+      <c r="BE20" s="737"/>
+      <c r="BF20" s="737"/>
+      <c r="BG20" s="738"/>
       <c r="BJ20" s="1" t="s">
         <v>11</v>
       </c>
@@ -14472,1568 +14488,1568 @@
       </c>
     </row>
     <row r="21" spans="1:66">
-      <c r="A21" s="722"/>
-      <c r="B21" s="775"/>
-      <c r="C21" s="775"/>
-      <c r="D21" s="775"/>
-      <c r="E21" s="775"/>
-      <c r="F21" s="775"/>
-      <c r="G21" s="775"/>
-      <c r="H21" s="775"/>
-      <c r="I21" s="775"/>
-      <c r="J21" s="775"/>
-      <c r="K21" s="775"/>
-      <c r="L21" s="775"/>
-      <c r="M21" s="775"/>
-      <c r="N21" s="775"/>
-      <c r="O21" s="775"/>
-      <c r="P21" s="775"/>
-      <c r="Q21" s="775"/>
-      <c r="R21" s="775"/>
-      <c r="S21" s="775"/>
-      <c r="T21" s="775"/>
-      <c r="U21" s="775"/>
-      <c r="V21" s="775"/>
-      <c r="W21" s="775"/>
-      <c r="X21" s="775"/>
-      <c r="Y21" s="775"/>
-      <c r="Z21" s="775"/>
-      <c r="AA21" s="775"/>
-      <c r="AB21" s="775"/>
-      <c r="AC21" s="775"/>
-      <c r="AD21" s="722"/>
-      <c r="AF21" s="775"/>
-      <c r="AG21" s="775"/>
-      <c r="AH21" s="775"/>
-      <c r="AI21" s="775"/>
-      <c r="AJ21" s="775"/>
-      <c r="AK21" s="775"/>
-      <c r="AL21" s="775"/>
-      <c r="AM21" s="775"/>
-      <c r="AN21" s="775"/>
-      <c r="AO21" s="775"/>
-      <c r="AP21" s="775"/>
-      <c r="AQ21" s="775"/>
-      <c r="AR21" s="775"/>
-      <c r="AS21" s="775"/>
-      <c r="AT21" s="775"/>
-      <c r="AU21" s="775"/>
-      <c r="AV21" s="775"/>
-      <c r="AW21" s="775"/>
-      <c r="AX21" s="775"/>
-      <c r="AY21" s="775"/>
-      <c r="AZ21" s="775"/>
-      <c r="BA21" s="775"/>
-      <c r="BB21" s="775"/>
-      <c r="BC21" s="775"/>
-      <c r="BD21" s="775"/>
-      <c r="BE21" s="775"/>
-      <c r="BF21" s="775"/>
-      <c r="BG21" s="775"/>
+      <c r="A21" s="716"/>
+      <c r="B21" s="769"/>
+      <c r="C21" s="769"/>
+      <c r="D21" s="769"/>
+      <c r="E21" s="769"/>
+      <c r="F21" s="769"/>
+      <c r="G21" s="769"/>
+      <c r="H21" s="769"/>
+      <c r="I21" s="769"/>
+      <c r="J21" s="769"/>
+      <c r="K21" s="769"/>
+      <c r="L21" s="769"/>
+      <c r="M21" s="769"/>
+      <c r="N21" s="769"/>
+      <c r="O21" s="769"/>
+      <c r="P21" s="769"/>
+      <c r="Q21" s="769"/>
+      <c r="R21" s="769"/>
+      <c r="S21" s="769"/>
+      <c r="T21" s="769"/>
+      <c r="U21" s="769"/>
+      <c r="V21" s="769"/>
+      <c r="W21" s="769"/>
+      <c r="X21" s="769"/>
+      <c r="Y21" s="769"/>
+      <c r="Z21" s="769"/>
+      <c r="AA21" s="769"/>
+      <c r="AB21" s="769"/>
+      <c r="AC21" s="769"/>
+      <c r="AD21" s="716"/>
+      <c r="AF21" s="769"/>
+      <c r="AG21" s="769"/>
+      <c r="AH21" s="769"/>
+      <c r="AI21" s="769"/>
+      <c r="AJ21" s="769"/>
+      <c r="AK21" s="769"/>
+      <c r="AL21" s="769"/>
+      <c r="AM21" s="769"/>
+      <c r="AN21" s="769"/>
+      <c r="AO21" s="769"/>
+      <c r="AP21" s="769"/>
+      <c r="AQ21" s="769"/>
+      <c r="AR21" s="769"/>
+      <c r="AS21" s="769"/>
+      <c r="AT21" s="769"/>
+      <c r="AU21" s="769"/>
+      <c r="AV21" s="769"/>
+      <c r="AW21" s="769"/>
+      <c r="AX21" s="769"/>
+      <c r="AY21" s="769"/>
+      <c r="AZ21" s="769"/>
+      <c r="BA21" s="769"/>
+      <c r="BB21" s="769"/>
+      <c r="BC21" s="769"/>
+      <c r="BD21" s="769"/>
+      <c r="BE21" s="769"/>
+      <c r="BF21" s="769"/>
+      <c r="BG21" s="769"/>
     </row>
     <row r="22" spans="1:66">
-      <c r="A22" s="722"/>
-      <c r="B22" s="760"/>
-      <c r="C22" s="760"/>
-      <c r="D22" s="760"/>
-      <c r="E22" s="760"/>
-      <c r="F22" s="760"/>
-      <c r="G22" s="760"/>
-      <c r="H22" s="760"/>
-      <c r="I22" s="760"/>
-      <c r="J22" s="760"/>
-      <c r="K22" s="760"/>
-      <c r="L22" s="760"/>
-      <c r="M22" s="760"/>
-      <c r="N22" s="760"/>
-      <c r="O22" s="760"/>
-      <c r="P22" s="760"/>
-      <c r="Q22" s="760"/>
-      <c r="R22" s="760"/>
-      <c r="S22" s="760"/>
-      <c r="T22" s="760"/>
-      <c r="U22" s="760"/>
-      <c r="V22" s="760"/>
-      <c r="W22" s="760"/>
-      <c r="X22" s="760"/>
-      <c r="Y22" s="760"/>
-      <c r="Z22" s="760"/>
-      <c r="AA22" s="760"/>
-      <c r="AB22" s="760"/>
-      <c r="AC22" s="760"/>
-      <c r="AD22" s="722"/>
-      <c r="AF22" s="760"/>
-      <c r="AG22" s="760"/>
-      <c r="AH22" s="760"/>
-      <c r="AI22" s="760"/>
-      <c r="AJ22" s="760"/>
-      <c r="AK22" s="760"/>
-      <c r="AL22" s="760"/>
-      <c r="AM22" s="760"/>
-      <c r="AN22" s="760"/>
-      <c r="AO22" s="760"/>
-      <c r="AP22" s="760"/>
-      <c r="AQ22" s="760"/>
-      <c r="AR22" s="760"/>
-      <c r="AS22" s="760"/>
-      <c r="AT22" s="760"/>
-      <c r="AU22" s="760"/>
-      <c r="AV22" s="760"/>
-      <c r="AW22" s="760"/>
-      <c r="AX22" s="760"/>
-      <c r="AY22" s="760"/>
-      <c r="AZ22" s="760"/>
-      <c r="BA22" s="760"/>
-      <c r="BB22" s="760"/>
-      <c r="BC22" s="760"/>
-      <c r="BD22" s="760"/>
-      <c r="BE22" s="760"/>
-      <c r="BF22" s="760"/>
-      <c r="BG22" s="760"/>
+      <c r="A22" s="716"/>
+      <c r="B22" s="754"/>
+      <c r="C22" s="754"/>
+      <c r="D22" s="754"/>
+      <c r="E22" s="754"/>
+      <c r="F22" s="754"/>
+      <c r="G22" s="754"/>
+      <c r="H22" s="754"/>
+      <c r="I22" s="754"/>
+      <c r="J22" s="754"/>
+      <c r="K22" s="754"/>
+      <c r="L22" s="754"/>
+      <c r="M22" s="754"/>
+      <c r="N22" s="754"/>
+      <c r="O22" s="754"/>
+      <c r="P22" s="754"/>
+      <c r="Q22" s="754"/>
+      <c r="R22" s="754"/>
+      <c r="S22" s="754"/>
+      <c r="T22" s="754"/>
+      <c r="U22" s="754"/>
+      <c r="V22" s="754"/>
+      <c r="W22" s="754"/>
+      <c r="X22" s="754"/>
+      <c r="Y22" s="754"/>
+      <c r="Z22" s="754"/>
+      <c r="AA22" s="754"/>
+      <c r="AB22" s="754"/>
+      <c r="AC22" s="754"/>
+      <c r="AD22" s="716"/>
+      <c r="AF22" s="754"/>
+      <c r="AG22" s="754"/>
+      <c r="AH22" s="754"/>
+      <c r="AI22" s="754"/>
+      <c r="AJ22" s="754"/>
+      <c r="AK22" s="754"/>
+      <c r="AL22" s="754"/>
+      <c r="AM22" s="754"/>
+      <c r="AN22" s="754"/>
+      <c r="AO22" s="754"/>
+      <c r="AP22" s="754"/>
+      <c r="AQ22" s="754"/>
+      <c r="AR22" s="754"/>
+      <c r="AS22" s="754"/>
+      <c r="AT22" s="754"/>
+      <c r="AU22" s="754"/>
+      <c r="AV22" s="754"/>
+      <c r="AW22" s="754"/>
+      <c r="AX22" s="754"/>
+      <c r="AY22" s="754"/>
+      <c r="AZ22" s="754"/>
+      <c r="BA22" s="754"/>
+      <c r="BB22" s="754"/>
+      <c r="BC22" s="754"/>
+      <c r="BD22" s="754"/>
+      <c r="BE22" s="754"/>
+      <c r="BF22" s="754"/>
+      <c r="BG22" s="754"/>
     </row>
     <row r="23" spans="1:66">
-      <c r="A23" s="722"/>
-      <c r="B23" s="760"/>
-      <c r="C23" s="760"/>
-      <c r="D23" s="760"/>
-      <c r="E23" s="760"/>
-      <c r="F23" s="760"/>
-      <c r="G23" s="760"/>
-      <c r="H23" s="760"/>
-      <c r="I23" s="760"/>
-      <c r="J23" s="760"/>
-      <c r="K23" s="760"/>
-      <c r="L23" s="760"/>
-      <c r="M23" s="760"/>
-      <c r="N23" s="760"/>
-      <c r="O23" s="760"/>
-      <c r="P23" s="760"/>
-      <c r="Q23" s="760"/>
-      <c r="R23" s="760"/>
-      <c r="S23" s="760"/>
-      <c r="T23" s="760"/>
-      <c r="U23" s="760"/>
-      <c r="V23" s="760"/>
-      <c r="W23" s="760"/>
-      <c r="X23" s="760"/>
-      <c r="Y23" s="760"/>
-      <c r="Z23" s="760"/>
-      <c r="AA23" s="760"/>
-      <c r="AB23" s="760"/>
-      <c r="AC23" s="760"/>
-      <c r="AD23" s="722"/>
-      <c r="AF23" s="760"/>
-      <c r="AG23" s="760"/>
-      <c r="AH23" s="760"/>
-      <c r="AI23" s="760"/>
-      <c r="AJ23" s="760"/>
-      <c r="AK23" s="760"/>
-      <c r="AL23" s="760"/>
-      <c r="AM23" s="760"/>
-      <c r="AN23" s="760"/>
-      <c r="AO23" s="760"/>
-      <c r="AP23" s="760"/>
-      <c r="AQ23" s="760"/>
-      <c r="AR23" s="760"/>
-      <c r="AS23" s="760"/>
-      <c r="AT23" s="760"/>
-      <c r="AU23" s="760"/>
-      <c r="AV23" s="760"/>
-      <c r="AW23" s="760"/>
-      <c r="AX23" s="760"/>
-      <c r="AY23" s="760"/>
-      <c r="AZ23" s="760"/>
-      <c r="BA23" s="760"/>
-      <c r="BB23" s="760"/>
-      <c r="BC23" s="760"/>
-      <c r="BD23" s="760"/>
-      <c r="BE23" s="760"/>
-      <c r="BF23" s="760"/>
-      <c r="BG23" s="760"/>
+      <c r="A23" s="716"/>
+      <c r="B23" s="754"/>
+      <c r="C23" s="754"/>
+      <c r="D23" s="754"/>
+      <c r="E23" s="754"/>
+      <c r="F23" s="754"/>
+      <c r="G23" s="754"/>
+      <c r="H23" s="754"/>
+      <c r="I23" s="754"/>
+      <c r="J23" s="754"/>
+      <c r="K23" s="754"/>
+      <c r="L23" s="754"/>
+      <c r="M23" s="754"/>
+      <c r="N23" s="754"/>
+      <c r="O23" s="754"/>
+      <c r="P23" s="754"/>
+      <c r="Q23" s="754"/>
+      <c r="R23" s="754"/>
+      <c r="S23" s="754"/>
+      <c r="T23" s="754"/>
+      <c r="U23" s="754"/>
+      <c r="V23" s="754"/>
+      <c r="W23" s="754"/>
+      <c r="X23" s="754"/>
+      <c r="Y23" s="754"/>
+      <c r="Z23" s="754"/>
+      <c r="AA23" s="754"/>
+      <c r="AB23" s="754"/>
+      <c r="AC23" s="754"/>
+      <c r="AD23" s="716"/>
+      <c r="AF23" s="754"/>
+      <c r="AG23" s="754"/>
+      <c r="AH23" s="754"/>
+      <c r="AI23" s="754"/>
+      <c r="AJ23" s="754"/>
+      <c r="AK23" s="754"/>
+      <c r="AL23" s="754"/>
+      <c r="AM23" s="754"/>
+      <c r="AN23" s="754"/>
+      <c r="AO23" s="754"/>
+      <c r="AP23" s="754"/>
+      <c r="AQ23" s="754"/>
+      <c r="AR23" s="754"/>
+      <c r="AS23" s="754"/>
+      <c r="AT23" s="754"/>
+      <c r="AU23" s="754"/>
+      <c r="AV23" s="754"/>
+      <c r="AW23" s="754"/>
+      <c r="AX23" s="754"/>
+      <c r="AY23" s="754"/>
+      <c r="AZ23" s="754"/>
+      <c r="BA23" s="754"/>
+      <c r="BB23" s="754"/>
+      <c r="BC23" s="754"/>
+      <c r="BD23" s="754"/>
+      <c r="BE23" s="754"/>
+      <c r="BF23" s="754"/>
+      <c r="BG23" s="754"/>
     </row>
     <row r="24" spans="1:66">
-      <c r="A24" s="722"/>
-      <c r="B24" s="760"/>
-      <c r="C24" s="760"/>
-      <c r="D24" s="760"/>
-      <c r="E24" s="760"/>
-      <c r="F24" s="760"/>
-      <c r="G24" s="760"/>
-      <c r="H24" s="760"/>
-      <c r="I24" s="760"/>
-      <c r="J24" s="760"/>
-      <c r="K24" s="760"/>
-      <c r="L24" s="760"/>
-      <c r="M24" s="760"/>
-      <c r="N24" s="760"/>
-      <c r="O24" s="760"/>
-      <c r="P24" s="760"/>
-      <c r="Q24" s="760"/>
-      <c r="R24" s="760"/>
-      <c r="S24" s="760"/>
-      <c r="T24" s="760"/>
-      <c r="U24" s="760"/>
-      <c r="V24" s="760"/>
-      <c r="W24" s="760"/>
-      <c r="X24" s="760"/>
-      <c r="Y24" s="760"/>
-      <c r="Z24" s="760"/>
-      <c r="AA24" s="760"/>
-      <c r="AB24" s="760"/>
-      <c r="AC24" s="760"/>
-      <c r="AD24" s="722"/>
-      <c r="AF24" s="760"/>
-      <c r="AG24" s="760"/>
-      <c r="AH24" s="760"/>
-      <c r="AI24" s="760"/>
-      <c r="AJ24" s="760"/>
-      <c r="AK24" s="760"/>
-      <c r="AL24" s="760"/>
-      <c r="AM24" s="760"/>
-      <c r="AN24" s="760"/>
-      <c r="AO24" s="760"/>
-      <c r="AP24" s="760"/>
-      <c r="AQ24" s="760"/>
-      <c r="AR24" s="760"/>
-      <c r="AS24" s="760"/>
-      <c r="AT24" s="760"/>
-      <c r="AU24" s="760"/>
-      <c r="AV24" s="760"/>
-      <c r="AW24" s="760"/>
-      <c r="AX24" s="760"/>
-      <c r="AY24" s="760"/>
-      <c r="AZ24" s="760"/>
-      <c r="BA24" s="760"/>
-      <c r="BB24" s="760"/>
-      <c r="BC24" s="760"/>
-      <c r="BD24" s="760"/>
-      <c r="BE24" s="760"/>
-      <c r="BF24" s="760"/>
-      <c r="BG24" s="760"/>
+      <c r="A24" s="716"/>
+      <c r="B24" s="754"/>
+      <c r="C24" s="754"/>
+      <c r="D24" s="754"/>
+      <c r="E24" s="754"/>
+      <c r="F24" s="754"/>
+      <c r="G24" s="754"/>
+      <c r="H24" s="754"/>
+      <c r="I24" s="754"/>
+      <c r="J24" s="754"/>
+      <c r="K24" s="754"/>
+      <c r="L24" s="754"/>
+      <c r="M24" s="754"/>
+      <c r="N24" s="754"/>
+      <c r="O24" s="754"/>
+      <c r="P24" s="754"/>
+      <c r="Q24" s="754"/>
+      <c r="R24" s="754"/>
+      <c r="S24" s="754"/>
+      <c r="T24" s="754"/>
+      <c r="U24" s="754"/>
+      <c r="V24" s="754"/>
+      <c r="W24" s="754"/>
+      <c r="X24" s="754"/>
+      <c r="Y24" s="754"/>
+      <c r="Z24" s="754"/>
+      <c r="AA24" s="754"/>
+      <c r="AB24" s="754"/>
+      <c r="AC24" s="754"/>
+      <c r="AD24" s="716"/>
+      <c r="AF24" s="754"/>
+      <c r="AG24" s="754"/>
+      <c r="AH24" s="754"/>
+      <c r="AI24" s="754"/>
+      <c r="AJ24" s="754"/>
+      <c r="AK24" s="754"/>
+      <c r="AL24" s="754"/>
+      <c r="AM24" s="754"/>
+      <c r="AN24" s="754"/>
+      <c r="AO24" s="754"/>
+      <c r="AP24" s="754"/>
+      <c r="AQ24" s="754"/>
+      <c r="AR24" s="754"/>
+      <c r="AS24" s="754"/>
+      <c r="AT24" s="754"/>
+      <c r="AU24" s="754"/>
+      <c r="AV24" s="754"/>
+      <c r="AW24" s="754"/>
+      <c r="AX24" s="754"/>
+      <c r="AY24" s="754"/>
+      <c r="AZ24" s="754"/>
+      <c r="BA24" s="754"/>
+      <c r="BB24" s="754"/>
+      <c r="BC24" s="754"/>
+      <c r="BD24" s="754"/>
+      <c r="BE24" s="754"/>
+      <c r="BF24" s="754"/>
+      <c r="BG24" s="754"/>
     </row>
     <row r="25" spans="1:66">
-      <c r="A25" s="722"/>
-      <c r="B25" s="760"/>
-      <c r="C25" s="760"/>
-      <c r="D25" s="760"/>
-      <c r="E25" s="760"/>
-      <c r="F25" s="760"/>
-      <c r="G25" s="760"/>
-      <c r="H25" s="760"/>
-      <c r="I25" s="760"/>
-      <c r="J25" s="760"/>
-      <c r="K25" s="760"/>
-      <c r="L25" s="760"/>
-      <c r="M25" s="760"/>
-      <c r="N25" s="760"/>
-      <c r="O25" s="760"/>
-      <c r="P25" s="760"/>
-      <c r="Q25" s="760"/>
-      <c r="R25" s="760"/>
-      <c r="S25" s="760"/>
-      <c r="T25" s="760"/>
-      <c r="U25" s="760"/>
-      <c r="V25" s="760"/>
-      <c r="W25" s="760"/>
-      <c r="X25" s="760"/>
-      <c r="Y25" s="760"/>
-      <c r="Z25" s="760"/>
-      <c r="AA25" s="760"/>
-      <c r="AB25" s="760"/>
-      <c r="AC25" s="760"/>
-      <c r="AD25" s="722"/>
-      <c r="AF25" s="760"/>
-      <c r="AG25" s="760"/>
-      <c r="AH25" s="760"/>
-      <c r="AI25" s="760"/>
-      <c r="AJ25" s="760"/>
-      <c r="AK25" s="760"/>
-      <c r="AL25" s="760"/>
-      <c r="AM25" s="760"/>
-      <c r="AN25" s="760"/>
-      <c r="AO25" s="760"/>
-      <c r="AP25" s="760"/>
-      <c r="AQ25" s="760"/>
-      <c r="AR25" s="760"/>
-      <c r="AS25" s="760"/>
-      <c r="AT25" s="760"/>
-      <c r="AU25" s="760"/>
-      <c r="AV25" s="760"/>
-      <c r="AW25" s="760"/>
-      <c r="AX25" s="760"/>
-      <c r="AY25" s="760"/>
-      <c r="AZ25" s="760"/>
-      <c r="BA25" s="760"/>
-      <c r="BB25" s="760"/>
-      <c r="BC25" s="760"/>
-      <c r="BD25" s="760"/>
-      <c r="BE25" s="760"/>
-      <c r="BF25" s="760"/>
-      <c r="BG25" s="760"/>
+      <c r="A25" s="716"/>
+      <c r="B25" s="754"/>
+      <c r="C25" s="754"/>
+      <c r="D25" s="754"/>
+      <c r="E25" s="754"/>
+      <c r="F25" s="754"/>
+      <c r="G25" s="754"/>
+      <c r="H25" s="754"/>
+      <c r="I25" s="754"/>
+      <c r="J25" s="754"/>
+      <c r="K25" s="754"/>
+      <c r="L25" s="754"/>
+      <c r="M25" s="754"/>
+      <c r="N25" s="754"/>
+      <c r="O25" s="754"/>
+      <c r="P25" s="754"/>
+      <c r="Q25" s="754"/>
+      <c r="R25" s="754"/>
+      <c r="S25" s="754"/>
+      <c r="T25" s="754"/>
+      <c r="U25" s="754"/>
+      <c r="V25" s="754"/>
+      <c r="W25" s="754"/>
+      <c r="X25" s="754"/>
+      <c r="Y25" s="754"/>
+      <c r="Z25" s="754"/>
+      <c r="AA25" s="754"/>
+      <c r="AB25" s="754"/>
+      <c r="AC25" s="754"/>
+      <c r="AD25" s="716"/>
+      <c r="AF25" s="754"/>
+      <c r="AG25" s="754"/>
+      <c r="AH25" s="754"/>
+      <c r="AI25" s="754"/>
+      <c r="AJ25" s="754"/>
+      <c r="AK25" s="754"/>
+      <c r="AL25" s="754"/>
+      <c r="AM25" s="754"/>
+      <c r="AN25" s="754"/>
+      <c r="AO25" s="754"/>
+      <c r="AP25" s="754"/>
+      <c r="AQ25" s="754"/>
+      <c r="AR25" s="754"/>
+      <c r="AS25" s="754"/>
+      <c r="AT25" s="754"/>
+      <c r="AU25" s="754"/>
+      <c r="AV25" s="754"/>
+      <c r="AW25" s="754"/>
+      <c r="AX25" s="754"/>
+      <c r="AY25" s="754"/>
+      <c r="AZ25" s="754"/>
+      <c r="BA25" s="754"/>
+      <c r="BB25" s="754"/>
+      <c r="BC25" s="754"/>
+      <c r="BD25" s="754"/>
+      <c r="BE25" s="754"/>
+      <c r="BF25" s="754"/>
+      <c r="BG25" s="754"/>
     </row>
     <row r="26" spans="1:66">
-      <c r="A26" s="722"/>
-      <c r="B26" s="760"/>
-      <c r="C26" s="760"/>
-      <c r="D26" s="760"/>
-      <c r="E26" s="760"/>
-      <c r="F26" s="760"/>
-      <c r="G26" s="760"/>
-      <c r="H26" s="760"/>
-      <c r="I26" s="760"/>
-      <c r="J26" s="760"/>
-      <c r="K26" s="760"/>
-      <c r="L26" s="760"/>
-      <c r="M26" s="760"/>
-      <c r="N26" s="760"/>
-      <c r="O26" s="760"/>
-      <c r="P26" s="760"/>
-      <c r="Q26" s="760"/>
-      <c r="R26" s="760"/>
-      <c r="S26" s="760"/>
-      <c r="T26" s="760"/>
-      <c r="U26" s="760"/>
-      <c r="V26" s="760"/>
-      <c r="W26" s="760"/>
-      <c r="X26" s="760"/>
-      <c r="Y26" s="760"/>
-      <c r="Z26" s="760"/>
-      <c r="AA26" s="760"/>
-      <c r="AB26" s="760"/>
-      <c r="AC26" s="760"/>
-      <c r="AD26" s="722"/>
-      <c r="AF26" s="760"/>
-      <c r="AG26" s="760"/>
-      <c r="AH26" s="760"/>
-      <c r="AI26" s="760"/>
-      <c r="AJ26" s="760"/>
-      <c r="AK26" s="760"/>
-      <c r="AL26" s="760"/>
-      <c r="AM26" s="760"/>
-      <c r="AN26" s="760"/>
-      <c r="AO26" s="760"/>
-      <c r="AP26" s="760"/>
-      <c r="AQ26" s="760"/>
-      <c r="AR26" s="760"/>
-      <c r="AS26" s="760"/>
-      <c r="AT26" s="760"/>
-      <c r="AU26" s="760"/>
-      <c r="AV26" s="760"/>
-      <c r="AW26" s="760"/>
-      <c r="AX26" s="760"/>
-      <c r="AY26" s="760"/>
-      <c r="AZ26" s="760"/>
-      <c r="BA26" s="760"/>
-      <c r="BB26" s="760"/>
-      <c r="BC26" s="760"/>
-      <c r="BD26" s="760"/>
-      <c r="BE26" s="760"/>
-      <c r="BF26" s="760"/>
-      <c r="BG26" s="760"/>
+      <c r="A26" s="716"/>
+      <c r="B26" s="754"/>
+      <c r="C26" s="754"/>
+      <c r="D26" s="754"/>
+      <c r="E26" s="754"/>
+      <c r="F26" s="754"/>
+      <c r="G26" s="754"/>
+      <c r="H26" s="754"/>
+      <c r="I26" s="754"/>
+      <c r="J26" s="754"/>
+      <c r="K26" s="754"/>
+      <c r="L26" s="754"/>
+      <c r="M26" s="754"/>
+      <c r="N26" s="754"/>
+      <c r="O26" s="754"/>
+      <c r="P26" s="754"/>
+      <c r="Q26" s="754"/>
+      <c r="R26" s="754"/>
+      <c r="S26" s="754"/>
+      <c r="T26" s="754"/>
+      <c r="U26" s="754"/>
+      <c r="V26" s="754"/>
+      <c r="W26" s="754"/>
+      <c r="X26" s="754"/>
+      <c r="Y26" s="754"/>
+      <c r="Z26" s="754"/>
+      <c r="AA26" s="754"/>
+      <c r="AB26" s="754"/>
+      <c r="AC26" s="754"/>
+      <c r="AD26" s="716"/>
+      <c r="AF26" s="754"/>
+      <c r="AG26" s="754"/>
+      <c r="AH26" s="754"/>
+      <c r="AI26" s="754"/>
+      <c r="AJ26" s="754"/>
+      <c r="AK26" s="754"/>
+      <c r="AL26" s="754"/>
+      <c r="AM26" s="754"/>
+      <c r="AN26" s="754"/>
+      <c r="AO26" s="754"/>
+      <c r="AP26" s="754"/>
+      <c r="AQ26" s="754"/>
+      <c r="AR26" s="754"/>
+      <c r="AS26" s="754"/>
+      <c r="AT26" s="754"/>
+      <c r="AU26" s="754"/>
+      <c r="AV26" s="754"/>
+      <c r="AW26" s="754"/>
+      <c r="AX26" s="754"/>
+      <c r="AY26" s="754"/>
+      <c r="AZ26" s="754"/>
+      <c r="BA26" s="754"/>
+      <c r="BB26" s="754"/>
+      <c r="BC26" s="754"/>
+      <c r="BD26" s="754"/>
+      <c r="BE26" s="754"/>
+      <c r="BF26" s="754"/>
+      <c r="BG26" s="754"/>
     </row>
     <row r="27" spans="1:66">
-      <c r="A27" s="722"/>
-      <c r="B27" s="760"/>
-      <c r="C27" s="760"/>
-      <c r="D27" s="760"/>
-      <c r="E27" s="760"/>
-      <c r="F27" s="760"/>
-      <c r="G27" s="760"/>
-      <c r="H27" s="760"/>
-      <c r="I27" s="760"/>
-      <c r="J27" s="760"/>
-      <c r="K27" s="760"/>
-      <c r="L27" s="760"/>
-      <c r="M27" s="760"/>
-      <c r="N27" s="760"/>
-      <c r="O27" s="760"/>
-      <c r="P27" s="760"/>
-      <c r="Q27" s="760"/>
-      <c r="R27" s="760"/>
-      <c r="S27" s="760"/>
-      <c r="T27" s="760"/>
-      <c r="U27" s="760"/>
-      <c r="V27" s="760"/>
-      <c r="W27" s="760"/>
-      <c r="X27" s="760"/>
-      <c r="Y27" s="760"/>
-      <c r="Z27" s="760"/>
-      <c r="AA27" s="760"/>
-      <c r="AB27" s="760"/>
-      <c r="AC27" s="760"/>
-      <c r="AD27" s="722"/>
-      <c r="AF27" s="760"/>
-      <c r="AG27" s="760"/>
-      <c r="AH27" s="760"/>
-      <c r="AI27" s="760"/>
-      <c r="AJ27" s="760"/>
-      <c r="AK27" s="760"/>
-      <c r="AL27" s="760"/>
-      <c r="AM27" s="760"/>
-      <c r="AN27" s="760"/>
-      <c r="AO27" s="760"/>
-      <c r="AP27" s="760"/>
-      <c r="AQ27" s="760"/>
-      <c r="AR27" s="760"/>
-      <c r="AS27" s="760"/>
-      <c r="AT27" s="760"/>
-      <c r="AU27" s="760"/>
-      <c r="AV27" s="760"/>
-      <c r="AW27" s="760"/>
-      <c r="AX27" s="760"/>
-      <c r="AY27" s="760"/>
-      <c r="AZ27" s="760"/>
-      <c r="BA27" s="760"/>
-      <c r="BB27" s="760"/>
-      <c r="BC27" s="760"/>
-      <c r="BD27" s="760"/>
-      <c r="BE27" s="760"/>
-      <c r="BF27" s="760"/>
-      <c r="BG27" s="760"/>
+      <c r="A27" s="716"/>
+      <c r="B27" s="754"/>
+      <c r="C27" s="754"/>
+      <c r="D27" s="754"/>
+      <c r="E27" s="754"/>
+      <c r="F27" s="754"/>
+      <c r="G27" s="754"/>
+      <c r="H27" s="754"/>
+      <c r="I27" s="754"/>
+      <c r="J27" s="754"/>
+      <c r="K27" s="754"/>
+      <c r="L27" s="754"/>
+      <c r="M27" s="754"/>
+      <c r="N27" s="754"/>
+      <c r="O27" s="754"/>
+      <c r="P27" s="754"/>
+      <c r="Q27" s="754"/>
+      <c r="R27" s="754"/>
+      <c r="S27" s="754"/>
+      <c r="T27" s="754"/>
+      <c r="U27" s="754"/>
+      <c r="V27" s="754"/>
+      <c r="W27" s="754"/>
+      <c r="X27" s="754"/>
+      <c r="Y27" s="754"/>
+      <c r="Z27" s="754"/>
+      <c r="AA27" s="754"/>
+      <c r="AB27" s="754"/>
+      <c r="AC27" s="754"/>
+      <c r="AD27" s="716"/>
+      <c r="AF27" s="754"/>
+      <c r="AG27" s="754"/>
+      <c r="AH27" s="754"/>
+      <c r="AI27" s="754"/>
+      <c r="AJ27" s="754"/>
+      <c r="AK27" s="754"/>
+      <c r="AL27" s="754"/>
+      <c r="AM27" s="754"/>
+      <c r="AN27" s="754"/>
+      <c r="AO27" s="754"/>
+      <c r="AP27" s="754"/>
+      <c r="AQ27" s="754"/>
+      <c r="AR27" s="754"/>
+      <c r="AS27" s="754"/>
+      <c r="AT27" s="754"/>
+      <c r="AU27" s="754"/>
+      <c r="AV27" s="754"/>
+      <c r="AW27" s="754"/>
+      <c r="AX27" s="754"/>
+      <c r="AY27" s="754"/>
+      <c r="AZ27" s="754"/>
+      <c r="BA27" s="754"/>
+      <c r="BB27" s="754"/>
+      <c r="BC27" s="754"/>
+      <c r="BD27" s="754"/>
+      <c r="BE27" s="754"/>
+      <c r="BF27" s="754"/>
+      <c r="BG27" s="754"/>
     </row>
     <row r="28" spans="1:66">
-      <c r="A28" s="722"/>
-      <c r="B28" s="760"/>
-      <c r="C28" s="760"/>
-      <c r="D28" s="760"/>
-      <c r="E28" s="760"/>
-      <c r="F28" s="760"/>
-      <c r="G28" s="760"/>
-      <c r="H28" s="760"/>
-      <c r="I28" s="760"/>
-      <c r="J28" s="760"/>
-      <c r="K28" s="760"/>
-      <c r="L28" s="760"/>
-      <c r="M28" s="760"/>
-      <c r="N28" s="760"/>
-      <c r="O28" s="760"/>
-      <c r="P28" s="760"/>
-      <c r="Q28" s="760"/>
-      <c r="R28" s="760"/>
-      <c r="S28" s="760"/>
-      <c r="T28" s="760"/>
-      <c r="U28" s="760"/>
-      <c r="V28" s="760"/>
-      <c r="W28" s="760"/>
-      <c r="X28" s="760"/>
-      <c r="Y28" s="760"/>
-      <c r="Z28" s="760"/>
-      <c r="AA28" s="760"/>
-      <c r="AB28" s="760"/>
-      <c r="AC28" s="760"/>
-      <c r="AD28" s="722"/>
-      <c r="AF28" s="760"/>
-      <c r="AG28" s="760"/>
-      <c r="AH28" s="760"/>
-      <c r="AI28" s="760"/>
-      <c r="AJ28" s="760"/>
-      <c r="AK28" s="760"/>
-      <c r="AL28" s="760"/>
-      <c r="AM28" s="760"/>
-      <c r="AN28" s="760"/>
-      <c r="AO28" s="760"/>
-      <c r="AP28" s="760"/>
-      <c r="AQ28" s="760"/>
-      <c r="AR28" s="760"/>
-      <c r="AS28" s="760"/>
-      <c r="AT28" s="760"/>
-      <c r="AU28" s="760"/>
-      <c r="AV28" s="760"/>
-      <c r="AW28" s="760"/>
-      <c r="AX28" s="760"/>
-      <c r="AY28" s="760"/>
-      <c r="AZ28" s="760"/>
-      <c r="BA28" s="760"/>
-      <c r="BB28" s="760"/>
-      <c r="BC28" s="760"/>
-      <c r="BD28" s="760"/>
-      <c r="BE28" s="760"/>
-      <c r="BF28" s="760"/>
-      <c r="BG28" s="760"/>
+      <c r="A28" s="716"/>
+      <c r="B28" s="754"/>
+      <c r="C28" s="754"/>
+      <c r="D28" s="754"/>
+      <c r="E28" s="754"/>
+      <c r="F28" s="754"/>
+      <c r="G28" s="754"/>
+      <c r="H28" s="754"/>
+      <c r="I28" s="754"/>
+      <c r="J28" s="754"/>
+      <c r="K28" s="754"/>
+      <c r="L28" s="754"/>
+      <c r="M28" s="754"/>
+      <c r="N28" s="754"/>
+      <c r="O28" s="754"/>
+      <c r="P28" s="754"/>
+      <c r="Q28" s="754"/>
+      <c r="R28" s="754"/>
+      <c r="S28" s="754"/>
+      <c r="T28" s="754"/>
+      <c r="U28" s="754"/>
+      <c r="V28" s="754"/>
+      <c r="W28" s="754"/>
+      <c r="X28" s="754"/>
+      <c r="Y28" s="754"/>
+      <c r="Z28" s="754"/>
+      <c r="AA28" s="754"/>
+      <c r="AB28" s="754"/>
+      <c r="AC28" s="754"/>
+      <c r="AD28" s="716"/>
+      <c r="AF28" s="754"/>
+      <c r="AG28" s="754"/>
+      <c r="AH28" s="754"/>
+      <c r="AI28" s="754"/>
+      <c r="AJ28" s="754"/>
+      <c r="AK28" s="754"/>
+      <c r="AL28" s="754"/>
+      <c r="AM28" s="754"/>
+      <c r="AN28" s="754"/>
+      <c r="AO28" s="754"/>
+      <c r="AP28" s="754"/>
+      <c r="AQ28" s="754"/>
+      <c r="AR28" s="754"/>
+      <c r="AS28" s="754"/>
+      <c r="AT28" s="754"/>
+      <c r="AU28" s="754"/>
+      <c r="AV28" s="754"/>
+      <c r="AW28" s="754"/>
+      <c r="AX28" s="754"/>
+      <c r="AY28" s="754"/>
+      <c r="AZ28" s="754"/>
+      <c r="BA28" s="754"/>
+      <c r="BB28" s="754"/>
+      <c r="BC28" s="754"/>
+      <c r="BD28" s="754"/>
+      <c r="BE28" s="754"/>
+      <c r="BF28" s="754"/>
+      <c r="BG28" s="754"/>
     </row>
     <row r="29" spans="1:66">
-      <c r="A29" s="722"/>
-      <c r="B29" s="760"/>
-      <c r="C29" s="760"/>
-      <c r="D29" s="760"/>
-      <c r="E29" s="760"/>
-      <c r="F29" s="760"/>
-      <c r="G29" s="760"/>
-      <c r="H29" s="760"/>
-      <c r="I29" s="760"/>
-      <c r="J29" s="760"/>
-      <c r="K29" s="760"/>
-      <c r="L29" s="760"/>
-      <c r="M29" s="760"/>
-      <c r="N29" s="760"/>
-      <c r="O29" s="760"/>
-      <c r="P29" s="760"/>
-      <c r="Q29" s="760"/>
-      <c r="R29" s="760"/>
-      <c r="S29" s="760"/>
-      <c r="T29" s="760"/>
-      <c r="U29" s="760"/>
-      <c r="V29" s="760"/>
-      <c r="W29" s="760"/>
-      <c r="X29" s="760"/>
-      <c r="Y29" s="760"/>
-      <c r="Z29" s="760"/>
-      <c r="AA29" s="760"/>
-      <c r="AB29" s="760"/>
-      <c r="AC29" s="760"/>
-      <c r="AD29" s="722"/>
-      <c r="AF29" s="760"/>
-      <c r="AG29" s="760"/>
-      <c r="AH29" s="760"/>
-      <c r="AI29" s="760"/>
-      <c r="AJ29" s="760"/>
-      <c r="AK29" s="760"/>
-      <c r="AL29" s="760"/>
-      <c r="AM29" s="760"/>
-      <c r="AN29" s="760"/>
-      <c r="AO29" s="760"/>
-      <c r="AP29" s="760"/>
-      <c r="AQ29" s="760"/>
-      <c r="AR29" s="760"/>
-      <c r="AS29" s="760"/>
-      <c r="AT29" s="760"/>
-      <c r="AU29" s="760"/>
-      <c r="AV29" s="760"/>
-      <c r="AW29" s="760"/>
-      <c r="AX29" s="760"/>
-      <c r="AY29" s="760"/>
-      <c r="AZ29" s="760"/>
-      <c r="BA29" s="760"/>
-      <c r="BB29" s="760"/>
-      <c r="BC29" s="760"/>
-      <c r="BD29" s="760"/>
-      <c r="BE29" s="760"/>
-      <c r="BF29" s="760"/>
-      <c r="BG29" s="760"/>
+      <c r="A29" s="716"/>
+      <c r="B29" s="754"/>
+      <c r="C29" s="754"/>
+      <c r="D29" s="754"/>
+      <c r="E29" s="754"/>
+      <c r="F29" s="754"/>
+      <c r="G29" s="754"/>
+      <c r="H29" s="754"/>
+      <c r="I29" s="754"/>
+      <c r="J29" s="754"/>
+      <c r="K29" s="754"/>
+      <c r="L29" s="754"/>
+      <c r="M29" s="754"/>
+      <c r="N29" s="754"/>
+      <c r="O29" s="754"/>
+      <c r="P29" s="754"/>
+      <c r="Q29" s="754"/>
+      <c r="R29" s="754"/>
+      <c r="S29" s="754"/>
+      <c r="T29" s="754"/>
+      <c r="U29" s="754"/>
+      <c r="V29" s="754"/>
+      <c r="W29" s="754"/>
+      <c r="X29" s="754"/>
+      <c r="Y29" s="754"/>
+      <c r="Z29" s="754"/>
+      <c r="AA29" s="754"/>
+      <c r="AB29" s="754"/>
+      <c r="AC29" s="754"/>
+      <c r="AD29" s="716"/>
+      <c r="AF29" s="754"/>
+      <c r="AG29" s="754"/>
+      <c r="AH29" s="754"/>
+      <c r="AI29" s="754"/>
+      <c r="AJ29" s="754"/>
+      <c r="AK29" s="754"/>
+      <c r="AL29" s="754"/>
+      <c r="AM29" s="754"/>
+      <c r="AN29" s="754"/>
+      <c r="AO29" s="754"/>
+      <c r="AP29" s="754"/>
+      <c r="AQ29" s="754"/>
+      <c r="AR29" s="754"/>
+      <c r="AS29" s="754"/>
+      <c r="AT29" s="754"/>
+      <c r="AU29" s="754"/>
+      <c r="AV29" s="754"/>
+      <c r="AW29" s="754"/>
+      <c r="AX29" s="754"/>
+      <c r="AY29" s="754"/>
+      <c r="AZ29" s="754"/>
+      <c r="BA29" s="754"/>
+      <c r="BB29" s="754"/>
+      <c r="BC29" s="754"/>
+      <c r="BD29" s="754"/>
+      <c r="BE29" s="754"/>
+      <c r="BF29" s="754"/>
+      <c r="BG29" s="754"/>
     </row>
     <row r="30" spans="1:66">
-      <c r="A30" s="722"/>
-      <c r="B30" s="760"/>
-      <c r="C30" s="760"/>
-      <c r="D30" s="760"/>
-      <c r="E30" s="760"/>
-      <c r="F30" s="760"/>
-      <c r="G30" s="760"/>
-      <c r="H30" s="760"/>
-      <c r="I30" s="760"/>
-      <c r="J30" s="760"/>
-      <c r="K30" s="760"/>
-      <c r="L30" s="760"/>
-      <c r="M30" s="760"/>
-      <c r="N30" s="760"/>
-      <c r="O30" s="760"/>
-      <c r="P30" s="760"/>
-      <c r="Q30" s="760"/>
-      <c r="R30" s="760"/>
-      <c r="S30" s="760"/>
-      <c r="T30" s="760"/>
-      <c r="U30" s="760"/>
-      <c r="V30" s="760"/>
-      <c r="W30" s="760"/>
-      <c r="X30" s="760"/>
-      <c r="Y30" s="760"/>
-      <c r="Z30" s="760"/>
-      <c r="AA30" s="760"/>
-      <c r="AB30" s="760"/>
-      <c r="AC30" s="760"/>
-      <c r="AD30" s="722"/>
-      <c r="AF30" s="760"/>
-      <c r="AG30" s="760"/>
-      <c r="AH30" s="760"/>
-      <c r="AI30" s="760"/>
-      <c r="AJ30" s="760"/>
-      <c r="AK30" s="760"/>
-      <c r="AL30" s="760"/>
-      <c r="AM30" s="760"/>
-      <c r="AN30" s="760"/>
-      <c r="AO30" s="760"/>
-      <c r="AP30" s="760"/>
-      <c r="AQ30" s="760"/>
-      <c r="AR30" s="760"/>
-      <c r="AS30" s="760"/>
-      <c r="AT30" s="760"/>
-      <c r="AU30" s="760"/>
-      <c r="AV30" s="760"/>
-      <c r="AW30" s="760"/>
-      <c r="AX30" s="760"/>
-      <c r="AY30" s="760"/>
-      <c r="AZ30" s="760"/>
-      <c r="BA30" s="760"/>
-      <c r="BB30" s="760"/>
-      <c r="BC30" s="760"/>
-      <c r="BD30" s="760"/>
-      <c r="BE30" s="760"/>
-      <c r="BF30" s="760"/>
-      <c r="BG30" s="760"/>
+      <c r="A30" s="716"/>
+      <c r="B30" s="754"/>
+      <c r="C30" s="754"/>
+      <c r="D30" s="754"/>
+      <c r="E30" s="754"/>
+      <c r="F30" s="754"/>
+      <c r="G30" s="754"/>
+      <c r="H30" s="754"/>
+      <c r="I30" s="754"/>
+      <c r="J30" s="754"/>
+      <c r="K30" s="754"/>
+      <c r="L30" s="754"/>
+      <c r="M30" s="754"/>
+      <c r="N30" s="754"/>
+      <c r="O30" s="754"/>
+      <c r="P30" s="754"/>
+      <c r="Q30" s="754"/>
+      <c r="R30" s="754"/>
+      <c r="S30" s="754"/>
+      <c r="T30" s="754"/>
+      <c r="U30" s="754"/>
+      <c r="V30" s="754"/>
+      <c r="W30" s="754"/>
+      <c r="X30" s="754"/>
+      <c r="Y30" s="754"/>
+      <c r="Z30" s="754"/>
+      <c r="AA30" s="754"/>
+      <c r="AB30" s="754"/>
+      <c r="AC30" s="754"/>
+      <c r="AD30" s="716"/>
+      <c r="AF30" s="754"/>
+      <c r="AG30" s="754"/>
+      <c r="AH30" s="754"/>
+      <c r="AI30" s="754"/>
+      <c r="AJ30" s="754"/>
+      <c r="AK30" s="754"/>
+      <c r="AL30" s="754"/>
+      <c r="AM30" s="754"/>
+      <c r="AN30" s="754"/>
+      <c r="AO30" s="754"/>
+      <c r="AP30" s="754"/>
+      <c r="AQ30" s="754"/>
+      <c r="AR30" s="754"/>
+      <c r="AS30" s="754"/>
+      <c r="AT30" s="754"/>
+      <c r="AU30" s="754"/>
+      <c r="AV30" s="754"/>
+      <c r="AW30" s="754"/>
+      <c r="AX30" s="754"/>
+      <c r="AY30" s="754"/>
+      <c r="AZ30" s="754"/>
+      <c r="BA30" s="754"/>
+      <c r="BB30" s="754"/>
+      <c r="BC30" s="754"/>
+      <c r="BD30" s="754"/>
+      <c r="BE30" s="754"/>
+      <c r="BF30" s="754"/>
+      <c r="BG30" s="754"/>
     </row>
     <row r="31" spans="1:66">
-      <c r="A31" s="722"/>
-      <c r="B31" s="760"/>
-      <c r="C31" s="760"/>
-      <c r="D31" s="760"/>
-      <c r="E31" s="760"/>
-      <c r="F31" s="760"/>
-      <c r="G31" s="760"/>
-      <c r="H31" s="760"/>
-      <c r="I31" s="760"/>
-      <c r="J31" s="760"/>
-      <c r="K31" s="760"/>
-      <c r="L31" s="760"/>
-      <c r="M31" s="760"/>
-      <c r="N31" s="760"/>
-      <c r="O31" s="760"/>
-      <c r="P31" s="760"/>
-      <c r="Q31" s="760"/>
-      <c r="R31" s="760"/>
-      <c r="S31" s="760"/>
-      <c r="T31" s="760"/>
-      <c r="U31" s="760"/>
-      <c r="V31" s="760"/>
-      <c r="W31" s="760"/>
-      <c r="X31" s="760"/>
-      <c r="Y31" s="760"/>
-      <c r="Z31" s="760"/>
-      <c r="AA31" s="760"/>
-      <c r="AB31" s="760"/>
-      <c r="AC31" s="760"/>
-      <c r="AD31" s="722"/>
-      <c r="AF31" s="760"/>
-      <c r="AG31" s="760"/>
-      <c r="AH31" s="760"/>
-      <c r="AI31" s="760"/>
-      <c r="AJ31" s="760"/>
-      <c r="AK31" s="760"/>
-      <c r="AL31" s="760"/>
-      <c r="AM31" s="760"/>
-      <c r="AN31" s="760"/>
-      <c r="AO31" s="760"/>
-      <c r="AP31" s="760"/>
-      <c r="AQ31" s="760"/>
-      <c r="AR31" s="760"/>
-      <c r="AS31" s="760"/>
-      <c r="AT31" s="760"/>
-      <c r="AU31" s="760"/>
-      <c r="AV31" s="760"/>
-      <c r="AW31" s="760"/>
-      <c r="AX31" s="760"/>
-      <c r="AY31" s="760"/>
-      <c r="AZ31" s="760"/>
-      <c r="BA31" s="760"/>
-      <c r="BB31" s="760"/>
-      <c r="BC31" s="760"/>
-      <c r="BD31" s="760"/>
-      <c r="BE31" s="760"/>
-      <c r="BF31" s="760"/>
-      <c r="BG31" s="760"/>
+      <c r="A31" s="716"/>
+      <c r="B31" s="754"/>
+      <c r="C31" s="754"/>
+      <c r="D31" s="754"/>
+      <c r="E31" s="754"/>
+      <c r="F31" s="754"/>
+      <c r="G31" s="754"/>
+      <c r="H31" s="754"/>
+      <c r="I31" s="754"/>
+      <c r="J31" s="754"/>
+      <c r="K31" s="754"/>
+      <c r="L31" s="754"/>
+      <c r="M31" s="754"/>
+      <c r="N31" s="754"/>
+      <c r="O31" s="754"/>
+      <c r="P31" s="754"/>
+      <c r="Q31" s="754"/>
+      <c r="R31" s="754"/>
+      <c r="S31" s="754"/>
+      <c r="T31" s="754"/>
+      <c r="U31" s="754"/>
+      <c r="V31" s="754"/>
+      <c r="W31" s="754"/>
+      <c r="X31" s="754"/>
+      <c r="Y31" s="754"/>
+      <c r="Z31" s="754"/>
+      <c r="AA31" s="754"/>
+      <c r="AB31" s="754"/>
+      <c r="AC31" s="754"/>
+      <c r="AD31" s="716"/>
+      <c r="AF31" s="754"/>
+      <c r="AG31" s="754"/>
+      <c r="AH31" s="754"/>
+      <c r="AI31" s="754"/>
+      <c r="AJ31" s="754"/>
+      <c r="AK31" s="754"/>
+      <c r="AL31" s="754"/>
+      <c r="AM31" s="754"/>
+      <c r="AN31" s="754"/>
+      <c r="AO31" s="754"/>
+      <c r="AP31" s="754"/>
+      <c r="AQ31" s="754"/>
+      <c r="AR31" s="754"/>
+      <c r="AS31" s="754"/>
+      <c r="AT31" s="754"/>
+      <c r="AU31" s="754"/>
+      <c r="AV31" s="754"/>
+      <c r="AW31" s="754"/>
+      <c r="AX31" s="754"/>
+      <c r="AY31" s="754"/>
+      <c r="AZ31" s="754"/>
+      <c r="BA31" s="754"/>
+      <c r="BB31" s="754"/>
+      <c r="BC31" s="754"/>
+      <c r="BD31" s="754"/>
+      <c r="BE31" s="754"/>
+      <c r="BF31" s="754"/>
+      <c r="BG31" s="754"/>
     </row>
     <row r="32" spans="1:66">
-      <c r="A32" s="722"/>
-      <c r="B32" s="760"/>
-      <c r="C32" s="760"/>
-      <c r="D32" s="760"/>
-      <c r="E32" s="760"/>
-      <c r="F32" s="760"/>
-      <c r="G32" s="760"/>
-      <c r="H32" s="760"/>
-      <c r="I32" s="760"/>
-      <c r="J32" s="760"/>
-      <c r="K32" s="760"/>
-      <c r="L32" s="760"/>
-      <c r="M32" s="760"/>
-      <c r="N32" s="760"/>
-      <c r="O32" s="760"/>
-      <c r="P32" s="760"/>
-      <c r="Q32" s="760"/>
-      <c r="R32" s="760"/>
-      <c r="S32" s="760"/>
-      <c r="T32" s="760"/>
-      <c r="U32" s="760"/>
-      <c r="V32" s="760"/>
-      <c r="W32" s="760"/>
-      <c r="X32" s="760"/>
-      <c r="Y32" s="760"/>
-      <c r="Z32" s="760"/>
-      <c r="AA32" s="760"/>
-      <c r="AB32" s="760"/>
-      <c r="AC32" s="760"/>
-      <c r="AD32" s="722"/>
-      <c r="AF32" s="760"/>
-      <c r="AG32" s="760"/>
-      <c r="AH32" s="760"/>
-      <c r="AI32" s="760"/>
-      <c r="AJ32" s="760"/>
-      <c r="AK32" s="760"/>
-      <c r="AL32" s="760"/>
-      <c r="AM32" s="760"/>
-      <c r="AN32" s="760"/>
-      <c r="AO32" s="760"/>
-      <c r="AP32" s="760"/>
-      <c r="AQ32" s="760"/>
-      <c r="AR32" s="760"/>
-      <c r="AS32" s="760"/>
-      <c r="AT32" s="760"/>
-      <c r="AU32" s="760"/>
-      <c r="AV32" s="760"/>
-      <c r="AW32" s="760"/>
-      <c r="AX32" s="760"/>
-      <c r="AY32" s="760"/>
-      <c r="AZ32" s="760"/>
-      <c r="BA32" s="760"/>
-      <c r="BB32" s="760"/>
-      <c r="BC32" s="760"/>
-      <c r="BD32" s="760"/>
-      <c r="BE32" s="760"/>
-      <c r="BF32" s="760"/>
-      <c r="BG32" s="760"/>
+      <c r="A32" s="716"/>
+      <c r="B32" s="754"/>
+      <c r="C32" s="754"/>
+      <c r="D32" s="754"/>
+      <c r="E32" s="754"/>
+      <c r="F32" s="754"/>
+      <c r="G32" s="754"/>
+      <c r="H32" s="754"/>
+      <c r="I32" s="754"/>
+      <c r="J32" s="754"/>
+      <c r="K32" s="754"/>
+      <c r="L32" s="754"/>
+      <c r="M32" s="754"/>
+      <c r="N32" s="754"/>
+      <c r="O32" s="754"/>
+      <c r="P32" s="754"/>
+      <c r="Q32" s="754"/>
+      <c r="R32" s="754"/>
+      <c r="S32" s="754"/>
+      <c r="T32" s="754"/>
+      <c r="U32" s="754"/>
+      <c r="V32" s="754"/>
+      <c r="W32" s="754"/>
+      <c r="X32" s="754"/>
+      <c r="Y32" s="754"/>
+      <c r="Z32" s="754"/>
+      <c r="AA32" s="754"/>
+      <c r="AB32" s="754"/>
+      <c r="AC32" s="754"/>
+      <c r="AD32" s="716"/>
+      <c r="AF32" s="754"/>
+      <c r="AG32" s="754"/>
+      <c r="AH32" s="754"/>
+      <c r="AI32" s="754"/>
+      <c r="AJ32" s="754"/>
+      <c r="AK32" s="754"/>
+      <c r="AL32" s="754"/>
+      <c r="AM32" s="754"/>
+      <c r="AN32" s="754"/>
+      <c r="AO32" s="754"/>
+      <c r="AP32" s="754"/>
+      <c r="AQ32" s="754"/>
+      <c r="AR32" s="754"/>
+      <c r="AS32" s="754"/>
+      <c r="AT32" s="754"/>
+      <c r="AU32" s="754"/>
+      <c r="AV32" s="754"/>
+      <c r="AW32" s="754"/>
+      <c r="AX32" s="754"/>
+      <c r="AY32" s="754"/>
+      <c r="AZ32" s="754"/>
+      <c r="BA32" s="754"/>
+      <c r="BB32" s="754"/>
+      <c r="BC32" s="754"/>
+      <c r="BD32" s="754"/>
+      <c r="BE32" s="754"/>
+      <c r="BF32" s="754"/>
+      <c r="BG32" s="754"/>
     </row>
     <row r="33" spans="1:59">
-      <c r="A33" s="722"/>
-      <c r="B33" s="760"/>
-      <c r="C33" s="760"/>
-      <c r="D33" s="760"/>
-      <c r="E33" s="760"/>
-      <c r="F33" s="760"/>
-      <c r="G33" s="760"/>
-      <c r="H33" s="760"/>
-      <c r="I33" s="760"/>
-      <c r="J33" s="760"/>
-      <c r="K33" s="760"/>
-      <c r="L33" s="760"/>
-      <c r="M33" s="760"/>
-      <c r="N33" s="760"/>
-      <c r="O33" s="760"/>
-      <c r="P33" s="760"/>
-      <c r="Q33" s="760"/>
-      <c r="R33" s="760"/>
-      <c r="S33" s="760"/>
-      <c r="T33" s="760"/>
-      <c r="U33" s="760"/>
-      <c r="V33" s="760"/>
-      <c r="W33" s="760"/>
-      <c r="X33" s="760"/>
-      <c r="Y33" s="760"/>
-      <c r="Z33" s="760"/>
-      <c r="AA33" s="760"/>
-      <c r="AB33" s="760"/>
-      <c r="AC33" s="760"/>
-      <c r="AD33" s="722"/>
-      <c r="AF33" s="760"/>
-      <c r="AG33" s="760"/>
-      <c r="AH33" s="760"/>
-      <c r="AI33" s="760"/>
-      <c r="AJ33" s="760"/>
-      <c r="AK33" s="760"/>
-      <c r="AL33" s="760"/>
-      <c r="AM33" s="760"/>
-      <c r="AN33" s="760"/>
-      <c r="AO33" s="760"/>
-      <c r="AP33" s="760"/>
-      <c r="AQ33" s="760"/>
-      <c r="AR33" s="760"/>
-      <c r="AS33" s="760"/>
-      <c r="AT33" s="760"/>
-      <c r="AU33" s="760"/>
-      <c r="AV33" s="760"/>
-      <c r="AW33" s="760"/>
-      <c r="AX33" s="760"/>
-      <c r="AY33" s="760"/>
-      <c r="AZ33" s="760"/>
-      <c r="BA33" s="760"/>
-      <c r="BB33" s="760"/>
-      <c r="BC33" s="760"/>
-      <c r="BD33" s="760"/>
-      <c r="BE33" s="760"/>
-      <c r="BF33" s="760"/>
-      <c r="BG33" s="760"/>
+      <c r="A33" s="716"/>
+      <c r="B33" s="754"/>
+      <c r="C33" s="754"/>
+      <c r="D33" s="754"/>
+      <c r="E33" s="754"/>
+      <c r="F33" s="754"/>
+      <c r="G33" s="754"/>
+      <c r="H33" s="754"/>
+      <c r="I33" s="754"/>
+      <c r="J33" s="754"/>
+      <c r="K33" s="754"/>
+      <c r="L33" s="754"/>
+      <c r="M33" s="754"/>
+      <c r="N33" s="754"/>
+      <c r="O33" s="754"/>
+      <c r="P33" s="754"/>
+      <c r="Q33" s="754"/>
+      <c r="R33" s="754"/>
+      <c r="S33" s="754"/>
+      <c r="T33" s="754"/>
+      <c r="U33" s="754"/>
+      <c r="V33" s="754"/>
+      <c r="W33" s="754"/>
+      <c r="X33" s="754"/>
+      <c r="Y33" s="754"/>
+      <c r="Z33" s="754"/>
+      <c r="AA33" s="754"/>
+      <c r="AB33" s="754"/>
+      <c r="AC33" s="754"/>
+      <c r="AD33" s="716"/>
+      <c r="AF33" s="754"/>
+      <c r="AG33" s="754"/>
+      <c r="AH33" s="754"/>
+      <c r="AI33" s="754"/>
+      <c r="AJ33" s="754"/>
+      <c r="AK33" s="754"/>
+      <c r="AL33" s="754"/>
+      <c r="AM33" s="754"/>
+      <c r="AN33" s="754"/>
+      <c r="AO33" s="754"/>
+      <c r="AP33" s="754"/>
+      <c r="AQ33" s="754"/>
+      <c r="AR33" s="754"/>
+      <c r="AS33" s="754"/>
+      <c r="AT33" s="754"/>
+      <c r="AU33" s="754"/>
+      <c r="AV33" s="754"/>
+      <c r="AW33" s="754"/>
+      <c r="AX33" s="754"/>
+      <c r="AY33" s="754"/>
+      <c r="AZ33" s="754"/>
+      <c r="BA33" s="754"/>
+      <c r="BB33" s="754"/>
+      <c r="BC33" s="754"/>
+      <c r="BD33" s="754"/>
+      <c r="BE33" s="754"/>
+      <c r="BF33" s="754"/>
+      <c r="BG33" s="754"/>
     </row>
     <row r="34" spans="1:59">
-      <c r="A34" s="722"/>
-      <c r="B34" s="760"/>
-      <c r="C34" s="760"/>
-      <c r="D34" s="760"/>
-      <c r="E34" s="760"/>
-      <c r="F34" s="760"/>
-      <c r="G34" s="760"/>
-      <c r="H34" s="760"/>
-      <c r="I34" s="760"/>
-      <c r="J34" s="760"/>
-      <c r="K34" s="760"/>
-      <c r="L34" s="760"/>
-      <c r="M34" s="760"/>
-      <c r="N34" s="760"/>
-      <c r="O34" s="760"/>
-      <c r="P34" s="760"/>
-      <c r="Q34" s="760"/>
-      <c r="R34" s="760"/>
-      <c r="S34" s="760"/>
-      <c r="T34" s="760"/>
-      <c r="U34" s="760"/>
-      <c r="V34" s="760"/>
-      <c r="W34" s="760"/>
-      <c r="X34" s="760"/>
-      <c r="Y34" s="760"/>
-      <c r="Z34" s="760"/>
-      <c r="AA34" s="760"/>
-      <c r="AB34" s="760"/>
-      <c r="AC34" s="760"/>
-      <c r="AD34" s="722"/>
-      <c r="AF34" s="760"/>
-      <c r="AG34" s="760"/>
-      <c r="AH34" s="760"/>
-      <c r="AI34" s="760"/>
-      <c r="AJ34" s="760"/>
-      <c r="AK34" s="760"/>
-      <c r="AL34" s="760"/>
-      <c r="AM34" s="760"/>
-      <c r="AN34" s="760"/>
-      <c r="AO34" s="760"/>
-      <c r="AP34" s="760"/>
-      <c r="AQ34" s="760"/>
-      <c r="AR34" s="760"/>
-      <c r="AS34" s="760"/>
-      <c r="AT34" s="760"/>
-      <c r="AU34" s="760"/>
-      <c r="AV34" s="760"/>
-      <c r="AW34" s="760"/>
-      <c r="AX34" s="760"/>
-      <c r="AY34" s="760"/>
-      <c r="AZ34" s="760"/>
-      <c r="BA34" s="760"/>
-      <c r="BB34" s="760"/>
-      <c r="BC34" s="760"/>
-      <c r="BD34" s="760"/>
-      <c r="BE34" s="760"/>
-      <c r="BF34" s="760"/>
-      <c r="BG34" s="760"/>
+      <c r="A34" s="716"/>
+      <c r="B34" s="754"/>
+      <c r="C34" s="754"/>
+      <c r="D34" s="754"/>
+      <c r="E34" s="754"/>
+      <c r="F34" s="754"/>
+      <c r="G34" s="754"/>
+      <c r="H34" s="754"/>
+      <c r="I34" s="754"/>
+      <c r="J34" s="754"/>
+      <c r="K34" s="754"/>
+      <c r="L34" s="754"/>
+      <c r="M34" s="754"/>
+      <c r="N34" s="754"/>
+      <c r="O34" s="754"/>
+      <c r="P34" s="754"/>
+      <c r="Q34" s="754"/>
+      <c r="R34" s="754"/>
+      <c r="S34" s="754"/>
+      <c r="T34" s="754"/>
+      <c r="U34" s="754"/>
+      <c r="V34" s="754"/>
+      <c r="W34" s="754"/>
+      <c r="X34" s="754"/>
+      <c r="Y34" s="754"/>
+      <c r="Z34" s="754"/>
+      <c r="AA34" s="754"/>
+      <c r="AB34" s="754"/>
+      <c r="AC34" s="754"/>
+      <c r="AD34" s="716"/>
+      <c r="AF34" s="754"/>
+      <c r="AG34" s="754"/>
+      <c r="AH34" s="754"/>
+      <c r="AI34" s="754"/>
+      <c r="AJ34" s="754"/>
+      <c r="AK34" s="754"/>
+      <c r="AL34" s="754"/>
+      <c r="AM34" s="754"/>
+      <c r="AN34" s="754"/>
+      <c r="AO34" s="754"/>
+      <c r="AP34" s="754"/>
+      <c r="AQ34" s="754"/>
+      <c r="AR34" s="754"/>
+      <c r="AS34" s="754"/>
+      <c r="AT34" s="754"/>
+      <c r="AU34" s="754"/>
+      <c r="AV34" s="754"/>
+      <c r="AW34" s="754"/>
+      <c r="AX34" s="754"/>
+      <c r="AY34" s="754"/>
+      <c r="AZ34" s="754"/>
+      <c r="BA34" s="754"/>
+      <c r="BB34" s="754"/>
+      <c r="BC34" s="754"/>
+      <c r="BD34" s="754"/>
+      <c r="BE34" s="754"/>
+      <c r="BF34" s="754"/>
+      <c r="BG34" s="754"/>
     </row>
     <row r="35" spans="1:59">
-      <c r="A35" s="722"/>
-      <c r="B35" s="760"/>
-      <c r="C35" s="760"/>
-      <c r="D35" s="760"/>
-      <c r="E35" s="760"/>
-      <c r="F35" s="760"/>
-      <c r="G35" s="760"/>
-      <c r="H35" s="760"/>
-      <c r="I35" s="760"/>
-      <c r="J35" s="760"/>
-      <c r="K35" s="760"/>
-      <c r="L35" s="760"/>
-      <c r="M35" s="760"/>
-      <c r="N35" s="760"/>
-      <c r="O35" s="760"/>
-      <c r="P35" s="760"/>
-      <c r="Q35" s="760"/>
-      <c r="R35" s="760"/>
-      <c r="S35" s="760"/>
-      <c r="T35" s="760"/>
-      <c r="U35" s="760"/>
-      <c r="V35" s="760"/>
-      <c r="W35" s="760"/>
-      <c r="X35" s="760"/>
-      <c r="Y35" s="760"/>
-      <c r="Z35" s="760"/>
-      <c r="AA35" s="760"/>
-      <c r="AB35" s="760"/>
-      <c r="AC35" s="760"/>
-      <c r="AD35" s="722"/>
-      <c r="AF35" s="760"/>
-      <c r="AG35" s="760"/>
-      <c r="AH35" s="760"/>
-      <c r="AI35" s="760"/>
-      <c r="AJ35" s="760"/>
-      <c r="AK35" s="760"/>
-      <c r="AL35" s="760"/>
-      <c r="AM35" s="760"/>
-      <c r="AN35" s="760"/>
-      <c r="AO35" s="760"/>
-      <c r="AP35" s="760"/>
-      <c r="AQ35" s="760"/>
-      <c r="AR35" s="760"/>
-      <c r="AS35" s="760"/>
-      <c r="AT35" s="760"/>
-      <c r="AU35" s="760"/>
-      <c r="AV35" s="760"/>
-      <c r="AW35" s="760"/>
-      <c r="AX35" s="760"/>
-      <c r="AY35" s="760"/>
-      <c r="AZ35" s="760"/>
-      <c r="BA35" s="760"/>
-      <c r="BB35" s="760"/>
-      <c r="BC35" s="760"/>
-      <c r="BD35" s="760"/>
-      <c r="BE35" s="760"/>
-      <c r="BF35" s="760"/>
-      <c r="BG35" s="760"/>
+      <c r="A35" s="716"/>
+      <c r="B35" s="754"/>
+      <c r="C35" s="754"/>
+      <c r="D35" s="754"/>
+      <c r="E35" s="754"/>
+      <c r="F35" s="754"/>
+      <c r="G35" s="754"/>
+      <c r="H35" s="754"/>
+      <c r="I35" s="754"/>
+      <c r="J35" s="754"/>
+      <c r="K35" s="754"/>
+      <c r="L35" s="754"/>
+      <c r="M35" s="754"/>
+      <c r="N35" s="754"/>
+      <c r="O35" s="754"/>
+      <c r="P35" s="754"/>
+      <c r="Q35" s="754"/>
+      <c r="R35" s="754"/>
+      <c r="S35" s="754"/>
+      <c r="T35" s="754"/>
+      <c r="U35" s="754"/>
+      <c r="V35" s="754"/>
+      <c r="W35" s="754"/>
+      <c r="X35" s="754"/>
+      <c r="Y35" s="754"/>
+      <c r="Z35" s="754"/>
+      <c r="AA35" s="754"/>
+      <c r="AB35" s="754"/>
+      <c r="AC35" s="754"/>
+      <c r="AD35" s="716"/>
+      <c r="AF35" s="754"/>
+      <c r="AG35" s="754"/>
+      <c r="AH35" s="754"/>
+      <c r="AI35" s="754"/>
+      <c r="AJ35" s="754"/>
+      <c r="AK35" s="754"/>
+      <c r="AL35" s="754"/>
+      <c r="AM35" s="754"/>
+      <c r="AN35" s="754"/>
+      <c r="AO35" s="754"/>
+      <c r="AP35" s="754"/>
+      <c r="AQ35" s="754"/>
+      <c r="AR35" s="754"/>
+      <c r="AS35" s="754"/>
+      <c r="AT35" s="754"/>
+      <c r="AU35" s="754"/>
+      <c r="AV35" s="754"/>
+      <c r="AW35" s="754"/>
+      <c r="AX35" s="754"/>
+      <c r="AY35" s="754"/>
+      <c r="AZ35" s="754"/>
+      <c r="BA35" s="754"/>
+      <c r="BB35" s="754"/>
+      <c r="BC35" s="754"/>
+      <c r="BD35" s="754"/>
+      <c r="BE35" s="754"/>
+      <c r="BF35" s="754"/>
+      <c r="BG35" s="754"/>
     </row>
     <row r="36" spans="1:59">
-      <c r="A36" s="722"/>
-      <c r="B36" s="760"/>
-      <c r="C36" s="760"/>
-      <c r="D36" s="760"/>
-      <c r="E36" s="760"/>
-      <c r="F36" s="760"/>
-      <c r="G36" s="760"/>
-      <c r="H36" s="760"/>
-      <c r="I36" s="760"/>
-      <c r="J36" s="760"/>
-      <c r="K36" s="760"/>
-      <c r="L36" s="760"/>
-      <c r="M36" s="760"/>
-      <c r="N36" s="760"/>
-      <c r="O36" s="760"/>
-      <c r="P36" s="760"/>
-      <c r="Q36" s="760"/>
-      <c r="R36" s="760"/>
-      <c r="S36" s="760"/>
-      <c r="T36" s="760"/>
-      <c r="U36" s="760"/>
-      <c r="V36" s="760"/>
-      <c r="W36" s="760"/>
-      <c r="X36" s="760"/>
-      <c r="Y36" s="760"/>
-      <c r="Z36" s="760"/>
-      <c r="AA36" s="760"/>
-      <c r="AB36" s="760"/>
-      <c r="AC36" s="760"/>
-      <c r="AD36" s="722"/>
-      <c r="AF36" s="760"/>
-      <c r="AG36" s="760"/>
-      <c r="AH36" s="760"/>
-      <c r="AI36" s="760"/>
-      <c r="AJ36" s="760"/>
-      <c r="AK36" s="760"/>
-      <c r="AL36" s="760"/>
-      <c r="AM36" s="760"/>
-      <c r="AN36" s="760"/>
-      <c r="AO36" s="760"/>
-      <c r="AP36" s="760"/>
-      <c r="AQ36" s="760"/>
-      <c r="AR36" s="760"/>
-      <c r="AS36" s="760"/>
-      <c r="AT36" s="760"/>
-      <c r="AU36" s="760"/>
-      <c r="AV36" s="760"/>
-      <c r="AW36" s="760"/>
-      <c r="AX36" s="760"/>
-      <c r="AY36" s="760"/>
-      <c r="AZ36" s="760"/>
-      <c r="BA36" s="760"/>
-      <c r="BB36" s="760"/>
-      <c r="BC36" s="760"/>
-      <c r="BD36" s="760"/>
-      <c r="BE36" s="760"/>
-      <c r="BF36" s="760"/>
-      <c r="BG36" s="760"/>
+      <c r="A36" s="716"/>
+      <c r="B36" s="754"/>
+      <c r="C36" s="754"/>
+      <c r="D36" s="754"/>
+      <c r="E36" s="754"/>
+      <c r="F36" s="754"/>
+      <c r="G36" s="754"/>
+      <c r="H36" s="754"/>
+      <c r="I36" s="754"/>
+      <c r="J36" s="754"/>
+      <c r="K36" s="754"/>
+      <c r="L36" s="754"/>
+      <c r="M36" s="754"/>
+      <c r="N36" s="754"/>
+      <c r="O36" s="754"/>
+      <c r="P36" s="754"/>
+      <c r="Q36" s="754"/>
+      <c r="R36" s="754"/>
+      <c r="S36" s="754"/>
+      <c r="T36" s="754"/>
+      <c r="U36" s="754"/>
+      <c r="V36" s="754"/>
+      <c r="W36" s="754"/>
+      <c r="X36" s="754"/>
+      <c r="Y36" s="754"/>
+      <c r="Z36" s="754"/>
+      <c r="AA36" s="754"/>
+      <c r="AB36" s="754"/>
+      <c r="AC36" s="754"/>
+      <c r="AD36" s="716"/>
+      <c r="AF36" s="754"/>
+      <c r="AG36" s="754"/>
+      <c r="AH36" s="754"/>
+      <c r="AI36" s="754"/>
+      <c r="AJ36" s="754"/>
+      <c r="AK36" s="754"/>
+      <c r="AL36" s="754"/>
+      <c r="AM36" s="754"/>
+      <c r="AN36" s="754"/>
+      <c r="AO36" s="754"/>
+      <c r="AP36" s="754"/>
+      <c r="AQ36" s="754"/>
+      <c r="AR36" s="754"/>
+      <c r="AS36" s="754"/>
+      <c r="AT36" s="754"/>
+      <c r="AU36" s="754"/>
+      <c r="AV36" s="754"/>
+      <c r="AW36" s="754"/>
+      <c r="AX36" s="754"/>
+      <c r="AY36" s="754"/>
+      <c r="AZ36" s="754"/>
+      <c r="BA36" s="754"/>
+      <c r="BB36" s="754"/>
+      <c r="BC36" s="754"/>
+      <c r="BD36" s="754"/>
+      <c r="BE36" s="754"/>
+      <c r="BF36" s="754"/>
+      <c r="BG36" s="754"/>
     </row>
     <row r="37" spans="1:59">
-      <c r="A37" s="722"/>
-      <c r="B37" s="760"/>
-      <c r="C37" s="760"/>
-      <c r="D37" s="760"/>
-      <c r="E37" s="760"/>
-      <c r="F37" s="760"/>
-      <c r="G37" s="760"/>
-      <c r="H37" s="760"/>
-      <c r="I37" s="760"/>
-      <c r="J37" s="760"/>
-      <c r="K37" s="760"/>
-      <c r="L37" s="760"/>
-      <c r="M37" s="760"/>
-      <c r="N37" s="760"/>
-      <c r="O37" s="760"/>
-      <c r="P37" s="760"/>
-      <c r="Q37" s="760"/>
-      <c r="R37" s="760"/>
-      <c r="S37" s="760"/>
-      <c r="T37" s="760"/>
-      <c r="U37" s="760"/>
-      <c r="V37" s="760"/>
-      <c r="W37" s="760"/>
-      <c r="X37" s="760"/>
-      <c r="Y37" s="760"/>
-      <c r="Z37" s="760"/>
-      <c r="AA37" s="760"/>
-      <c r="AB37" s="760"/>
-      <c r="AC37" s="760"/>
-      <c r="AD37" s="722"/>
-      <c r="AF37" s="760"/>
-      <c r="AG37" s="760"/>
-      <c r="AH37" s="760"/>
-      <c r="AI37" s="760"/>
-      <c r="AJ37" s="760"/>
-      <c r="AK37" s="760"/>
-      <c r="AL37" s="760"/>
-      <c r="AM37" s="760"/>
-      <c r="AN37" s="760"/>
-      <c r="AO37" s="760"/>
-      <c r="AP37" s="760"/>
-      <c r="AQ37" s="760"/>
-      <c r="AR37" s="760"/>
-      <c r="AS37" s="760"/>
-      <c r="AT37" s="760"/>
-      <c r="AU37" s="760"/>
-      <c r="AV37" s="760"/>
-      <c r="AW37" s="760"/>
-      <c r="AX37" s="760"/>
-      <c r="AY37" s="760"/>
-      <c r="AZ37" s="760"/>
-      <c r="BA37" s="760"/>
-      <c r="BB37" s="760"/>
-      <c r="BC37" s="760"/>
-      <c r="BD37" s="760"/>
-      <c r="BE37" s="760"/>
-      <c r="BF37" s="760"/>
-      <c r="BG37" s="760"/>
+      <c r="A37" s="716"/>
+      <c r="B37" s="754"/>
+      <c r="C37" s="754"/>
+      <c r="D37" s="754"/>
+      <c r="E37" s="754"/>
+      <c r="F37" s="754"/>
+      <c r="G37" s="754"/>
+      <c r="H37" s="754"/>
+      <c r="I37" s="754"/>
+      <c r="J37" s="754"/>
+      <c r="K37" s="754"/>
+      <c r="L37" s="754"/>
+      <c r="M37" s="754"/>
+      <c r="N37" s="754"/>
+      <c r="O37" s="754"/>
+      <c r="P37" s="754"/>
+      <c r="Q37" s="754"/>
+      <c r="R37" s="754"/>
+      <c r="S37" s="754"/>
+      <c r="T37" s="754"/>
+      <c r="U37" s="754"/>
+      <c r="V37" s="754"/>
+      <c r="W37" s="754"/>
+      <c r="X37" s="754"/>
+      <c r="Y37" s="754"/>
+      <c r="Z37" s="754"/>
+      <c r="AA37" s="754"/>
+      <c r="AB37" s="754"/>
+      <c r="AC37" s="754"/>
+      <c r="AD37" s="716"/>
+      <c r="AF37" s="754"/>
+      <c r="AG37" s="754"/>
+      <c r="AH37" s="754"/>
+      <c r="AI37" s="754"/>
+      <c r="AJ37" s="754"/>
+      <c r="AK37" s="754"/>
+      <c r="AL37" s="754"/>
+      <c r="AM37" s="754"/>
+      <c r="AN37" s="754"/>
+      <c r="AO37" s="754"/>
+      <c r="AP37" s="754"/>
+      <c r="AQ37" s="754"/>
+      <c r="AR37" s="754"/>
+      <c r="AS37" s="754"/>
+      <c r="AT37" s="754"/>
+      <c r="AU37" s="754"/>
+      <c r="AV37" s="754"/>
+      <c r="AW37" s="754"/>
+      <c r="AX37" s="754"/>
+      <c r="AY37" s="754"/>
+      <c r="AZ37" s="754"/>
+      <c r="BA37" s="754"/>
+      <c r="BB37" s="754"/>
+      <c r="BC37" s="754"/>
+      <c r="BD37" s="754"/>
+      <c r="BE37" s="754"/>
+      <c r="BF37" s="754"/>
+      <c r="BG37" s="754"/>
     </row>
     <row r="38" spans="1:59">
-      <c r="A38" s="722"/>
-      <c r="B38" s="760"/>
-      <c r="C38" s="760"/>
-      <c r="D38" s="760"/>
-      <c r="E38" s="760"/>
-      <c r="F38" s="760"/>
-      <c r="G38" s="760"/>
-      <c r="H38" s="760"/>
-      <c r="I38" s="760"/>
-      <c r="J38" s="760"/>
-      <c r="K38" s="760"/>
-      <c r="L38" s="760"/>
-      <c r="M38" s="760"/>
-      <c r="N38" s="760"/>
-      <c r="O38" s="760"/>
-      <c r="P38" s="760"/>
-      <c r="Q38" s="760"/>
-      <c r="R38" s="760"/>
-      <c r="S38" s="760"/>
-      <c r="T38" s="760"/>
-      <c r="U38" s="760"/>
-      <c r="V38" s="760"/>
-      <c r="W38" s="760"/>
-      <c r="X38" s="760"/>
-      <c r="Y38" s="760"/>
-      <c r="Z38" s="760"/>
-      <c r="AA38" s="760"/>
-      <c r="AB38" s="760"/>
-      <c r="AC38" s="760"/>
-      <c r="AD38" s="722"/>
-      <c r="AF38" s="760"/>
-      <c r="AG38" s="760"/>
-      <c r="AH38" s="760"/>
-      <c r="AI38" s="760"/>
-      <c r="AJ38" s="760"/>
-      <c r="AK38" s="760"/>
-      <c r="AL38" s="760"/>
-      <c r="AM38" s="760"/>
-      <c r="AN38" s="760"/>
-      <c r="AO38" s="760"/>
-      <c r="AP38" s="760"/>
-      <c r="AQ38" s="760"/>
-      <c r="AR38" s="760"/>
-      <c r="AS38" s="760"/>
-      <c r="AT38" s="760"/>
-      <c r="AU38" s="760"/>
-      <c r="AV38" s="760"/>
-      <c r="AW38" s="760"/>
-      <c r="AX38" s="760"/>
-      <c r="AY38" s="760"/>
-      <c r="AZ38" s="760"/>
-      <c r="BA38" s="760"/>
-      <c r="BB38" s="760"/>
-      <c r="BC38" s="760"/>
-      <c r="BD38" s="760"/>
-      <c r="BE38" s="760"/>
-      <c r="BF38" s="760"/>
-      <c r="BG38" s="760"/>
+      <c r="A38" s="716"/>
+      <c r="B38" s="754"/>
+      <c r="C38" s="754"/>
+      <c r="D38" s="754"/>
+      <c r="E38" s="754"/>
+      <c r="F38" s="754"/>
+      <c r="G38" s="754"/>
+      <c r="H38" s="754"/>
+      <c r="I38" s="754"/>
+      <c r="J38" s="754"/>
+      <c r="K38" s="754"/>
+      <c r="L38" s="754"/>
+      <c r="M38" s="754"/>
+      <c r="N38" s="754"/>
+      <c r="O38" s="754"/>
+      <c r="P38" s="754"/>
+      <c r="Q38" s="754"/>
+      <c r="R38" s="754"/>
+      <c r="S38" s="754"/>
+      <c r="T38" s="754"/>
+      <c r="U38" s="754"/>
+      <c r="V38" s="754"/>
+      <c r="W38" s="754"/>
+      <c r="X38" s="754"/>
+      <c r="Y38" s="754"/>
+      <c r="Z38" s="754"/>
+      <c r="AA38" s="754"/>
+      <c r="AB38" s="754"/>
+      <c r="AC38" s="754"/>
+      <c r="AD38" s="716"/>
+      <c r="AF38" s="754"/>
+      <c r="AG38" s="754"/>
+      <c r="AH38" s="754"/>
+      <c r="AI38" s="754"/>
+      <c r="AJ38" s="754"/>
+      <c r="AK38" s="754"/>
+      <c r="AL38" s="754"/>
+      <c r="AM38" s="754"/>
+      <c r="AN38" s="754"/>
+      <c r="AO38" s="754"/>
+      <c r="AP38" s="754"/>
+      <c r="AQ38" s="754"/>
+      <c r="AR38" s="754"/>
+      <c r="AS38" s="754"/>
+      <c r="AT38" s="754"/>
+      <c r="AU38" s="754"/>
+      <c r="AV38" s="754"/>
+      <c r="AW38" s="754"/>
+      <c r="AX38" s="754"/>
+      <c r="AY38" s="754"/>
+      <c r="AZ38" s="754"/>
+      <c r="BA38" s="754"/>
+      <c r="BB38" s="754"/>
+      <c r="BC38" s="754"/>
+      <c r="BD38" s="754"/>
+      <c r="BE38" s="754"/>
+      <c r="BF38" s="754"/>
+      <c r="BG38" s="754"/>
     </row>
     <row r="39" spans="1:59">
-      <c r="A39" s="722"/>
-      <c r="B39" s="760"/>
-      <c r="C39" s="760"/>
-      <c r="D39" s="760"/>
-      <c r="E39" s="760"/>
-      <c r="F39" s="760"/>
-      <c r="G39" s="760"/>
-      <c r="H39" s="760"/>
-      <c r="I39" s="760"/>
-      <c r="J39" s="760"/>
-      <c r="K39" s="760"/>
-      <c r="L39" s="760"/>
-      <c r="M39" s="760"/>
-      <c r="N39" s="760"/>
-      <c r="O39" s="760"/>
-      <c r="P39" s="760"/>
-      <c r="Q39" s="760"/>
-      <c r="R39" s="760"/>
-      <c r="S39" s="760"/>
-      <c r="T39" s="760"/>
-      <c r="U39" s="760"/>
-      <c r="V39" s="760"/>
-      <c r="W39" s="760"/>
-      <c r="X39" s="760"/>
-      <c r="Y39" s="760"/>
-      <c r="Z39" s="760"/>
-      <c r="AA39" s="760"/>
-      <c r="AB39" s="760"/>
-      <c r="AC39" s="760"/>
-      <c r="AD39" s="722"/>
-      <c r="AF39" s="760"/>
-      <c r="AG39" s="760"/>
-      <c r="AH39" s="760"/>
-      <c r="AI39" s="760"/>
-      <c r="AJ39" s="760"/>
-      <c r="AK39" s="760"/>
-      <c r="AL39" s="760"/>
-      <c r="AM39" s="760"/>
-      <c r="AN39" s="760"/>
-      <c r="AO39" s="760"/>
-      <c r="AP39" s="760"/>
-      <c r="AQ39" s="760"/>
-      <c r="AR39" s="760"/>
-      <c r="AS39" s="760"/>
-      <c r="AT39" s="760"/>
-      <c r="AU39" s="760"/>
-      <c r="AV39" s="760"/>
-      <c r="AW39" s="760"/>
-      <c r="AX39" s="760"/>
-      <c r="AY39" s="760"/>
-      <c r="AZ39" s="760"/>
-      <c r="BA39" s="760"/>
-      <c r="BB39" s="760"/>
-      <c r="BC39" s="760"/>
-      <c r="BD39" s="760"/>
-      <c r="BE39" s="760"/>
-      <c r="BF39" s="760"/>
-      <c r="BG39" s="760"/>
+      <c r="A39" s="716"/>
+      <c r="B39" s="754"/>
+      <c r="C39" s="754"/>
+      <c r="D39" s="754"/>
+      <c r="E39" s="754"/>
+      <c r="F39" s="754"/>
+      <c r="G39" s="754"/>
+      <c r="H39" s="754"/>
+      <c r="I39" s="754"/>
+      <c r="J39" s="754"/>
+      <c r="K39" s="754"/>
+      <c r="L39" s="754"/>
+      <c r="M39" s="754"/>
+      <c r="N39" s="754"/>
+      <c r="O39" s="754"/>
+      <c r="P39" s="754"/>
+      <c r="Q39" s="754"/>
+      <c r="R39" s="754"/>
+      <c r="S39" s="754"/>
+      <c r="T39" s="754"/>
+      <c r="U39" s="754"/>
+      <c r="V39" s="754"/>
+      <c r="W39" s="754"/>
+      <c r="X39" s="754"/>
+      <c r="Y39" s="754"/>
+      <c r="Z39" s="754"/>
+      <c r="AA39" s="754"/>
+      <c r="AB39" s="754"/>
+      <c r="AC39" s="754"/>
+      <c r="AD39" s="716"/>
+      <c r="AF39" s="754"/>
+      <c r="AG39" s="754"/>
+      <c r="AH39" s="754"/>
+      <c r="AI39" s="754"/>
+      <c r="AJ39" s="754"/>
+      <c r="AK39" s="754"/>
+      <c r="AL39" s="754"/>
+      <c r="AM39" s="754"/>
+      <c r="AN39" s="754"/>
+      <c r="AO39" s="754"/>
+      <c r="AP39" s="754"/>
+      <c r="AQ39" s="754"/>
+      <c r="AR39" s="754"/>
+      <c r="AS39" s="754"/>
+      <c r="AT39" s="754"/>
+      <c r="AU39" s="754"/>
+      <c r="AV39" s="754"/>
+      <c r="AW39" s="754"/>
+      <c r="AX39" s="754"/>
+      <c r="AY39" s="754"/>
+      <c r="AZ39" s="754"/>
+      <c r="BA39" s="754"/>
+      <c r="BB39" s="754"/>
+      <c r="BC39" s="754"/>
+      <c r="BD39" s="754"/>
+      <c r="BE39" s="754"/>
+      <c r="BF39" s="754"/>
+      <c r="BG39" s="754"/>
     </row>
     <row r="40" spans="1:59">
-      <c r="A40" s="722"/>
-      <c r="B40" s="760"/>
-      <c r="C40" s="760"/>
-      <c r="D40" s="760"/>
-      <c r="E40" s="760"/>
-      <c r="F40" s="760"/>
-      <c r="G40" s="760"/>
-      <c r="H40" s="760"/>
-      <c r="I40" s="760"/>
-      <c r="J40" s="760"/>
-      <c r="K40" s="760"/>
-      <c r="L40" s="760"/>
-      <c r="M40" s="760"/>
-      <c r="N40" s="760"/>
-      <c r="O40" s="760"/>
-      <c r="P40" s="760"/>
-      <c r="Q40" s="760"/>
-      <c r="R40" s="760"/>
-      <c r="S40" s="760"/>
-      <c r="T40" s="760"/>
-      <c r="U40" s="760"/>
-      <c r="V40" s="760"/>
-      <c r="W40" s="760"/>
-      <c r="X40" s="760"/>
-      <c r="Y40" s="760"/>
-      <c r="Z40" s="760"/>
-      <c r="AA40" s="760"/>
-      <c r="AB40" s="760"/>
-      <c r="AC40" s="760"/>
-      <c r="AD40" s="722"/>
-      <c r="AF40" s="760"/>
-      <c r="AG40" s="760"/>
-      <c r="AH40" s="760"/>
-      <c r="AI40" s="760"/>
-      <c r="AJ40" s="760"/>
-      <c r="AK40" s="760"/>
-      <c r="AL40" s="760"/>
-      <c r="AM40" s="760"/>
-      <c r="AN40" s="760"/>
-      <c r="AO40" s="760"/>
-      <c r="AP40" s="760"/>
-      <c r="AQ40" s="760"/>
-      <c r="AR40" s="760"/>
-      <c r="AS40" s="760"/>
-      <c r="AT40" s="760"/>
-      <c r="AU40" s="760"/>
-      <c r="AV40" s="760"/>
-      <c r="AW40" s="760"/>
-      <c r="AX40" s="760"/>
-      <c r="AY40" s="760"/>
-      <c r="AZ40" s="760"/>
-      <c r="BA40" s="760"/>
-      <c r="BB40" s="760"/>
-      <c r="BC40" s="760"/>
-      <c r="BD40" s="760"/>
-      <c r="BE40" s="760"/>
-      <c r="BF40" s="760"/>
-      <c r="BG40" s="760"/>
+      <c r="A40" s="716"/>
+      <c r="B40" s="754"/>
+      <c r="C40" s="754"/>
+      <c r="D40" s="754"/>
+      <c r="E40" s="754"/>
+      <c r="F40" s="754"/>
+      <c r="G40" s="754"/>
+      <c r="H40" s="754"/>
+      <c r="I40" s="754"/>
+      <c r="J40" s="754"/>
+      <c r="K40" s="754"/>
+      <c r="L40" s="754"/>
+      <c r="M40" s="754"/>
+      <c r="N40" s="754"/>
+      <c r="O40" s="754"/>
+      <c r="P40" s="754"/>
+      <c r="Q40" s="754"/>
+      <c r="R40" s="754"/>
+      <c r="S40" s="754"/>
+      <c r="T40" s="754"/>
+      <c r="U40" s="754"/>
+      <c r="V40" s="754"/>
+      <c r="W40" s="754"/>
+      <c r="X40" s="754"/>
+      <c r="Y40" s="754"/>
+      <c r="Z40" s="754"/>
+      <c r="AA40" s="754"/>
+      <c r="AB40" s="754"/>
+      <c r="AC40" s="754"/>
+      <c r="AD40" s="716"/>
+      <c r="AF40" s="754"/>
+      <c r="AG40" s="754"/>
+      <c r="AH40" s="754"/>
+      <c r="AI40" s="754"/>
+      <c r="AJ40" s="754"/>
+      <c r="AK40" s="754"/>
+      <c r="AL40" s="754"/>
+      <c r="AM40" s="754"/>
+      <c r="AN40" s="754"/>
+      <c r="AO40" s="754"/>
+      <c r="AP40" s="754"/>
+      <c r="AQ40" s="754"/>
+      <c r="AR40" s="754"/>
+      <c r="AS40" s="754"/>
+      <c r="AT40" s="754"/>
+      <c r="AU40" s="754"/>
+      <c r="AV40" s="754"/>
+      <c r="AW40" s="754"/>
+      <c r="AX40" s="754"/>
+      <c r="AY40" s="754"/>
+      <c r="AZ40" s="754"/>
+      <c r="BA40" s="754"/>
+      <c r="BB40" s="754"/>
+      <c r="BC40" s="754"/>
+      <c r="BD40" s="754"/>
+      <c r="BE40" s="754"/>
+      <c r="BF40" s="754"/>
+      <c r="BG40" s="754"/>
     </row>
     <row r="41" spans="1:59">
-      <c r="A41" s="722"/>
-      <c r="B41" s="760"/>
-      <c r="C41" s="760"/>
-      <c r="D41" s="760"/>
-      <c r="E41" s="760"/>
-      <c r="F41" s="760"/>
-      <c r="G41" s="760"/>
-      <c r="H41" s="760"/>
-      <c r="I41" s="760"/>
-      <c r="J41" s="760"/>
-      <c r="K41" s="760"/>
-      <c r="L41" s="760"/>
-      <c r="M41" s="760"/>
-      <c r="N41" s="760"/>
-      <c r="O41" s="760"/>
-      <c r="P41" s="760"/>
-      <c r="Q41" s="760"/>
-      <c r="R41" s="760"/>
-      <c r="S41" s="760"/>
-      <c r="T41" s="760"/>
-      <c r="U41" s="760"/>
-      <c r="V41" s="760"/>
-      <c r="W41" s="760"/>
-      <c r="X41" s="760"/>
-      <c r="Y41" s="760"/>
-      <c r="Z41" s="760"/>
-      <c r="AA41" s="760"/>
-      <c r="AB41" s="760"/>
-      <c r="AC41" s="760"/>
-      <c r="AD41" s="722"/>
-      <c r="AF41" s="760"/>
-      <c r="AG41" s="760"/>
-      <c r="AH41" s="760"/>
-      <c r="AI41" s="760"/>
-      <c r="AJ41" s="760"/>
-      <c r="AK41" s="760"/>
-      <c r="AL41" s="760"/>
-      <c r="AM41" s="760"/>
-      <c r="AN41" s="760"/>
-      <c r="AO41" s="760"/>
-      <c r="AP41" s="760"/>
-      <c r="AQ41" s="760"/>
-      <c r="AR41" s="760"/>
-      <c r="AS41" s="760"/>
-      <c r="AT41" s="760"/>
-      <c r="AU41" s="760"/>
-      <c r="AV41" s="760"/>
-      <c r="AW41" s="760"/>
-      <c r="AX41" s="760"/>
-      <c r="AY41" s="760"/>
-      <c r="AZ41" s="760"/>
-      <c r="BA41" s="760"/>
-      <c r="BB41" s="760"/>
-      <c r="BC41" s="760"/>
-      <c r="BD41" s="760"/>
-      <c r="BE41" s="760"/>
-      <c r="BF41" s="760"/>
-      <c r="BG41" s="760"/>
+      <c r="A41" s="716"/>
+      <c r="B41" s="754"/>
+      <c r="C41" s="754"/>
+      <c r="D41" s="754"/>
+      <c r="E41" s="754"/>
+      <c r="F41" s="754"/>
+      <c r="G41" s="754"/>
+      <c r="H41" s="754"/>
+      <c r="I41" s="754"/>
+      <c r="J41" s="754"/>
+      <c r="K41" s="754"/>
+      <c r="L41" s="754"/>
+      <c r="M41" s="754"/>
+      <c r="N41" s="754"/>
+      <c r="O41" s="754"/>
+      <c r="P41" s="754"/>
+      <c r="Q41" s="754"/>
+      <c r="R41" s="754"/>
+      <c r="S41" s="754"/>
+      <c r="T41" s="754"/>
+      <c r="U41" s="754"/>
+      <c r="V41" s="754"/>
+      <c r="W41" s="754"/>
+      <c r="X41" s="754"/>
+      <c r="Y41" s="754"/>
+      <c r="Z41" s="754"/>
+      <c r="AA41" s="754"/>
+      <c r="AB41" s="754"/>
+      <c r="AC41" s="754"/>
+      <c r="AD41" s="716"/>
+      <c r="AF41" s="754"/>
+      <c r="AG41" s="754"/>
+      <c r="AH41" s="754"/>
+      <c r="AI41" s="754"/>
+      <c r="AJ41" s="754"/>
+      <c r="AK41" s="754"/>
+      <c r="AL41" s="754"/>
+      <c r="AM41" s="754"/>
+      <c r="AN41" s="754"/>
+      <c r="AO41" s="754"/>
+      <c r="AP41" s="754"/>
+      <c r="AQ41" s="754"/>
+      <c r="AR41" s="754"/>
+      <c r="AS41" s="754"/>
+      <c r="AT41" s="754"/>
+      <c r="AU41" s="754"/>
+      <c r="AV41" s="754"/>
+      <c r="AW41" s="754"/>
+      <c r="AX41" s="754"/>
+      <c r="AY41" s="754"/>
+      <c r="AZ41" s="754"/>
+      <c r="BA41" s="754"/>
+      <c r="BB41" s="754"/>
+      <c r="BC41" s="754"/>
+      <c r="BD41" s="754"/>
+      <c r="BE41" s="754"/>
+      <c r="BF41" s="754"/>
+      <c r="BG41" s="754"/>
     </row>
     <row r="42" spans="1:59">
-      <c r="A42" s="722"/>
-      <c r="B42" s="760"/>
-      <c r="C42" s="760"/>
-      <c r="D42" s="760"/>
-      <c r="E42" s="760"/>
-      <c r="F42" s="760"/>
-      <c r="G42" s="760"/>
-      <c r="H42" s="760"/>
-      <c r="I42" s="760"/>
-      <c r="J42" s="760"/>
-      <c r="K42" s="760"/>
-      <c r="L42" s="760"/>
-      <c r="M42" s="760"/>
-      <c r="N42" s="760"/>
-      <c r="O42" s="760"/>
-      <c r="P42" s="760"/>
-      <c r="Q42" s="760"/>
-      <c r="R42" s="760"/>
-      <c r="S42" s="760"/>
-      <c r="T42" s="760"/>
-      <c r="U42" s="760"/>
-      <c r="V42" s="760"/>
-      <c r="W42" s="760"/>
-      <c r="X42" s="760"/>
-      <c r="Y42" s="760"/>
-      <c r="Z42" s="760"/>
-      <c r="AA42" s="760"/>
-      <c r="AB42" s="760"/>
-      <c r="AC42" s="760"/>
-      <c r="AD42" s="722"/>
-      <c r="AF42" s="760"/>
-      <c r="AG42" s="760"/>
-      <c r="AH42" s="760"/>
-      <c r="AI42" s="760"/>
-      <c r="AJ42" s="760"/>
-      <c r="AK42" s="760"/>
-      <c r="AL42" s="760"/>
-      <c r="AM42" s="760"/>
-      <c r="AN42" s="760"/>
-      <c r="AO42" s="760"/>
-      <c r="AP42" s="760"/>
-      <c r="AQ42" s="760"/>
-      <c r="AR42" s="760"/>
-      <c r="AS42" s="760"/>
-      <c r="AT42" s="760"/>
-      <c r="AU42" s="760"/>
-      <c r="AV42" s="760"/>
-      <c r="AW42" s="760"/>
-      <c r="AX42" s="760"/>
-      <c r="AY42" s="760"/>
-      <c r="AZ42" s="760"/>
-      <c r="BA42" s="760"/>
-      <c r="BB42" s="760"/>
-      <c r="BC42" s="760"/>
-      <c r="BD42" s="760"/>
-      <c r="BE42" s="760"/>
-      <c r="BF42" s="760"/>
-      <c r="BG42" s="760"/>
+      <c r="A42" s="716"/>
+      <c r="B42" s="754"/>
+      <c r="C42" s="754"/>
+      <c r="D42" s="754"/>
+      <c r="E42" s="754"/>
+      <c r="F42" s="754"/>
+      <c r="G42" s="754"/>
+      <c r="H42" s="754"/>
+      <c r="I42" s="754"/>
+      <c r="J42" s="754"/>
+      <c r="K42" s="754"/>
+      <c r="L42" s="754"/>
+      <c r="M42" s="754"/>
+      <c r="N42" s="754"/>
+      <c r="O42" s="754"/>
+      <c r="P42" s="754"/>
+      <c r="Q42" s="754"/>
+      <c r="R42" s="754"/>
+      <c r="S42" s="754"/>
+      <c r="T42" s="754"/>
+      <c r="U42" s="754"/>
+      <c r="V42" s="754"/>
+      <c r="W42" s="754"/>
+      <c r="X42" s="754"/>
+      <c r="Y42" s="754"/>
+      <c r="Z42" s="754"/>
+      <c r="AA42" s="754"/>
+      <c r="AB42" s="754"/>
+      <c r="AC42" s="754"/>
+      <c r="AD42" s="716"/>
+      <c r="AF42" s="754"/>
+      <c r="AG42" s="754"/>
+      <c r="AH42" s="754"/>
+      <c r="AI42" s="754"/>
+      <c r="AJ42" s="754"/>
+      <c r="AK42" s="754"/>
+      <c r="AL42" s="754"/>
+      <c r="AM42" s="754"/>
+      <c r="AN42" s="754"/>
+      <c r="AO42" s="754"/>
+      <c r="AP42" s="754"/>
+      <c r="AQ42" s="754"/>
+      <c r="AR42" s="754"/>
+      <c r="AS42" s="754"/>
+      <c r="AT42" s="754"/>
+      <c r="AU42" s="754"/>
+      <c r="AV42" s="754"/>
+      <c r="AW42" s="754"/>
+      <c r="AX42" s="754"/>
+      <c r="AY42" s="754"/>
+      <c r="AZ42" s="754"/>
+      <c r="BA42" s="754"/>
+      <c r="BB42" s="754"/>
+      <c r="BC42" s="754"/>
+      <c r="BD42" s="754"/>
+      <c r="BE42" s="754"/>
+      <c r="BF42" s="754"/>
+      <c r="BG42" s="754"/>
     </row>
     <row r="43" spans="1:59">
-      <c r="A43" s="722"/>
-      <c r="B43" s="760"/>
-      <c r="C43" s="760"/>
-      <c r="D43" s="760"/>
-      <c r="E43" s="760"/>
-      <c r="F43" s="760"/>
-      <c r="G43" s="760"/>
-      <c r="H43" s="760"/>
-      <c r="I43" s="760"/>
-      <c r="J43" s="760"/>
-      <c r="K43" s="760"/>
-      <c r="L43" s="760"/>
-      <c r="M43" s="760"/>
-      <c r="N43" s="760"/>
-      <c r="O43" s="760"/>
-      <c r="P43" s="760"/>
-      <c r="Q43" s="760"/>
-      <c r="R43" s="760"/>
-      <c r="S43" s="760"/>
-      <c r="T43" s="760"/>
-      <c r="U43" s="760"/>
-      <c r="V43" s="760"/>
-      <c r="W43" s="760"/>
-      <c r="X43" s="760"/>
-      <c r="Y43" s="760"/>
-      <c r="Z43" s="760"/>
-      <c r="AA43" s="760"/>
-      <c r="AB43" s="760"/>
-      <c r="AC43" s="760"/>
-      <c r="AD43" s="722"/>
-      <c r="AF43" s="760"/>
-      <c r="AG43" s="760"/>
-      <c r="AH43" s="760"/>
-      <c r="AI43" s="760"/>
-      <c r="AJ43" s="760"/>
-      <c r="AK43" s="760"/>
-      <c r="AL43" s="760"/>
-      <c r="AM43" s="760"/>
-      <c r="AN43" s="760"/>
-      <c r="AO43" s="760"/>
-      <c r="AP43" s="760"/>
-      <c r="AQ43" s="760"/>
-      <c r="AR43" s="760"/>
-      <c r="AS43" s="760"/>
-      <c r="AT43" s="760"/>
-      <c r="AU43" s="760"/>
-      <c r="AV43" s="760"/>
-      <c r="AW43" s="760"/>
-      <c r="AX43" s="760"/>
-      <c r="AY43" s="760"/>
-      <c r="AZ43" s="760"/>
-      <c r="BA43" s="760"/>
-      <c r="BB43" s="760"/>
-      <c r="BC43" s="760"/>
-      <c r="BD43" s="760"/>
-      <c r="BE43" s="760"/>
-      <c r="BF43" s="760"/>
-      <c r="BG43" s="760"/>
+      <c r="A43" s="716"/>
+      <c r="B43" s="754"/>
+      <c r="C43" s="754"/>
+      <c r="D43" s="754"/>
+      <c r="E43" s="754"/>
+      <c r="F43" s="754"/>
+      <c r="G43" s="754"/>
+      <c r="H43" s="754"/>
+      <c r="I43" s="754"/>
+      <c r="J43" s="754"/>
+      <c r="K43" s="754"/>
+      <c r="L43" s="754"/>
+      <c r="M43" s="754"/>
+      <c r="N43" s="754"/>
+      <c r="O43" s="754"/>
+      <c r="P43" s="754"/>
+      <c r="Q43" s="754"/>
+      <c r="R43" s="754"/>
+      <c r="S43" s="754"/>
+      <c r="T43" s="754"/>
+      <c r="U43" s="754"/>
+      <c r="V43" s="754"/>
+      <c r="W43" s="754"/>
+      <c r="X43" s="754"/>
+      <c r="Y43" s="754"/>
+      <c r="Z43" s="754"/>
+      <c r="AA43" s="754"/>
+      <c r="AB43" s="754"/>
+      <c r="AC43" s="754"/>
+      <c r="AD43" s="716"/>
+      <c r="AF43" s="754"/>
+      <c r="AG43" s="754"/>
+      <c r="AH43" s="754"/>
+      <c r="AI43" s="754"/>
+      <c r="AJ43" s="754"/>
+      <c r="AK43" s="754"/>
+      <c r="AL43" s="754"/>
+      <c r="AM43" s="754"/>
+      <c r="AN43" s="754"/>
+      <c r="AO43" s="754"/>
+      <c r="AP43" s="754"/>
+      <c r="AQ43" s="754"/>
+      <c r="AR43" s="754"/>
+      <c r="AS43" s="754"/>
+      <c r="AT43" s="754"/>
+      <c r="AU43" s="754"/>
+      <c r="AV43" s="754"/>
+      <c r="AW43" s="754"/>
+      <c r="AX43" s="754"/>
+      <c r="AY43" s="754"/>
+      <c r="AZ43" s="754"/>
+      <c r="BA43" s="754"/>
+      <c r="BB43" s="754"/>
+      <c r="BC43" s="754"/>
+      <c r="BD43" s="754"/>
+      <c r="BE43" s="754"/>
+      <c r="BF43" s="754"/>
+      <c r="BG43" s="754"/>
     </row>
     <row r="44" spans="1:59">
-      <c r="A44" s="722"/>
-      <c r="B44" s="760"/>
-      <c r="C44" s="760"/>
-      <c r="D44" s="760"/>
-      <c r="E44" s="760"/>
-      <c r="F44" s="760"/>
-      <c r="G44" s="760"/>
-      <c r="H44" s="760"/>
-      <c r="I44" s="760"/>
-      <c r="J44" s="760"/>
-      <c r="K44" s="760"/>
-      <c r="L44" s="760"/>
-      <c r="M44" s="760"/>
-      <c r="N44" s="760"/>
-      <c r="O44" s="760"/>
-      <c r="P44" s="760"/>
-      <c r="Q44" s="760"/>
-      <c r="R44" s="760"/>
-      <c r="S44" s="760"/>
-      <c r="T44" s="760"/>
-      <c r="U44" s="760"/>
-      <c r="V44" s="760"/>
-      <c r="W44" s="760"/>
-      <c r="X44" s="760"/>
-      <c r="Y44" s="760"/>
-      <c r="Z44" s="760"/>
-      <c r="AA44" s="760"/>
-      <c r="AB44" s="760"/>
-      <c r="AC44" s="760"/>
-      <c r="AD44" s="722"/>
-      <c r="AF44" s="760"/>
-      <c r="AG44" s="760"/>
-      <c r="AH44" s="760"/>
-      <c r="AI44" s="760"/>
-      <c r="AJ44" s="760"/>
-      <c r="AK44" s="760"/>
-      <c r="AL44" s="760"/>
-      <c r="AM44" s="760"/>
-      <c r="AN44" s="760"/>
-      <c r="AO44" s="760"/>
-      <c r="AP44" s="760"/>
-      <c r="AQ44" s="760"/>
-      <c r="AR44" s="760"/>
-      <c r="AS44" s="760"/>
-      <c r="AT44" s="760"/>
-      <c r="AU44" s="760"/>
-      <c r="AV44" s="760"/>
-      <c r="AW44" s="760"/>
-      <c r="AX44" s="760"/>
-      <c r="AY44" s="760"/>
-      <c r="AZ44" s="760"/>
-      <c r="BA44" s="760"/>
-      <c r="BB44" s="760"/>
-      <c r="BC44" s="760"/>
-      <c r="BD44" s="760"/>
-      <c r="BE44" s="760"/>
-      <c r="BF44" s="760"/>
-      <c r="BG44" s="760"/>
+      <c r="A44" s="716"/>
+      <c r="B44" s="754"/>
+      <c r="C44" s="754"/>
+      <c r="D44" s="754"/>
+      <c r="E44" s="754"/>
+      <c r="F44" s="754"/>
+      <c r="G44" s="754"/>
+      <c r="H44" s="754"/>
+      <c r="I44" s="754"/>
+      <c r="J44" s="754"/>
+      <c r="K44" s="754"/>
+      <c r="L44" s="754"/>
+      <c r="M44" s="754"/>
+      <c r="N44" s="754"/>
+      <c r="O44" s="754"/>
+      <c r="P44" s="754"/>
+      <c r="Q44" s="754"/>
+      <c r="R44" s="754"/>
+      <c r="S44" s="754"/>
+      <c r="T44" s="754"/>
+      <c r="U44" s="754"/>
+      <c r="V44" s="754"/>
+      <c r="W44" s="754"/>
+      <c r="X44" s="754"/>
+      <c r="Y44" s="754"/>
+      <c r="Z44" s="754"/>
+      <c r="AA44" s="754"/>
+      <c r="AB44" s="754"/>
+      <c r="AC44" s="754"/>
+      <c r="AD44" s="716"/>
+      <c r="AF44" s="754"/>
+      <c r="AG44" s="754"/>
+      <c r="AH44" s="754"/>
+      <c r="AI44" s="754"/>
+      <c r="AJ44" s="754"/>
+      <c r="AK44" s="754"/>
+      <c r="AL44" s="754"/>
+      <c r="AM44" s="754"/>
+      <c r="AN44" s="754"/>
+      <c r="AO44" s="754"/>
+      <c r="AP44" s="754"/>
+      <c r="AQ44" s="754"/>
+      <c r="AR44" s="754"/>
+      <c r="AS44" s="754"/>
+      <c r="AT44" s="754"/>
+      <c r="AU44" s="754"/>
+      <c r="AV44" s="754"/>
+      <c r="AW44" s="754"/>
+      <c r="AX44" s="754"/>
+      <c r="AY44" s="754"/>
+      <c r="AZ44" s="754"/>
+      <c r="BA44" s="754"/>
+      <c r="BB44" s="754"/>
+      <c r="BC44" s="754"/>
+      <c r="BD44" s="754"/>
+      <c r="BE44" s="754"/>
+      <c r="BF44" s="754"/>
+      <c r="BG44" s="754"/>
     </row>
     <row r="45" spans="1:59">
-      <c r="A45" s="722"/>
-      <c r="B45" s="760"/>
-      <c r="C45" s="760"/>
-      <c r="D45" s="760"/>
-      <c r="E45" s="760"/>
-      <c r="F45" s="760"/>
-      <c r="G45" s="760"/>
-      <c r="H45" s="760"/>
-      <c r="I45" s="760"/>
-      <c r="J45" s="760"/>
-      <c r="K45" s="760"/>
-      <c r="L45" s="760"/>
-      <c r="M45" s="760"/>
-      <c r="N45" s="760"/>
-      <c r="O45" s="760"/>
-      <c r="P45" s="760"/>
-      <c r="Q45" s="760"/>
-      <c r="R45" s="760"/>
-      <c r="S45" s="760"/>
-      <c r="T45" s="760"/>
-      <c r="U45" s="760"/>
-      <c r="V45" s="760"/>
-      <c r="W45" s="760"/>
-      <c r="X45" s="760"/>
-      <c r="Y45" s="760"/>
-      <c r="Z45" s="760"/>
-      <c r="AA45" s="760"/>
-      <c r="AB45" s="760"/>
-      <c r="AC45" s="760"/>
-      <c r="AD45" s="722"/>
-      <c r="AF45" s="760"/>
-      <c r="AG45" s="760"/>
-      <c r="AH45" s="760"/>
-      <c r="AI45" s="760"/>
-      <c r="AJ45" s="760"/>
-      <c r="AK45" s="760"/>
-      <c r="AL45" s="760"/>
-      <c r="AM45" s="760"/>
-      <c r="AN45" s="760"/>
-      <c r="AO45" s="760"/>
-      <c r="AP45" s="760"/>
-      <c r="AQ45" s="760"/>
-      <c r="AR45" s="760"/>
-      <c r="AS45" s="760"/>
-      <c r="AT45" s="760"/>
-      <c r="AU45" s="760"/>
-      <c r="AV45" s="760"/>
-      <c r="AW45" s="760"/>
-      <c r="AX45" s="760"/>
-      <c r="AY45" s="760"/>
-      <c r="AZ45" s="760"/>
-      <c r="BA45" s="760"/>
-      <c r="BB45" s="760"/>
-      <c r="BC45" s="760"/>
-      <c r="BD45" s="760"/>
-      <c r="BE45" s="760"/>
-      <c r="BF45" s="760"/>
-      <c r="BG45" s="760"/>
+      <c r="A45" s="716"/>
+      <c r="B45" s="754"/>
+      <c r="C45" s="754"/>
+      <c r="D45" s="754"/>
+      <c r="E45" s="754"/>
+      <c r="F45" s="754"/>
+      <c r="G45" s="754"/>
+      <c r="H45" s="754"/>
+      <c r="I45" s="754"/>
+      <c r="J45" s="754"/>
+      <c r="K45" s="754"/>
+      <c r="L45" s="754"/>
+      <c r="M45" s="754"/>
+      <c r="N45" s="754"/>
+      <c r="O45" s="754"/>
+      <c r="P45" s="754"/>
+      <c r="Q45" s="754"/>
+      <c r="R45" s="754"/>
+      <c r="S45" s="754"/>
+      <c r="T45" s="754"/>
+      <c r="U45" s="754"/>
+      <c r="V45" s="754"/>
+      <c r="W45" s="754"/>
+      <c r="X45" s="754"/>
+      <c r="Y45" s="754"/>
+      <c r="Z45" s="754"/>
+      <c r="AA45" s="754"/>
+      <c r="AB45" s="754"/>
+      <c r="AC45" s="754"/>
+      <c r="AD45" s="716"/>
+      <c r="AF45" s="754"/>
+      <c r="AG45" s="754"/>
+      <c r="AH45" s="754"/>
+      <c r="AI45" s="754"/>
+      <c r="AJ45" s="754"/>
+      <c r="AK45" s="754"/>
+      <c r="AL45" s="754"/>
+      <c r="AM45" s="754"/>
+      <c r="AN45" s="754"/>
+      <c r="AO45" s="754"/>
+      <c r="AP45" s="754"/>
+      <c r="AQ45" s="754"/>
+      <c r="AR45" s="754"/>
+      <c r="AS45" s="754"/>
+      <c r="AT45" s="754"/>
+      <c r="AU45" s="754"/>
+      <c r="AV45" s="754"/>
+      <c r="AW45" s="754"/>
+      <c r="AX45" s="754"/>
+      <c r="AY45" s="754"/>
+      <c r="AZ45" s="754"/>
+      <c r="BA45" s="754"/>
+      <c r="BB45" s="754"/>
+      <c r="BC45" s="754"/>
+      <c r="BD45" s="754"/>
+      <c r="BE45" s="754"/>
+      <c r="BF45" s="754"/>
+      <c r="BG45" s="754"/>
     </row>
     <row r="46" spans="1:59">
-      <c r="A46" s="722"/>
-      <c r="B46" s="760"/>
-      <c r="C46" s="760"/>
-      <c r="D46" s="760"/>
-      <c r="E46" s="760"/>
-      <c r="F46" s="760"/>
-      <c r="G46" s="760"/>
-      <c r="H46" s="760"/>
-      <c r="I46" s="760"/>
-      <c r="J46" s="760"/>
-      <c r="K46" s="760"/>
-      <c r="L46" s="760"/>
-      <c r="M46" s="760"/>
-      <c r="N46" s="760"/>
-      <c r="O46" s="760"/>
-      <c r="P46" s="760"/>
-      <c r="Q46" s="760"/>
-      <c r="R46" s="760"/>
-      <c r="S46" s="760"/>
-      <c r="T46" s="760"/>
-      <c r="U46" s="760"/>
-      <c r="V46" s="760"/>
-      <c r="W46" s="760"/>
-      <c r="X46" s="760"/>
-      <c r="Y46" s="760"/>
-      <c r="Z46" s="760"/>
-      <c r="AA46" s="760"/>
-      <c r="AB46" s="760"/>
-      <c r="AC46" s="760"/>
-      <c r="AD46" s="722"/>
+      <c r="A46" s="716"/>
+      <c r="B46" s="754"/>
+      <c r="C46" s="754"/>
+      <c r="D46" s="754"/>
+      <c r="E46" s="754"/>
+      <c r="F46" s="754"/>
+      <c r="G46" s="754"/>
+      <c r="H46" s="754"/>
+      <c r="I46" s="754"/>
+      <c r="J46" s="754"/>
+      <c r="K46" s="754"/>
+      <c r="L46" s="754"/>
+      <c r="M46" s="754"/>
+      <c r="N46" s="754"/>
+      <c r="O46" s="754"/>
+      <c r="P46" s="754"/>
+      <c r="Q46" s="754"/>
+      <c r="R46" s="754"/>
+      <c r="S46" s="754"/>
+      <c r="T46" s="754"/>
+      <c r="U46" s="754"/>
+      <c r="V46" s="754"/>
+      <c r="W46" s="754"/>
+      <c r="X46" s="754"/>
+      <c r="Y46" s="754"/>
+      <c r="Z46" s="754"/>
+      <c r="AA46" s="754"/>
+      <c r="AB46" s="754"/>
+      <c r="AC46" s="754"/>
+      <c r="AD46" s="716"/>
     </row>
     <row r="47" spans="1:59">
-      <c r="A47" s="698"/>
-      <c r="B47" s="698"/>
-      <c r="C47" s="698"/>
-      <c r="D47" s="698"/>
-      <c r="E47" s="698"/>
-      <c r="F47" s="698"/>
-      <c r="G47" s="698"/>
-      <c r="H47" s="698"/>
-      <c r="I47" s="698"/>
-      <c r="J47" s="698"/>
-      <c r="K47" s="698"/>
-      <c r="L47" s="698"/>
-      <c r="M47" s="698"/>
-      <c r="N47" s="698"/>
-      <c r="O47" s="698"/>
-      <c r="P47" s="698"/>
-      <c r="Q47" s="698"/>
-      <c r="R47" s="698"/>
-      <c r="S47" s="698"/>
-      <c r="T47" s="698"/>
-      <c r="U47" s="698"/>
-      <c r="V47" s="698"/>
-      <c r="W47" s="698"/>
-      <c r="X47" s="698"/>
-      <c r="Y47" s="698"/>
-      <c r="Z47" s="698"/>
-      <c r="AA47" s="698"/>
-      <c r="AB47" s="698"/>
-      <c r="AC47" s="698"/>
-      <c r="AD47" s="698"/>
+      <c r="A47" s="692"/>
+      <c r="B47" s="692"/>
+      <c r="C47" s="692"/>
+      <c r="D47" s="692"/>
+      <c r="E47" s="692"/>
+      <c r="F47" s="692"/>
+      <c r="G47" s="692"/>
+      <c r="H47" s="692"/>
+      <c r="I47" s="692"/>
+      <c r="J47" s="692"/>
+      <c r="K47" s="692"/>
+      <c r="L47" s="692"/>
+      <c r="M47" s="692"/>
+      <c r="N47" s="692"/>
+      <c r="O47" s="692"/>
+      <c r="P47" s="692"/>
+      <c r="Q47" s="692"/>
+      <c r="R47" s="692"/>
+      <c r="S47" s="692"/>
+      <c r="T47" s="692"/>
+      <c r="U47" s="692"/>
+      <c r="V47" s="692"/>
+      <c r="W47" s="692"/>
+      <c r="X47" s="692"/>
+      <c r="Y47" s="692"/>
+      <c r="Z47" s="692"/>
+      <c r="AA47" s="692"/>
+      <c r="AB47" s="692"/>
+      <c r="AC47" s="692"/>
+      <c r="AD47" s="692"/>
       <c r="AE47" s="194"/>
       <c r="AF47" s="194"/>
       <c r="AG47" s="194"/>
@@ -16395,99 +16411,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" customHeight="1">
-      <c r="A1" s="578" t="s">
+      <c r="A1" s="572" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="579"/>
-      <c r="C1" s="579"/>
-      <c r="D1" s="580"/>
+      <c r="B1" s="573"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="574"/>
       <c r="E1" s="53"/>
       <c r="F1" s="207"/>
-      <c r="G1" s="636" t="s">
+      <c r="G1" s="630" t="s">
         <v>414</v>
       </c>
-      <c r="H1" s="636"/>
-      <c r="I1" s="636"/>
-      <c r="J1" s="636"/>
-      <c r="K1" s="636"/>
-      <c r="L1" s="636"/>
-      <c r="M1" s="636"/>
-      <c r="N1" s="636"/>
-      <c r="O1" s="636"/>
-      <c r="P1" s="636"/>
+      <c r="H1" s="630"/>
+      <c r="I1" s="630"/>
+      <c r="J1" s="630"/>
+      <c r="K1" s="630"/>
+      <c r="L1" s="630"/>
+      <c r="M1" s="630"/>
+      <c r="N1" s="630"/>
+      <c r="O1" s="630"/>
+      <c r="P1" s="630"/>
       <c r="Q1" s="53"/>
       <c r="R1" s="53"/>
       <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="628"/>
-      <c r="B2" s="629"/>
-      <c r="C2" s="629"/>
-      <c r="D2" s="630"/>
+      <c r="A2" s="622"/>
+      <c r="B2" s="623"/>
+      <c r="C2" s="623"/>
+      <c r="D2" s="624"/>
       <c r="E2" s="53"/>
       <c r="F2" s="207"/>
-      <c r="G2" s="637"/>
-      <c r="H2" s="637"/>
-      <c r="I2" s="637"/>
-      <c r="J2" s="637"/>
-      <c r="K2" s="637"/>
-      <c r="L2" s="637"/>
-      <c r="M2" s="637"/>
-      <c r="N2" s="637"/>
-      <c r="O2" s="637"/>
-      <c r="P2" s="637"/>
+      <c r="G2" s="631"/>
+      <c r="H2" s="631"/>
+      <c r="I2" s="631"/>
+      <c r="J2" s="631"/>
+      <c r="K2" s="631"/>
+      <c r="L2" s="631"/>
+      <c r="M2" s="631"/>
+      <c r="N2" s="631"/>
+      <c r="O2" s="631"/>
+      <c r="P2" s="631"/>
       <c r="Q2" s="53"/>
       <c r="R2" s="53"/>
       <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="631"/>
-      <c r="B3" s="629"/>
-      <c r="C3" s="629"/>
-      <c r="D3" s="630"/>
+      <c r="A3" s="625"/>
+      <c r="B3" s="623"/>
+      <c r="C3" s="623"/>
+      <c r="D3" s="624"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="461" t="s">
+      <c r="F3" s="455" t="s">
         <v>427</v>
       </c>
-      <c r="G3" s="638" t="s">
+      <c r="G3" s="632" t="s">
         <v>415</v>
       </c>
-      <c r="H3" s="639"/>
-      <c r="I3" s="640" t="s">
+      <c r="H3" s="633"/>
+      <c r="I3" s="634" t="s">
         <v>416</v>
       </c>
-      <c r="J3" s="641"/>
-      <c r="K3" s="642" t="s">
+      <c r="J3" s="635"/>
+      <c r="K3" s="636" t="s">
         <v>417</v>
       </c>
-      <c r="L3" s="643"/>
-      <c r="M3" s="632" t="s">
+      <c r="L3" s="637"/>
+      <c r="M3" s="626" t="s">
         <v>418</v>
       </c>
-      <c r="N3" s="633"/>
-      <c r="O3" s="634" t="s">
+      <c r="N3" s="627"/>
+      <c r="O3" s="628" t="s">
         <v>419</v>
       </c>
-      <c r="P3" s="635"/>
+      <c r="P3" s="629"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="456" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="447" t="s">
+      <c r="B4" s="441" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="447" t="s">
+      <c r="C4" s="441" t="s">
         <v>544</v>
       </c>
       <c r="D4" s="409" t="s">
         <v>546</v>
       </c>
       <c r="E4" s="53"/>
-      <c r="F4" s="458" t="s">
+      <c r="F4" s="452" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="414" t="s">
@@ -16538,7 +16554,7 @@
         <v>415</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="459">
+      <c r="F5" s="453">
         <v>1</v>
       </c>
       <c r="G5" s="407" t="s">
@@ -16576,48 +16592,48 @@
       <c r="S5" s="53"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="463">
+      <c r="A6" s="457">
         <v>2</v>
       </c>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="439" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="446" t="s">
+      <c r="C6" s="440" t="s">
         <v>447</v>
       </c>
-      <c r="D6" s="449"/>
+      <c r="D6" s="443"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="458">
+      <c r="F6" s="452">
         <v>2</v>
       </c>
       <c r="G6" s="406" t="s">
         <v>460</v>
       </c>
-      <c r="H6" s="442" t="s">
+      <c r="H6" s="436" t="s">
         <v>461</v>
       </c>
       <c r="I6" s="408" t="s">
         <v>506</v>
       </c>
-      <c r="J6" s="443" t="s">
+      <c r="J6" s="437" t="s">
         <v>507</v>
       </c>
       <c r="K6" s="408" t="s">
         <v>504</v>
       </c>
-      <c r="L6" s="443" t="s">
+      <c r="L6" s="437" t="s">
         <v>505</v>
       </c>
       <c r="M6" s="408" t="s">
         <v>498</v>
       </c>
-      <c r="N6" s="443" t="s">
+      <c r="N6" s="437" t="s">
         <v>499</v>
       </c>
       <c r="O6" s="391" t="s">
         <v>488</v>
       </c>
-      <c r="P6" s="444" t="s">
+      <c r="P6" s="438" t="s">
         <v>489</v>
       </c>
       <c r="Q6" s="53"/>
@@ -16625,7 +16641,7 @@
       <c r="S6" s="53"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="464">
+      <c r="A7" s="458">
         <v>3</v>
       </c>
       <c r="B7" s="357" t="s">
@@ -16634,11 +16650,11 @@
       <c r="C7" s="84" t="s">
         <v>449</v>
       </c>
-      <c r="D7" s="450" t="s">
+      <c r="D7" s="444" t="s">
         <v>418</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="459">
+      <c r="F7" s="453">
         <v>3</v>
       </c>
       <c r="G7" s="407" t="s">
@@ -16676,50 +16692,50 @@
       <c r="S7" s="53"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="465">
+      <c r="A8" s="459">
         <v>4</v>
       </c>
       <c r="B8" s="411" t="s">
         <v>450</v>
       </c>
-      <c r="C8" s="448" t="s">
+      <c r="C8" s="442" t="s">
         <v>451</v>
       </c>
-      <c r="D8" s="451" t="s">
+      <c r="D8" s="445" t="s">
         <v>417</v>
       </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="458">
+      <c r="F8" s="452">
         <v>4</v>
       </c>
       <c r="G8" s="406" t="s">
         <v>490</v>
       </c>
-      <c r="H8" s="442" t="s">
+      <c r="H8" s="436" t="s">
         <v>491</v>
       </c>
       <c r="I8" s="408" t="s">
         <v>512</v>
       </c>
-      <c r="J8" s="443" t="s">
+      <c r="J8" s="437" t="s">
         <v>513</v>
       </c>
       <c r="K8" s="408" t="s">
         <v>514</v>
       </c>
-      <c r="L8" s="443" t="s">
+      <c r="L8" s="437" t="s">
         <v>515</v>
       </c>
       <c r="M8" s="408" t="s">
         <v>516</v>
       </c>
-      <c r="N8" s="443" t="s">
+      <c r="N8" s="437" t="s">
         <v>517</v>
       </c>
       <c r="O8" s="391" t="s">
         <v>510</v>
       </c>
-      <c r="P8" s="444" t="s">
+      <c r="P8" s="438" t="s">
         <v>511</v>
       </c>
       <c r="Q8" s="53"/>
@@ -16727,7 +16743,7 @@
       <c r="S8" s="53"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="464">
+      <c r="A9" s="458">
         <v>5</v>
       </c>
       <c r="B9" s="357" t="s">
@@ -16736,11 +16752,11 @@
       <c r="C9" s="84" t="s">
         <v>453</v>
       </c>
-      <c r="D9" s="450" t="s">
+      <c r="D9" s="444" t="s">
         <v>418</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="459">
+      <c r="F9" s="453">
         <v>5</v>
       </c>
       <c r="G9" s="407" t="s">
@@ -16778,50 +16794,50 @@
       <c r="S9" s="53"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="465">
+      <c r="A10" s="459">
         <v>6</v>
       </c>
       <c r="B10" s="411" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="448" t="s">
+      <c r="C10" s="442" t="s">
         <v>455</v>
       </c>
-      <c r="D10" s="451" t="s">
+      <c r="D10" s="445" t="s">
         <v>417</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="458">
+      <c r="F10" s="452">
         <v>6</v>
       </c>
       <c r="G10" s="406" t="s">
         <v>522</v>
       </c>
-      <c r="H10" s="442" t="s">
+      <c r="H10" s="436" t="s">
         <v>523</v>
       </c>
       <c r="I10" s="408" t="s">
         <v>550</v>
       </c>
-      <c r="J10" s="443" t="s">
+      <c r="J10" s="437" t="s">
         <v>519</v>
       </c>
       <c r="K10" s="408" t="s">
         <v>528</v>
       </c>
-      <c r="L10" s="443" t="s">
+      <c r="L10" s="437" t="s">
         <v>529</v>
       </c>
       <c r="M10" s="408" t="s">
         <v>530</v>
       </c>
-      <c r="N10" s="443" t="s">
+      <c r="N10" s="437" t="s">
         <v>531</v>
       </c>
       <c r="O10" s="391" t="s">
         <v>496</v>
       </c>
-      <c r="P10" s="444" t="s">
+      <c r="P10" s="438" t="s">
         <v>497</v>
       </c>
       <c r="Q10" s="53"/>
@@ -16829,7 +16845,7 @@
       <c r="S10" s="53"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="464">
+      <c r="A11" s="458">
         <v>7</v>
       </c>
       <c r="B11" s="84" t="s">
@@ -16838,11 +16854,11 @@
       <c r="C11" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="D11" s="452" t="s">
+      <c r="D11" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E11" s="53"/>
-      <c r="F11" s="459">
+      <c r="F11" s="453">
         <v>7</v>
       </c>
       <c r="G11" s="407" t="s">
@@ -16880,20 +16896,20 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="465">
+      <c r="A12" s="459">
         <v>8</v>
       </c>
-      <c r="B12" s="448" t="s">
+      <c r="B12" s="442" t="s">
         <v>458</v>
       </c>
-      <c r="C12" s="448" t="s">
+      <c r="C12" s="442" t="s">
         <v>459</v>
       </c>
-      <c r="D12" s="452" t="s">
+      <c r="D12" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="458">
+      <c r="F12" s="452">
         <v>8</v>
       </c>
       <c r="G12" s="408"/>
@@ -16901,25 +16917,25 @@
       <c r="I12" s="408" t="s">
         <v>551</v>
       </c>
-      <c r="J12" s="443" t="s">
+      <c r="J12" s="437" t="s">
         <v>521</v>
       </c>
       <c r="K12" s="408" t="s">
         <v>542</v>
       </c>
-      <c r="L12" s="443" t="s">
+      <c r="L12" s="437" t="s">
         <v>543</v>
       </c>
       <c r="M12" s="408" t="s">
         <v>534</v>
       </c>
-      <c r="N12" s="443" t="s">
+      <c r="N12" s="437" t="s">
         <v>535</v>
       </c>
       <c r="O12" s="391" t="s">
         <v>486</v>
       </c>
-      <c r="P12" s="444" t="s">
+      <c r="P12" s="438" t="s">
         <v>487</v>
       </c>
       <c r="Q12" s="53"/>
@@ -16927,7 +16943,7 @@
       <c r="S12" s="53"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="464">
+      <c r="A13" s="458">
         <v>9</v>
       </c>
       <c r="B13" s="84" t="s">
@@ -16940,7 +16956,7 @@
         <v>415</v>
       </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="460">
+      <c r="F13" s="454">
         <v>9</v>
       </c>
       <c r="G13" s="171"/>
@@ -16970,20 +16986,20 @@
       <c r="S13" s="53"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="465">
+      <c r="A14" s="459">
         <v>10</v>
       </c>
-      <c r="B14" s="448" t="s">
+      <c r="B14" s="442" t="s">
         <v>462</v>
       </c>
-      <c r="C14" s="448" t="s">
+      <c r="C14" s="442" t="s">
         <v>463</v>
       </c>
       <c r="D14" s="358" t="s">
         <v>415</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="458">
+      <c r="F14" s="452">
         <v>10</v>
       </c>
       <c r="G14" s="408"/>
@@ -16991,21 +17007,21 @@
       <c r="I14" s="408" t="s">
         <v>538</v>
       </c>
-      <c r="J14" s="443" t="s">
+      <c r="J14" s="437" t="s">
         <v>539</v>
       </c>
       <c r="K14" s="408"/>
-      <c r="L14" s="443"/>
+      <c r="L14" s="437"/>
       <c r="M14" s="408"/>
-      <c r="N14" s="443"/>
+      <c r="N14" s="437"/>
       <c r="O14" s="391"/>
-      <c r="P14" s="444"/>
+      <c r="P14" s="438"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="53"/>
       <c r="S14" s="53"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="464">
+      <c r="A15" s="458">
         <v>11</v>
       </c>
       <c r="B15" s="84" t="s">
@@ -17014,9 +17030,9 @@
       <c r="C15" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="D15" s="453"/>
+      <c r="D15" s="447"/>
       <c r="E15" s="53"/>
-      <c r="F15" s="459">
+      <c r="F15" s="453">
         <v>11</v>
       </c>
       <c r="G15" s="171"/>
@@ -17038,20 +17054,20 @@
       <c r="S15" s="53"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="465">
+      <c r="A16" s="459">
         <v>12</v>
       </c>
-      <c r="B16" s="448" t="s">
+      <c r="B16" s="442" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="448" t="s">
+      <c r="C16" s="442" t="s">
         <v>466</v>
       </c>
-      <c r="D16" s="450" t="s">
+      <c r="D16" s="444" t="s">
         <v>418</v>
       </c>
       <c r="E16" s="53"/>
-      <c r="F16" s="458">
+      <c r="F16" s="452">
         <v>12</v>
       </c>
       <c r="G16" s="408"/>
@@ -17059,21 +17075,21 @@
       <c r="I16" s="408" t="s">
         <v>536</v>
       </c>
-      <c r="J16" s="443" t="s">
+      <c r="J16" s="437" t="s">
         <v>537</v>
       </c>
       <c r="K16" s="408"/>
-      <c r="L16" s="443"/>
+      <c r="L16" s="437"/>
       <c r="M16" s="408"/>
-      <c r="N16" s="443"/>
+      <c r="N16" s="437"/>
       <c r="O16" s="391"/>
-      <c r="P16" s="444"/>
+      <c r="P16" s="438"/>
       <c r="Q16" s="53"/>
       <c r="R16" s="53"/>
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="464">
+      <c r="A17" s="458">
         <v>13</v>
       </c>
       <c r="B17" s="84" t="s">
@@ -17082,11 +17098,11 @@
       <c r="C17" s="84" t="s">
         <v>469</v>
       </c>
-      <c r="D17" s="454" t="s">
+      <c r="D17" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E17" s="53"/>
-      <c r="F17" s="459">
+      <c r="F17" s="453">
         <v>13</v>
       </c>
       <c r="G17" s="171"/>
@@ -17108,16 +17124,16 @@
       <c r="S17" s="53"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A18" s="465">
+      <c r="A18" s="459">
         <v>14</v>
       </c>
-      <c r="B18" s="448" t="s">
+      <c r="B18" s="442" t="s">
         <v>470</v>
       </c>
-      <c r="C18" s="448" t="s">
+      <c r="C18" s="442" t="s">
         <v>471</v>
       </c>
-      <c r="D18" s="454" t="s">
+      <c r="D18" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E18" s="53"/>
@@ -17150,16 +17166,16 @@
         <v>419</v>
       </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="578" t="s">
+      <c r="F19" s="572" t="s">
         <v>414</v>
       </c>
-      <c r="G19" s="579"/>
-      <c r="H19" s="579"/>
-      <c r="I19" s="579"/>
-      <c r="J19" s="579"/>
-      <c r="K19" s="579"/>
-      <c r="L19" s="579"/>
-      <c r="M19" s="580"/>
+      <c r="G19" s="573"/>
+      <c r="H19" s="573"/>
+      <c r="I19" s="573"/>
+      <c r="J19" s="573"/>
+      <c r="K19" s="573"/>
+      <c r="L19" s="573"/>
+      <c r="M19" s="574"/>
       <c r="N19" s="53"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
@@ -17168,27 +17184,27 @@
       <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="463">
+      <c r="A20" s="457">
         <v>16</v>
       </c>
       <c r="B20" s="411" t="s">
         <v>474</v>
       </c>
-      <c r="C20" s="448" t="s">
+      <c r="C20" s="442" t="s">
         <v>475</v>
       </c>
-      <c r="D20" s="451" t="s">
+      <c r="D20" s="445" t="s">
         <v>417</v>
       </c>
       <c r="E20" s="53"/>
-      <c r="F20" s="581"/>
-      <c r="G20" s="582"/>
-      <c r="H20" s="582"/>
-      <c r="I20" s="582"/>
-      <c r="J20" s="582"/>
-      <c r="K20" s="582"/>
-      <c r="L20" s="582"/>
-      <c r="M20" s="583"/>
+      <c r="F20" s="575"/>
+      <c r="G20" s="576"/>
+      <c r="H20" s="576"/>
+      <c r="I20" s="576"/>
+      <c r="J20" s="576"/>
+      <c r="K20" s="576"/>
+      <c r="L20" s="576"/>
+      <c r="M20" s="577"/>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
@@ -17197,7 +17213,7 @@
       <c r="S20" s="53"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A21" s="464">
+      <c r="A21" s="458">
         <v>17</v>
       </c>
       <c r="B21" s="357" t="s">
@@ -17206,24 +17222,24 @@
       <c r="C21" s="84" t="s">
         <v>477</v>
       </c>
-      <c r="D21" s="454" t="s">
+      <c r="D21" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="360" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="644" t="s">
+      <c r="G21" s="638" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="645"/>
-      <c r="I21" s="646" t="s">
+      <c r="H21" s="639"/>
+      <c r="I21" s="640" t="s">
         <v>426</v>
       </c>
-      <c r="J21" s="647"/>
-      <c r="K21" s="647"/>
-      <c r="L21" s="647"/>
-      <c r="M21" s="648"/>
+      <c r="J21" s="641"/>
+      <c r="K21" s="641"/>
+      <c r="L21" s="641"/>
+      <c r="M21" s="642"/>
       <c r="N21" s="53"/>
       <c r="O21" s="53"/>
       <c r="P21" s="53"/>
@@ -17232,33 +17248,33 @@
       <c r="S21" s="53"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="465">
+      <c r="A22" s="459">
         <v>18</v>
       </c>
       <c r="B22" s="411" t="s">
         <v>478</v>
       </c>
-      <c r="C22" s="448" t="s">
+      <c r="C22" s="442" t="s">
         <v>479</v>
       </c>
-      <c r="D22" s="451" t="s">
+      <c r="D22" s="445" t="s">
         <v>417</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="359">
         <v>1</v>
       </c>
-      <c r="G22" s="649" t="s">
+      <c r="G22" s="643" t="s">
         <v>415</v>
       </c>
-      <c r="H22" s="650"/>
-      <c r="I22" s="591" t="s">
+      <c r="H22" s="644"/>
+      <c r="I22" s="585" t="s">
         <v>421</v>
       </c>
-      <c r="J22" s="591"/>
-      <c r="K22" s="591"/>
-      <c r="L22" s="591"/>
-      <c r="M22" s="592"/>
+      <c r="J22" s="585"/>
+      <c r="K22" s="585"/>
+      <c r="L22" s="585"/>
+      <c r="M22" s="586"/>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
@@ -17267,7 +17283,7 @@
       <c r="S22" s="53"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="464">
+      <c r="A23" s="458">
         <v>19</v>
       </c>
       <c r="B23" s="357" t="s">
@@ -17276,24 +17292,24 @@
       <c r="C23" s="84" t="s">
         <v>481</v>
       </c>
-      <c r="D23" s="452" t="s">
+      <c r="D23" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E23" s="53"/>
       <c r="F23" s="243">
         <v>2</v>
       </c>
-      <c r="G23" s="601" t="s">
+      <c r="G23" s="595" t="s">
         <v>416</v>
       </c>
-      <c r="H23" s="602"/>
-      <c r="I23" s="591" t="s">
+      <c r="H23" s="596"/>
+      <c r="I23" s="585" t="s">
         <v>420</v>
       </c>
-      <c r="J23" s="591"/>
-      <c r="K23" s="591"/>
-      <c r="L23" s="591"/>
-      <c r="M23" s="592"/>
+      <c r="J23" s="585"/>
+      <c r="K23" s="585"/>
+      <c r="L23" s="585"/>
+      <c r="M23" s="586"/>
       <c r="N23" s="53"/>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
@@ -17302,33 +17318,33 @@
       <c r="S23" s="53"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="465">
+      <c r="A24" s="459">
         <v>20</v>
       </c>
       <c r="B24" s="411" t="s">
         <v>482</v>
       </c>
-      <c r="C24" s="448" t="s">
+      <c r="C24" s="442" t="s">
         <v>483</v>
       </c>
-      <c r="D24" s="452" t="s">
+      <c r="D24" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="243">
         <v>3</v>
       </c>
-      <c r="G24" s="603" t="s">
+      <c r="G24" s="597" t="s">
         <v>417</v>
       </c>
-      <c r="H24" s="604"/>
-      <c r="I24" s="591" t="s">
+      <c r="H24" s="598"/>
+      <c r="I24" s="585" t="s">
         <v>422</v>
       </c>
-      <c r="J24" s="591"/>
-      <c r="K24" s="591"/>
-      <c r="L24" s="591"/>
-      <c r="M24" s="592"/>
+      <c r="J24" s="585"/>
+      <c r="K24" s="585"/>
+      <c r="L24" s="585"/>
+      <c r="M24" s="586"/>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
       <c r="P24" s="53"/>
@@ -17337,7 +17353,7 @@
       <c r="S24" s="53"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1">
-      <c r="A25" s="464">
+      <c r="A25" s="458">
         <v>21</v>
       </c>
       <c r="B25" s="357" t="s">
@@ -17346,24 +17362,24 @@
       <c r="C25" s="84" t="s">
         <v>485</v>
       </c>
-      <c r="D25" s="452" t="s">
+      <c r="D25" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="243">
         <v>4</v>
       </c>
-      <c r="G25" s="605" t="s">
+      <c r="G25" s="599" t="s">
         <v>418</v>
       </c>
-      <c r="H25" s="606"/>
-      <c r="I25" s="591" t="s">
+      <c r="H25" s="600"/>
+      <c r="I25" s="585" t="s">
         <v>423</v>
       </c>
-      <c r="J25" s="591"/>
-      <c r="K25" s="591"/>
-      <c r="L25" s="591"/>
-      <c r="M25" s="592"/>
+      <c r="J25" s="585"/>
+      <c r="K25" s="585"/>
+      <c r="L25" s="585"/>
+      <c r="M25" s="586"/>
       <c r="N25" s="53"/>
       <c r="O25" s="53"/>
       <c r="P25" s="53"/>
@@ -17372,33 +17388,33 @@
       <c r="S25" s="53"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="465">
+      <c r="A26" s="459">
         <v>22</v>
       </c>
       <c r="B26" s="411" t="s">
         <v>486</v>
       </c>
-      <c r="C26" s="448" t="s">
+      <c r="C26" s="442" t="s">
         <v>487</v>
       </c>
-      <c r="D26" s="454" t="s">
+      <c r="D26" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E26" s="53"/>
       <c r="F26" s="244">
         <v>5</v>
       </c>
-      <c r="G26" s="607" t="s">
+      <c r="G26" s="601" t="s">
         <v>419</v>
       </c>
-      <c r="H26" s="608"/>
-      <c r="I26" s="593" t="s">
+      <c r="H26" s="602"/>
+      <c r="I26" s="587" t="s">
         <v>424</v>
       </c>
-      <c r="J26" s="593"/>
-      <c r="K26" s="593"/>
-      <c r="L26" s="593"/>
-      <c r="M26" s="594"/>
+      <c r="J26" s="587"/>
+      <c r="K26" s="587"/>
+      <c r="L26" s="587"/>
+      <c r="M26" s="588"/>
       <c r="N26" s="53"/>
       <c r="O26" s="53"/>
       <c r="P26" s="53"/>
@@ -17407,7 +17423,7 @@
       <c r="S26" s="53"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="464">
+      <c r="A27" s="458">
         <v>23</v>
       </c>
       <c r="B27" s="357" t="s">
@@ -17416,7 +17432,7 @@
       <c r="C27" s="84" t="s">
         <v>489</v>
       </c>
-      <c r="D27" s="454" t="s">
+      <c r="D27" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E27" s="53"/>
@@ -17436,13 +17452,13 @@
       <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="465">
+      <c r="A28" s="459">
         <v>24</v>
       </c>
       <c r="B28" s="411" t="s">
         <v>490</v>
       </c>
-      <c r="C28" s="448" t="s">
+      <c r="C28" s="442" t="s">
         <v>491</v>
       </c>
       <c r="D28" s="358" t="s">
@@ -17465,7 +17481,7 @@
       <c r="S28" s="53"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="464">
+      <c r="A29" s="458">
         <v>25</v>
       </c>
       <c r="B29" s="357" t="s">
@@ -17474,7 +17490,7 @@
       <c r="C29" s="84" t="s">
         <v>493</v>
       </c>
-      <c r="D29" s="451" t="s">
+      <c r="D29" s="445" t="s">
         <v>417</v>
       </c>
       <c r="E29" s="53"/>
@@ -17494,16 +17510,16 @@
       <c r="S29" s="53"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="465">
+      <c r="A30" s="459">
         <v>26</v>
       </c>
       <c r="B30" s="411" t="s">
         <v>494</v>
       </c>
-      <c r="C30" s="448" t="s">
+      <c r="C30" s="442" t="s">
         <v>495</v>
       </c>
-      <c r="D30" s="450" t="s">
+      <c r="D30" s="444" t="s">
         <v>418</v>
       </c>
       <c r="E30" s="53"/>
@@ -17523,7 +17539,7 @@
       <c r="S30" s="53"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="464">
+      <c r="A31" s="458">
         <v>27</v>
       </c>
       <c r="B31" s="357" t="s">
@@ -17532,7 +17548,7 @@
       <c r="C31" s="84" t="s">
         <v>497</v>
       </c>
-      <c r="D31" s="454" t="s">
+      <c r="D31" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E31" s="53"/>
@@ -17552,16 +17568,16 @@
       <c r="S31" s="53"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="465">
+      <c r="A32" s="459">
         <v>28</v>
       </c>
       <c r="B32" s="411" t="s">
         <v>498</v>
       </c>
-      <c r="C32" s="448" t="s">
+      <c r="C32" s="442" t="s">
         <v>499</v>
       </c>
-      <c r="D32" s="450" t="s">
+      <c r="D32" s="444" t="s">
         <v>418</v>
       </c>
       <c r="E32" s="53"/>
@@ -17581,7 +17597,7 @@
       <c r="S32" s="53"/>
     </row>
     <row r="33" spans="1:25">
-      <c r="A33" s="464">
+      <c r="A33" s="458">
         <v>29</v>
       </c>
       <c r="B33" s="357" t="s">
@@ -17590,7 +17606,7 @@
       <c r="C33" s="84" t="s">
         <v>501</v>
       </c>
-      <c r="D33" s="452" t="s">
+      <c r="D33" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E33" s="53"/>
@@ -17610,16 +17626,16 @@
       <c r="S33" s="53"/>
     </row>
     <row r="34" spans="1:25">
-      <c r="A34" s="465">
+      <c r="A34" s="459">
         <v>30</v>
       </c>
       <c r="B34" s="411" t="s">
         <v>502</v>
       </c>
-      <c r="C34" s="448" t="s">
+      <c r="C34" s="442" t="s">
         <v>503</v>
       </c>
-      <c r="D34" s="452" t="s">
+      <c r="D34" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E34" s="53"/>
@@ -17639,7 +17655,7 @@
       <c r="S34" s="53"/>
     </row>
     <row r="35" spans="1:25">
-      <c r="A35" s="464">
+      <c r="A35" s="458">
         <v>31</v>
       </c>
       <c r="B35" s="357" t="s">
@@ -17648,7 +17664,7 @@
       <c r="C35" s="84" t="s">
         <v>505</v>
       </c>
-      <c r="D35" s="451" t="s">
+      <c r="D35" s="445" t="s">
         <v>417</v>
       </c>
       <c r="E35" s="53"/>
@@ -17668,16 +17684,16 @@
       <c r="S35" s="53"/>
     </row>
     <row r="36" spans="1:25">
-      <c r="A36" s="465">
+      <c r="A36" s="459">
         <v>32</v>
       </c>
       <c r="B36" s="411" t="s">
         <v>506</v>
       </c>
-      <c r="C36" s="448" t="s">
+      <c r="C36" s="442" t="s">
         <v>507</v>
       </c>
-      <c r="D36" s="452" t="s">
+      <c r="D36" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E36" s="53"/>
@@ -17697,7 +17713,7 @@
       <c r="S36" s="53"/>
     </row>
     <row r="37" spans="1:25">
-      <c r="A37" s="464">
+      <c r="A37" s="458">
         <v>33</v>
       </c>
       <c r="B37" s="357" t="s">
@@ -17726,16 +17742,16 @@
       <c r="S37" s="53"/>
     </row>
     <row r="38" spans="1:25">
-      <c r="A38" s="465">
+      <c r="A38" s="459">
         <v>34</v>
       </c>
       <c r="B38" s="411" t="s">
         <v>510</v>
       </c>
-      <c r="C38" s="448" t="s">
+      <c r="C38" s="442" t="s">
         <v>511</v>
       </c>
-      <c r="D38" s="454" t="s">
+      <c r="D38" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E38" s="53"/>
@@ -17755,7 +17771,7 @@
       <c r="S38" s="53"/>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="464">
+      <c r="A39" s="458">
         <v>35</v>
       </c>
       <c r="B39" s="357" t="s">
@@ -17764,7 +17780,7 @@
       <c r="C39" s="84" t="s">
         <v>513</v>
       </c>
-      <c r="D39" s="452" t="s">
+      <c r="D39" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E39" s="53"/>
@@ -17784,16 +17800,16 @@
       <c r="S39" s="53"/>
     </row>
     <row r="40" spans="1:25">
-      <c r="A40" s="465">
+      <c r="A40" s="459">
         <v>36</v>
       </c>
       <c r="B40" s="411" t="s">
         <v>514</v>
       </c>
-      <c r="C40" s="448" t="s">
+      <c r="C40" s="442" t="s">
         <v>515</v>
       </c>
-      <c r="D40" s="451" t="s">
+      <c r="D40" s="445" t="s">
         <v>417</v>
       </c>
       <c r="E40" s="53"/>
@@ -17815,7 +17831,7 @@
       <c r="Y40" s="167"/>
     </row>
     <row r="41" spans="1:25">
-      <c r="A41" s="464">
+      <c r="A41" s="458">
         <v>37</v>
       </c>
       <c r="B41" s="357" t="s">
@@ -17824,7 +17840,7 @@
       <c r="C41" s="84" t="s">
         <v>517</v>
       </c>
-      <c r="D41" s="450" t="s">
+      <c r="D41" s="444" t="s">
         <v>418</v>
       </c>
       <c r="E41" s="53"/>
@@ -17846,16 +17862,16 @@
       <c r="Y41" s="167"/>
     </row>
     <row r="42" spans="1:25">
-      <c r="A42" s="465">
+      <c r="A42" s="459">
         <v>38</v>
       </c>
       <c r="B42" s="411" t="s">
         <v>518</v>
       </c>
-      <c r="C42" s="448" t="s">
+      <c r="C42" s="442" t="s">
         <v>519</v>
       </c>
-      <c r="D42" s="452" t="s">
+      <c r="D42" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E42" s="53"/>
@@ -17877,7 +17893,7 @@
       <c r="Y42" s="167"/>
     </row>
     <row r="43" spans="1:25">
-      <c r="A43" s="464">
+      <c r="A43" s="458">
         <v>39</v>
       </c>
       <c r="B43" s="357" t="s">
@@ -17886,7 +17902,7 @@
       <c r="C43" s="84" t="s">
         <v>521</v>
       </c>
-      <c r="D43" s="452" t="s">
+      <c r="D43" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E43" s="53"/>
@@ -17908,13 +17924,13 @@
       <c r="Y43" s="167"/>
     </row>
     <row r="44" spans="1:25">
-      <c r="A44" s="465">
+      <c r="A44" s="459">
         <v>40</v>
       </c>
       <c r="B44" s="411" t="s">
         <v>522</v>
       </c>
-      <c r="C44" s="448" t="s">
+      <c r="C44" s="442" t="s">
         <v>523</v>
       </c>
       <c r="D44" s="358" t="s">
@@ -17939,7 +17955,7 @@
       <c r="Y44" s="167"/>
     </row>
     <row r="45" spans="1:25">
-      <c r="A45" s="464">
+      <c r="A45" s="458">
         <v>41</v>
       </c>
       <c r="B45" s="357" t="s">
@@ -17948,7 +17964,7 @@
       <c r="C45" s="84" t="s">
         <v>525</v>
       </c>
-      <c r="D45" s="454" t="s">
+      <c r="D45" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E45" s="53"/>
@@ -17970,13 +17986,13 @@
       <c r="Y45" s="167"/>
     </row>
     <row r="46" spans="1:25">
-      <c r="A46" s="465">
+      <c r="A46" s="459">
         <v>42</v>
       </c>
       <c r="B46" s="411" t="s">
         <v>526</v>
       </c>
-      <c r="C46" s="448" t="s">
+      <c r="C46" s="442" t="s">
         <v>527</v>
       </c>
       <c r="D46" s="358" t="s">
@@ -18001,7 +18017,7 @@
       <c r="Y46" s="167"/>
     </row>
     <row r="47" spans="1:25">
-      <c r="A47" s="464">
+      <c r="A47" s="458">
         <v>43</v>
       </c>
       <c r="B47" s="357" t="s">
@@ -18010,7 +18026,7 @@
       <c r="C47" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="D47" s="451" t="s">
+      <c r="D47" s="445" t="s">
         <v>417</v>
       </c>
       <c r="E47" s="53"/>
@@ -18032,16 +18048,16 @@
       <c r="Y47" s="167"/>
     </row>
     <row r="48" spans="1:25">
-      <c r="A48" s="465">
+      <c r="A48" s="459">
         <v>44</v>
       </c>
       <c r="B48" s="411" t="s">
         <v>530</v>
       </c>
-      <c r="C48" s="448" t="s">
+      <c r="C48" s="442" t="s">
         <v>531</v>
       </c>
-      <c r="D48" s="450" t="s">
+      <c r="D48" s="444" t="s">
         <v>418</v>
       </c>
       <c r="E48" s="53"/>
@@ -18063,7 +18079,7 @@
       <c r="Y48" s="167"/>
     </row>
     <row r="49" spans="1:25">
-      <c r="A49" s="464">
+      <c r="A49" s="458">
         <v>45</v>
       </c>
       <c r="B49" s="357" t="s">
@@ -18072,7 +18088,7 @@
       <c r="C49" s="84" t="s">
         <v>533</v>
       </c>
-      <c r="D49" s="452" t="s">
+      <c r="D49" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E49" s="53"/>
@@ -18094,16 +18110,16 @@
       <c r="Y49" s="167"/>
     </row>
     <row r="50" spans="1:25">
-      <c r="A50" s="465">
+      <c r="A50" s="459">
         <v>46</v>
       </c>
       <c r="B50" s="411" t="s">
         <v>538</v>
       </c>
-      <c r="C50" s="448" t="s">
+      <c r="C50" s="442" t="s">
         <v>539</v>
       </c>
-      <c r="D50" s="452" t="s">
+      <c r="D50" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E50" s="53"/>
@@ -18125,7 +18141,7 @@
       <c r="Y50" s="167"/>
     </row>
     <row r="51" spans="1:25">
-      <c r="A51" s="464">
+      <c r="A51" s="458">
         <v>47</v>
       </c>
       <c r="B51" s="357" t="s">
@@ -18134,7 +18150,7 @@
       <c r="C51" s="84" t="s">
         <v>535</v>
       </c>
-      <c r="D51" s="450" t="s">
+      <c r="D51" s="444" t="s">
         <v>418</v>
       </c>
       <c r="E51" s="53"/>
@@ -18156,16 +18172,16 @@
       <c r="Y51" s="167"/>
     </row>
     <row r="52" spans="1:25">
-      <c r="A52" s="465">
+      <c r="A52" s="459">
         <v>48</v>
       </c>
       <c r="B52" s="411" t="s">
         <v>536</v>
       </c>
-      <c r="C52" s="448" t="s">
+      <c r="C52" s="442" t="s">
         <v>537</v>
       </c>
-      <c r="D52" s="452" t="s">
+      <c r="D52" s="446" t="s">
         <v>416</v>
       </c>
       <c r="E52" s="53"/>
@@ -18187,7 +18203,7 @@
       <c r="Y52" s="167"/>
     </row>
     <row r="53" spans="1:25">
-      <c r="A53" s="464">
+      <c r="A53" s="458">
         <v>49</v>
       </c>
       <c r="B53" s="357" t="s">
@@ -18196,7 +18212,7 @@
       <c r="C53" s="84" t="s">
         <v>541</v>
       </c>
-      <c r="D53" s="454" t="s">
+      <c r="D53" s="448" t="s">
         <v>419</v>
       </c>
       <c r="E53" s="53"/>
@@ -18218,16 +18234,16 @@
       <c r="Y53" s="167"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A54" s="466">
+      <c r="A54" s="460">
         <v>50</v>
       </c>
-      <c r="B54" s="455" t="s">
+      <c r="B54" s="449" t="s">
         <v>542</v>
       </c>
-      <c r="C54" s="456" t="s">
+      <c r="C54" s="450" t="s">
         <v>543</v>
       </c>
-      <c r="D54" s="457" t="s">
+      <c r="D54" s="451" t="s">
         <v>417</v>
       </c>
       <c r="E54" s="53"/>
@@ -18309,29 +18325,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="651" t="s">
+      <c r="A1" s="645" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="541"/>
-      <c r="C1" s="541"/>
+      <c r="B1" s="535"/>
+      <c r="C1" s="535"/>
       <c r="D1" s="82"/>
       <c r="E1" s="53"/>
-      <c r="F1" s="651" t="s">
+      <c r="F1" s="645" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="541"/>
-      <c r="H1" s="542"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="536"/>
       <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="652"/>
-      <c r="B2" s="653"/>
-      <c r="C2" s="653"/>
+      <c r="A2" s="646"/>
+      <c r="B2" s="647"/>
+      <c r="C2" s="647"/>
       <c r="D2" s="93"/>
       <c r="E2" s="53"/>
-      <c r="F2" s="652"/>
-      <c r="G2" s="653"/>
-      <c r="H2" s="654"/>
+      <c r="F2" s="646"/>
+      <c r="G2" s="647"/>
+      <c r="H2" s="648"/>
       <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
@@ -18882,39 +18898,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="658" t="s">
+      <c r="B1" s="652" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="659"/>
-      <c r="D1" s="659"/>
-      <c r="E1" s="659"/>
-      <c r="F1" s="659"/>
-      <c r="G1" s="659"/>
-      <c r="H1" s="659"/>
-      <c r="I1" s="659"/>
-      <c r="J1" s="660"/>
+      <c r="C1" s="653"/>
+      <c r="D1" s="653"/>
+      <c r="E1" s="653"/>
+      <c r="F1" s="653"/>
+      <c r="G1" s="653"/>
+      <c r="H1" s="653"/>
+      <c r="I1" s="653"/>
+      <c r="J1" s="654"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="661"/>
-      <c r="C2" s="662"/>
-      <c r="D2" s="662"/>
-      <c r="E2" s="662"/>
-      <c r="F2" s="662"/>
-      <c r="G2" s="662"/>
-      <c r="H2" s="662"/>
-      <c r="I2" s="662"/>
-      <c r="J2" s="663"/>
+      <c r="B2" s="655"/>
+      <c r="C2" s="656"/>
+      <c r="D2" s="656"/>
+      <c r="E2" s="656"/>
+      <c r="F2" s="656"/>
+      <c r="G2" s="656"/>
+      <c r="H2" s="656"/>
+      <c r="I2" s="656"/>
+      <c r="J2" s="657"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="661"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="662"/>
-      <c r="E3" s="662"/>
-      <c r="F3" s="662"/>
-      <c r="G3" s="662"/>
-      <c r="H3" s="662"/>
-      <c r="I3" s="662"/>
-      <c r="J3" s="663"/>
+      <c r="B3" s="655"/>
+      <c r="C3" s="656"/>
+      <c r="D3" s="656"/>
+      <c r="E3" s="656"/>
+      <c r="F3" s="656"/>
+      <c r="G3" s="656"/>
+      <c r="H3" s="656"/>
+      <c r="I3" s="656"/>
+      <c r="J3" s="657"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1">
       <c r="B4" s="342" t="s">
@@ -18923,31 +18939,31 @@
       <c r="C4" s="343" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="646" t="s">
+      <c r="D4" s="640" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="647"/>
-      <c r="F4" s="647"/>
-      <c r="G4" s="647"/>
-      <c r="H4" s="647"/>
-      <c r="I4" s="672"/>
+      <c r="E4" s="641"/>
+      <c r="F4" s="641"/>
+      <c r="G4" s="641"/>
+      <c r="H4" s="641"/>
+      <c r="I4" s="666"/>
       <c r="J4" s="344"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="655"/>
-      <c r="C5" s="656"/>
-      <c r="D5" s="664" t="s">
+      <c r="B5" s="649"/>
+      <c r="C5" s="650"/>
+      <c r="D5" s="658" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="656"/>
-      <c r="F5" s="665"/>
-      <c r="G5" s="666" t="s">
+      <c r="E5" s="650"/>
+      <c r="F5" s="659"/>
+      <c r="G5" s="660" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="668" t="s">
+      <c r="H5" s="662" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="670" t="s">
+      <c r="I5" s="664" t="s">
         <v>123</v>
       </c>
       <c r="J5" s="341" t="s">
@@ -18955,8 +18971,8 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B6" s="655"/>
-      <c r="C6" s="657"/>
+      <c r="B6" s="649"/>
+      <c r="C6" s="651"/>
       <c r="D6" s="346" t="s">
         <v>118</v>
       </c>
@@ -18966,9 +18982,9 @@
       <c r="F6" s="348" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="667"/>
-      <c r="H6" s="669"/>
-      <c r="I6" s="671"/>
+      <c r="G6" s="661"/>
+      <c r="H6" s="663"/>
+      <c r="I6" s="665"/>
       <c r="J6" s="349"/>
     </row>
     <row r="7" spans="2:10">
@@ -20522,30 +20538,30 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="207"/>
-      <c r="B1" s="676" t="s">
+      <c r="B1" s="670" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="677"/>
-      <c r="D1" s="677"/>
-      <c r="E1" s="677"/>
-      <c r="F1" s="677"/>
-      <c r="G1" s="677"/>
-      <c r="H1" s="677"/>
-      <c r="I1" s="677"/>
-      <c r="J1" s="678"/>
+      <c r="C1" s="671"/>
+      <c r="D1" s="671"/>
+      <c r="E1" s="671"/>
+      <c r="F1" s="671"/>
+      <c r="G1" s="671"/>
+      <c r="H1" s="671"/>
+      <c r="I1" s="671"/>
+      <c r="J1" s="672"/>
       <c r="K1" s="207"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="207"/>
-      <c r="B2" s="679"/>
-      <c r="C2" s="680"/>
-      <c r="D2" s="680"/>
-      <c r="E2" s="680"/>
-      <c r="F2" s="680"/>
-      <c r="G2" s="680"/>
-      <c r="H2" s="680"/>
-      <c r="I2" s="680"/>
-      <c r="J2" s="681"/>
+      <c r="B2" s="673"/>
+      <c r="C2" s="674"/>
+      <c r="D2" s="674"/>
+      <c r="E2" s="674"/>
+      <c r="F2" s="674"/>
+      <c r="G2" s="674"/>
+      <c r="H2" s="674"/>
+      <c r="I2" s="674"/>
+      <c r="J2" s="675"/>
       <c r="K2" s="207"/>
     </row>
     <row r="3" spans="1:11">
@@ -20556,14 +20572,14 @@
       <c r="C3" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="673" t="s">
+      <c r="D3" s="667" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="674"/>
-      <c r="F3" s="674"/>
-      <c r="G3" s="674"/>
-      <c r="H3" s="674"/>
-      <c r="I3" s="675"/>
+      <c r="E3" s="668"/>
+      <c r="F3" s="668"/>
+      <c r="G3" s="668"/>
+      <c r="H3" s="668"/>
+      <c r="I3" s="669"/>
       <c r="J3" s="290"/>
       <c r="K3" s="207"/>
     </row>
@@ -21259,7 +21275,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I116" sqref="I116"/>
+      <selection pane="bottomRight" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21273,28 +21289,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21" customHeight="1">
-      <c r="B1" s="683" t="s">
+      <c r="B1" s="677" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="684"/>
-      <c r="D1" s="684"/>
-      <c r="E1" s="684"/>
-      <c r="F1" s="684"/>
-      <c r="G1" s="684"/>
-      <c r="H1" s="684"/>
-      <c r="I1" s="685"/>
+      <c r="C1" s="678"/>
+      <c r="D1" s="678"/>
+      <c r="E1" s="678"/>
+      <c r="F1" s="678"/>
+      <c r="G1" s="678"/>
+      <c r="H1" s="678"/>
+      <c r="I1" s="679"/>
     </row>
     <row r="2" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B2" s="686" t="s">
+      <c r="B2" s="680" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="687"/>
-      <c r="D2" s="687"/>
-      <c r="E2" s="687"/>
-      <c r="F2" s="687"/>
-      <c r="G2" s="687"/>
-      <c r="H2" s="687"/>
-      <c r="I2" s="688"/>
+      <c r="C2" s="681"/>
+      <c r="D2" s="681"/>
+      <c r="E2" s="681"/>
+      <c r="F2" s="681"/>
+      <c r="G2" s="681"/>
+      <c r="H2" s="681"/>
+      <c r="I2" s="682"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="289" t="s">
@@ -21303,14 +21319,14 @@
       <c r="C3" s="335" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="674" t="s">
+      <c r="D3" s="668" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="674"/>
-      <c r="F3" s="674"/>
-      <c r="G3" s="674"/>
-      <c r="H3" s="674"/>
-      <c r="I3" s="682"/>
+      <c r="E3" s="668"/>
+      <c r="F3" s="668"/>
+      <c r="G3" s="668"/>
+      <c r="H3" s="668"/>
+      <c r="I3" s="676"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="97">
@@ -23759,20 +23775,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:6">
-      <c r="A2" s="689" t="s">
+      <c r="A2" s="683" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="690"/>
-      <c r="C2" s="691"/>
+      <c r="B2" s="684"/>
+      <c r="C2" s="685"/>
       <c r="D2" s="397"/>
       <c r="F2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="692"/>
-      <c r="B3" s="693"/>
-      <c r="C3" s="694"/>
+      <c r="A3" s="686"/>
+      <c r="B3" s="687"/>
+      <c r="C3" s="688"/>
       <c r="D3" s="398"/>
       <c r="F3" t="s">
         <v>116</v>
@@ -23922,19 +23938,19 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:6">
-      <c r="A16" s="689" t="s">
+      <c r="A16" s="683" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="690"/>
-      <c r="C16" s="691"/>
+      <c r="B16" s="684"/>
+      <c r="C16" s="685"/>
       <c r="F16" s="41" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="695"/>
-      <c r="B17" s="696"/>
-      <c r="C17" s="697"/>
+      <c r="A17" s="689"/>
+      <c r="B17" s="690"/>
+      <c r="C17" s="691"/>
       <c r="F17" s="41" t="s">
         <v>114</v>
       </c>
